--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -3557,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R626"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="Q345" sqref="Q345"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="L489" sqref="L489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12355,6 +12355,12 @@
       <c r="J237" t="s">
         <v>354</v>
       </c>
+      <c r="P237">
+        <v>7.2</v>
+      </c>
+      <c r="Q237">
+        <v>1</v>
+      </c>
       <c r="R237" t="s">
         <v>896</v>
       </c>
@@ -12422,6 +12428,12 @@
       <c r="J239" t="s">
         <v>354</v>
       </c>
+      <c r="P239">
+        <v>7</v>
+      </c>
+      <c r="Q239">
+        <v>1</v>
+      </c>
       <c r="R239" t="s">
         <v>896</v>
       </c>
@@ -12457,6 +12469,12 @@
       <c r="J240" t="s">
         <v>354</v>
       </c>
+      <c r="P240">
+        <v>7</v>
+      </c>
+      <c r="Q240">
+        <v>1</v>
+      </c>
       <c r="R240" t="s">
         <v>896</v>
       </c>
@@ -12620,6 +12638,12 @@
       <c r="J245" t="s">
         <v>354</v>
       </c>
+      <c r="P245">
+        <v>6.7</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -12652,6 +12676,12 @@
       <c r="J246" t="s">
         <v>354</v>
       </c>
+      <c r="P246">
+        <v>7</v>
+      </c>
+      <c r="Q246">
+        <v>1</v>
+      </c>
       <c r="R246" t="s">
         <v>896</v>
       </c>
@@ -12687,6 +12717,12 @@
       <c r="J247" t="s">
         <v>354</v>
       </c>
+      <c r="P247">
+        <v>6.6</v>
+      </c>
+      <c r="Q247">
+        <v>1</v>
+      </c>
       <c r="R247" t="s">
         <v>896</v>
       </c>
@@ -12722,6 +12758,12 @@
       <c r="J248" t="s">
         <v>354</v>
       </c>
+      <c r="P248">
+        <v>6.8</v>
+      </c>
+      <c r="Q248">
+        <v>1</v>
+      </c>
       <c r="R248" t="s">
         <v>896</v>
       </c>
@@ -12757,6 +12799,12 @@
       <c r="J249" t="s">
         <v>354</v>
       </c>
+      <c r="P249">
+        <v>6.7</v>
+      </c>
+      <c r="Q249">
+        <v>1</v>
+      </c>
       <c r="R249" t="s">
         <v>896</v>
       </c>
@@ -12856,6 +12904,15 @@
       <c r="J252" t="s">
         <v>354</v>
       </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="P252">
+        <v>8</v>
+      </c>
+      <c r="Q252">
+        <v>1</v>
+      </c>
       <c r="R252" t="s">
         <v>896</v>
       </c>
@@ -12987,6 +13044,12 @@
       <c r="J256" t="s">
         <v>354</v>
       </c>
+      <c r="P256">
+        <v>7</v>
+      </c>
+      <c r="Q256">
+        <v>1</v>
+      </c>
       <c r="R256" t="s">
         <v>896</v>
       </c>
@@ -13022,6 +13085,15 @@
       <c r="J257" t="s">
         <v>354</v>
       </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="P257">
+        <v>7.5</v>
+      </c>
+      <c r="Q257">
+        <v>1</v>
+      </c>
       <c r="R257" t="s">
         <v>896</v>
       </c>
@@ -13057,6 +13129,12 @@
       <c r="J258" t="s">
         <v>354</v>
       </c>
+      <c r="P258">
+        <v>6.8</v>
+      </c>
+      <c r="Q258">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -13089,6 +13167,12 @@
       <c r="J259" t="s">
         <v>354</v>
       </c>
+      <c r="P259">
+        <v>7</v>
+      </c>
+      <c r="Q259">
+        <v>1</v>
+      </c>
       <c r="R259" t="s">
         <v>896</v>
       </c>
@@ -14166,6 +14250,12 @@
       <c r="J289" t="s">
         <v>410</v>
       </c>
+      <c r="P289">
+        <v>6.5</v>
+      </c>
+      <c r="Q289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
@@ -14233,6 +14323,12 @@
       <c r="J291" t="s">
         <v>410</v>
       </c>
+      <c r="P291">
+        <v>6.7</v>
+      </c>
+      <c r="Q291">
+        <v>1</v>
+      </c>
       <c r="R291" t="s">
         <v>896</v>
       </c>
@@ -14268,6 +14364,12 @@
       <c r="J292" t="s">
         <v>410</v>
       </c>
+      <c r="P292">
+        <v>6.7</v>
+      </c>
+      <c r="Q292">
+        <v>1</v>
+      </c>
       <c r="R292" t="s">
         <v>896</v>
       </c>
@@ -14303,6 +14405,12 @@
       <c r="J293" t="s">
         <v>410</v>
       </c>
+      <c r="P293">
+        <v>6.4</v>
+      </c>
+      <c r="Q293">
+        <v>1</v>
+      </c>
       <c r="R293" t="s">
         <v>896</v>
       </c>
@@ -14370,6 +14478,9 @@
       <c r="J295" t="s">
         <v>410</v>
       </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
@@ -14466,6 +14577,12 @@
       <c r="J298" t="s">
         <v>410</v>
       </c>
+      <c r="P298">
+        <v>6.8</v>
+      </c>
+      <c r="Q298">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
@@ -14530,6 +14647,12 @@
       <c r="J300" t="s">
         <v>410</v>
       </c>
+      <c r="P300">
+        <v>6.7</v>
+      </c>
+      <c r="Q300">
+        <v>1</v>
+      </c>
       <c r="R300" t="s">
         <v>896</v>
       </c>
@@ -14597,6 +14720,12 @@
       <c r="J302" t="s">
         <v>410</v>
       </c>
+      <c r="P302">
+        <v>6.5</v>
+      </c>
+      <c r="Q302">
+        <v>1</v>
+      </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
@@ -14629,6 +14758,12 @@
       <c r="J303" t="s">
         <v>410</v>
       </c>
+      <c r="P303">
+        <v>6.3</v>
+      </c>
+      <c r="Q303">
+        <v>1</v>
+      </c>
       <c r="R303" t="s">
         <v>896</v>
       </c>
@@ -14696,6 +14831,12 @@
       <c r="J305" t="s">
         <v>410</v>
       </c>
+      <c r="P305">
+        <v>6.4</v>
+      </c>
+      <c r="Q305">
+        <v>1</v>
+      </c>
       <c r="R305" t="s">
         <v>896</v>
       </c>
@@ -14763,6 +14904,12 @@
       <c r="J307" t="s">
         <v>410</v>
       </c>
+      <c r="P307">
+        <v>6.7</v>
+      </c>
+      <c r="Q307">
+        <v>1</v>
+      </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
@@ -14795,6 +14942,15 @@
       <c r="J308" t="s">
         <v>410</v>
       </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="P308">
+        <v>6.5</v>
+      </c>
+      <c r="Q308">
+        <v>1</v>
+      </c>
       <c r="R308" t="s">
         <v>896</v>
       </c>
@@ -14830,6 +14986,12 @@
       <c r="J309" t="s">
         <v>410</v>
       </c>
+      <c r="P309">
+        <v>6.5</v>
+      </c>
+      <c r="Q309">
+        <v>1</v>
+      </c>
       <c r="R309" t="s">
         <v>896</v>
       </c>
@@ -14865,6 +15027,12 @@
       <c r="J310" t="s">
         <v>410</v>
       </c>
+      <c r="P310">
+        <v>6.7</v>
+      </c>
+      <c r="Q310">
+        <v>1</v>
+      </c>
       <c r="R310" t="s">
         <v>896</v>
       </c>
@@ -14900,6 +15068,12 @@
       <c r="J311" t="s">
         <v>410</v>
       </c>
+      <c r="P311">
+        <v>6.2</v>
+      </c>
+      <c r="Q311">
+        <v>1</v>
+      </c>
       <c r="R311" t="s">
         <v>896</v>
       </c>
@@ -14935,6 +15109,12 @@
       <c r="J312" t="s">
         <v>410</v>
       </c>
+      <c r="P312">
+        <v>6.5</v>
+      </c>
+      <c r="Q312">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
@@ -16165,7 +16345,7 @@
         <v>470</v>
       </c>
       <c r="L346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P346">
         <v>8.1</v>
@@ -20404,6 +20584,15 @@
       <c r="J471" t="s">
         <v>614</v>
       </c>
+      <c r="O471">
+        <v>1</v>
+      </c>
+      <c r="P471">
+        <v>7.3</v>
+      </c>
+      <c r="Q471">
+        <v>1</v>
+      </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
@@ -20436,6 +20625,12 @@
       <c r="J472" t="s">
         <v>614</v>
       </c>
+      <c r="P472">
+        <v>7.7</v>
+      </c>
+      <c r="Q472">
+        <v>1</v>
+      </c>
       <c r="R472" t="s">
         <v>896</v>
       </c>
@@ -20471,6 +20666,12 @@
       <c r="J473" t="s">
         <v>614</v>
       </c>
+      <c r="P473">
+        <v>7</v>
+      </c>
+      <c r="Q473">
+        <v>1</v>
+      </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
@@ -20599,6 +20800,12 @@
       <c r="J477" t="s">
         <v>614</v>
       </c>
+      <c r="P477">
+        <v>6.6</v>
+      </c>
+      <c r="Q477">
+        <v>1</v>
+      </c>
       <c r="R477" t="s">
         <v>896</v>
       </c>
@@ -20634,6 +20841,12 @@
       <c r="J478" t="s">
         <v>614</v>
       </c>
+      <c r="P478">
+        <v>7.6</v>
+      </c>
+      <c r="Q478">
+        <v>1</v>
+      </c>
       <c r="R478" t="s">
         <v>896</v>
       </c>
@@ -20701,6 +20914,12 @@
       <c r="J480" t="s">
         <v>614</v>
       </c>
+      <c r="P480">
+        <v>6.5</v>
+      </c>
+      <c r="Q480">
+        <v>1</v>
+      </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
@@ -20733,6 +20952,15 @@
       <c r="J481" t="s">
         <v>614</v>
       </c>
+      <c r="K481">
+        <v>1</v>
+      </c>
+      <c r="P481">
+        <v>7.5</v>
+      </c>
+      <c r="Q481">
+        <v>1</v>
+      </c>
       <c r="R481" t="s">
         <v>896</v>
       </c>
@@ -20768,6 +20996,12 @@
       <c r="J482" t="s">
         <v>614</v>
       </c>
+      <c r="P482">
+        <v>6.7</v>
+      </c>
+      <c r="Q482">
+        <v>1</v>
+      </c>
       <c r="R482" t="s">
         <v>896</v>
       </c>
@@ -20835,6 +21069,15 @@
       <c r="J484" t="s">
         <v>614</v>
       </c>
+      <c r="K484">
+        <v>1</v>
+      </c>
+      <c r="P484">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q484">
+        <v>1</v>
+      </c>
       <c r="R484" t="s">
         <v>896</v>
       </c>
@@ -20902,6 +21145,12 @@
       <c r="J486" t="s">
         <v>614</v>
       </c>
+      <c r="P486">
+        <v>6.3</v>
+      </c>
+      <c r="Q486">
+        <v>1</v>
+      </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
@@ -20934,6 +21183,12 @@
       <c r="J487" t="s">
         <v>614</v>
       </c>
+      <c r="P487">
+        <v>6.9</v>
+      </c>
+      <c r="Q487">
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
@@ -20966,6 +21221,12 @@
       <c r="J488" t="s">
         <v>614</v>
       </c>
+      <c r="P488">
+        <v>6.6</v>
+      </c>
+      <c r="Q488">
+        <v>1</v>
+      </c>
       <c r="R488" t="s">
         <v>896</v>
       </c>
@@ -21001,6 +21262,15 @@
       <c r="J489" t="s">
         <v>614</v>
       </c>
+      <c r="L489">
+        <v>2</v>
+      </c>
+      <c r="P489">
+        <v>8</v>
+      </c>
+      <c r="Q489">
+        <v>1</v>
+      </c>
       <c r="R489" t="s">
         <v>896</v>
       </c>
@@ -21068,6 +21338,15 @@
       <c r="J491" t="s">
         <v>614</v>
       </c>
+      <c r="K491">
+        <v>1</v>
+      </c>
+      <c r="P491">
+        <v>7.6</v>
+      </c>
+      <c r="Q491">
+        <v>1</v>
+      </c>
       <c r="R491" t="s">
         <v>896</v>
       </c>
@@ -21135,6 +21414,12 @@
       <c r="J493" t="s">
         <v>614</v>
       </c>
+      <c r="P493">
+        <v>6.4</v>
+      </c>
+      <c r="Q493">
+        <v>1</v>
+      </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
@@ -21231,6 +21516,12 @@
       <c r="J496" t="s">
         <v>635</v>
       </c>
+      <c r="P496">
+        <v>4.7</v>
+      </c>
+      <c r="Q496">
+        <v>1</v>
+      </c>
       <c r="R496" t="s">
         <v>896</v>
       </c>
@@ -21298,6 +21589,12 @@
       <c r="J498" t="s">
         <v>635</v>
       </c>
+      <c r="P498">
+        <v>6.2</v>
+      </c>
+      <c r="Q498">
+        <v>1</v>
+      </c>
       <c r="R498" t="s">
         <v>896</v>
       </c>
@@ -21333,6 +21630,12 @@
       <c r="J499" t="s">
         <v>635</v>
       </c>
+      <c r="P499">
+        <v>6.7</v>
+      </c>
+      <c r="Q499">
+        <v>1</v>
+      </c>
       <c r="R499" t="s">
         <v>896</v>
       </c>
@@ -21464,6 +21767,12 @@
       <c r="J503" t="s">
         <v>635</v>
       </c>
+      <c r="P503">
+        <v>5.9</v>
+      </c>
+      <c r="Q503">
+        <v>1</v>
+      </c>
       <c r="R503" t="s">
         <v>896</v>
       </c>
@@ -21563,6 +21872,12 @@
       <c r="J506" t="s">
         <v>635</v>
       </c>
+      <c r="P506">
+        <v>5.5</v>
+      </c>
+      <c r="Q506">
+        <v>1</v>
+      </c>
       <c r="R506" t="s">
         <v>896</v>
       </c>
@@ -21598,6 +21913,12 @@
       <c r="J507" t="s">
         <v>635</v>
       </c>
+      <c r="P507">
+        <v>6.4</v>
+      </c>
+      <c r="Q507">
+        <v>1</v>
+      </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
@@ -21630,6 +21951,12 @@
       <c r="J508" t="s">
         <v>635</v>
       </c>
+      <c r="P508">
+        <v>7.1</v>
+      </c>
+      <c r="Q508">
+        <v>1</v>
+      </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
@@ -21662,6 +21989,12 @@
       <c r="J509" t="s">
         <v>635</v>
       </c>
+      <c r="P509">
+        <v>6.6</v>
+      </c>
+      <c r="Q509">
+        <v>1</v>
+      </c>
       <c r="R509" t="s">
         <v>896</v>
       </c>
@@ -21729,6 +22062,12 @@
       <c r="J511" t="s">
         <v>635</v>
       </c>
+      <c r="P511">
+        <v>6.7</v>
+      </c>
+      <c r="Q511">
+        <v>1</v>
+      </c>
       <c r="R511" t="s">
         <v>896</v>
       </c>
@@ -21764,6 +22103,12 @@
       <c r="J512" t="s">
         <v>635</v>
       </c>
+      <c r="P512">
+        <v>6.9</v>
+      </c>
+      <c r="Q512">
+        <v>1</v>
+      </c>
       <c r="R512" t="s">
         <v>896</v>
       </c>
@@ -21831,6 +22176,12 @@
       <c r="J514" t="s">
         <v>635</v>
       </c>
+      <c r="P514">
+        <v>7.4</v>
+      </c>
+      <c r="Q514">
+        <v>1</v>
+      </c>
       <c r="R514" t="s">
         <v>896</v>
       </c>
@@ -21866,6 +22217,12 @@
       <c r="J515" t="s">
         <v>635</v>
       </c>
+      <c r="P515">
+        <v>6.5</v>
+      </c>
+      <c r="Q515">
+        <v>1</v>
+      </c>
       <c r="R515" t="s">
         <v>896</v>
       </c>
@@ -21933,6 +22290,12 @@
       <c r="J517" t="s">
         <v>635</v>
       </c>
+      <c r="P517">
+        <v>6.4</v>
+      </c>
+      <c r="Q517">
+        <v>1</v>
+      </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
@@ -21965,6 +22328,12 @@
       <c r="J518" t="s">
         <v>635</v>
       </c>
+      <c r="P518">
+        <v>6.7</v>
+      </c>
+      <c r="Q518">
+        <v>1</v>
+      </c>
       <c r="R518" t="s">
         <v>896</v>
       </c>
@@ -22031,6 +22400,12 @@
       </c>
       <c r="J520" t="s">
         <v>635</v>
+      </c>
+      <c r="P520">
+        <v>6.8</v>
+      </c>
+      <c r="Q520">
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -3557,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R626"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="L489" sqref="L489"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="Q472" sqref="Q472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18854,6 +18854,12 @@
       <c r="J419" t="s">
         <v>547</v>
       </c>
+      <c r="P419">
+        <v>6.6</v>
+      </c>
+      <c r="Q419">
+        <v>1</v>
+      </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
@@ -18950,6 +18956,12 @@
       <c r="J422" t="s">
         <v>547</v>
       </c>
+      <c r="P422">
+        <v>6.6</v>
+      </c>
+      <c r="Q422">
+        <v>1</v>
+      </c>
       <c r="R422" t="s">
         <v>896</v>
       </c>
@@ -18985,6 +18997,12 @@
       <c r="J423" t="s">
         <v>547</v>
       </c>
+      <c r="P423">
+        <v>6.6</v>
+      </c>
+      <c r="Q423">
+        <v>1</v>
+      </c>
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
@@ -19119,6 +19137,12 @@
       <c r="J427" t="s">
         <v>547</v>
       </c>
+      <c r="P427">
+        <v>6.5</v>
+      </c>
+      <c r="Q427">
+        <v>1</v>
+      </c>
       <c r="R427" t="s">
         <v>896</v>
       </c>
@@ -19186,6 +19210,12 @@
       <c r="J429" t="s">
         <v>547</v>
       </c>
+      <c r="P429">
+        <v>7.1</v>
+      </c>
+      <c r="Q429">
+        <v>1</v>
+      </c>
       <c r="R429" t="s">
         <v>896</v>
       </c>
@@ -19221,6 +19251,15 @@
       <c r="J430" t="s">
         <v>547</v>
       </c>
+      <c r="M430">
+        <v>1</v>
+      </c>
+      <c r="P430">
+        <v>6.3</v>
+      </c>
+      <c r="Q430">
+        <v>1</v>
+      </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
@@ -19288,6 +19327,15 @@
       <c r="J432" t="s">
         <v>547</v>
       </c>
+      <c r="M432">
+        <v>1</v>
+      </c>
+      <c r="P432">
+        <v>6.2</v>
+      </c>
+      <c r="Q432">
+        <v>1</v>
+      </c>
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
@@ -19352,6 +19400,12 @@
       <c r="J434" t="s">
         <v>547</v>
       </c>
+      <c r="P434">
+        <v>7.6</v>
+      </c>
+      <c r="Q434">
+        <v>1</v>
+      </c>
       <c r="R434" t="s">
         <v>896</v>
       </c>
@@ -19419,6 +19473,12 @@
       <c r="J436" t="s">
         <v>547</v>
       </c>
+      <c r="P436">
+        <v>5.6</v>
+      </c>
+      <c r="Q436">
+        <v>1</v>
+      </c>
       <c r="R436" t="s">
         <v>896</v>
       </c>
@@ -19454,6 +19514,12 @@
       <c r="J437" t="s">
         <v>547</v>
       </c>
+      <c r="P437">
+        <v>6.9</v>
+      </c>
+      <c r="Q437">
+        <v>1</v>
+      </c>
       <c r="R437" t="s">
         <v>896</v>
       </c>
@@ -19489,6 +19555,12 @@
       <c r="J438" t="s">
         <v>547</v>
       </c>
+      <c r="P438">
+        <v>7</v>
+      </c>
+      <c r="Q438">
+        <v>1</v>
+      </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
@@ -19521,6 +19593,12 @@
       <c r="J439" t="s">
         <v>547</v>
       </c>
+      <c r="P439">
+        <v>6.7</v>
+      </c>
+      <c r="Q439">
+        <v>1</v>
+      </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
@@ -19553,6 +19631,15 @@
       <c r="J440" t="s">
         <v>547</v>
       </c>
+      <c r="M440">
+        <v>1</v>
+      </c>
+      <c r="P440">
+        <v>6.2</v>
+      </c>
+      <c r="Q440">
+        <v>1</v>
+      </c>
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
@@ -19585,6 +19672,12 @@
       <c r="J441" t="s">
         <v>547</v>
       </c>
+      <c r="P441">
+        <v>6.7</v>
+      </c>
+      <c r="Q441">
+        <v>1</v>
+      </c>
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
@@ -19617,6 +19710,12 @@
       <c r="J442" t="s">
         <v>547</v>
       </c>
+      <c r="P442">
+        <v>5.9</v>
+      </c>
+      <c r="Q442">
+        <v>1</v>
+      </c>
       <c r="R442" t="s">
         <v>896</v>
       </c>
@@ -19716,6 +19815,15 @@
       <c r="J445" t="s">
         <v>574</v>
       </c>
+      <c r="O445">
+        <v>1</v>
+      </c>
+      <c r="P445">
+        <v>7.2</v>
+      </c>
+      <c r="Q445">
+        <v>1</v>
+      </c>
       <c r="R445" t="s">
         <v>896</v>
       </c>
@@ -19751,6 +19859,12 @@
       <c r="J446" t="s">
         <v>574</v>
       </c>
+      <c r="P446">
+        <v>6.8</v>
+      </c>
+      <c r="Q446">
+        <v>1</v>
+      </c>
       <c r="R446" t="s">
         <v>896</v>
       </c>
@@ -19786,6 +19900,12 @@
       <c r="J447" t="s">
         <v>574</v>
       </c>
+      <c r="P447">
+        <v>7.4</v>
+      </c>
+      <c r="Q447">
+        <v>1</v>
+      </c>
       <c r="R447" t="s">
         <v>896</v>
       </c>
@@ -19821,6 +19941,12 @@
       <c r="J448" t="s">
         <v>574</v>
       </c>
+      <c r="P448">
+        <v>7</v>
+      </c>
+      <c r="Q448">
+        <v>1</v>
+      </c>
       <c r="R448" t="s">
         <v>896</v>
       </c>
@@ -19984,6 +20110,12 @@
       <c r="J453" t="s">
         <v>574</v>
       </c>
+      <c r="P453">
+        <v>6.8</v>
+      </c>
+      <c r="Q453">
+        <v>1</v>
+      </c>
       <c r="R453" t="s">
         <v>896</v>
       </c>
@@ -20019,6 +20151,12 @@
       <c r="J454" t="s">
         <v>574</v>
       </c>
+      <c r="P454">
+        <v>6.8</v>
+      </c>
+      <c r="Q454">
+        <v>1</v>
+      </c>
       <c r="R454" t="s">
         <v>896</v>
       </c>
@@ -20089,6 +20227,12 @@
       <c r="J456" t="s">
         <v>574</v>
       </c>
+      <c r="P456">
+        <v>6.7</v>
+      </c>
+      <c r="Q456">
+        <v>1</v>
+      </c>
       <c r="R456" t="s">
         <v>896</v>
       </c>
@@ -20220,6 +20364,12 @@
       <c r="J460" t="s">
         <v>574</v>
       </c>
+      <c r="P460">
+        <v>7.2</v>
+      </c>
+      <c r="Q460">
+        <v>1</v>
+      </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
@@ -20252,6 +20402,12 @@
       <c r="J461" t="s">
         <v>574</v>
       </c>
+      <c r="P461">
+        <v>6.6</v>
+      </c>
+      <c r="Q461">
+        <v>1</v>
+      </c>
       <c r="R461" t="s">
         <v>896</v>
       </c>
@@ -20287,6 +20443,12 @@
       <c r="J462" t="s">
         <v>574</v>
       </c>
+      <c r="P462">
+        <v>7.7</v>
+      </c>
+      <c r="Q462">
+        <v>1</v>
+      </c>
       <c r="R462" t="s">
         <v>896</v>
       </c>
@@ -20354,6 +20516,18 @@
       <c r="J464" t="s">
         <v>574</v>
       </c>
+      <c r="K464">
+        <v>1</v>
+      </c>
+      <c r="M464">
+        <v>1</v>
+      </c>
+      <c r="P464">
+        <v>7.8</v>
+      </c>
+      <c r="Q464">
+        <v>1</v>
+      </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
@@ -20418,6 +20592,12 @@
       <c r="J466" t="s">
         <v>574</v>
       </c>
+      <c r="P466">
+        <v>6.5</v>
+      </c>
+      <c r="Q466">
+        <v>1</v>
+      </c>
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
@@ -20450,6 +20630,12 @@
       <c r="J467" t="s">
         <v>574</v>
       </c>
+      <c r="P467">
+        <v>6.7</v>
+      </c>
+      <c r="Q467">
+        <v>1</v>
+      </c>
       <c r="R467" t="s">
         <v>896</v>
       </c>
@@ -20484,6 +20670,12 @@
       </c>
       <c r="J468" t="s">
         <v>574</v>
+      </c>
+      <c r="P468">
+        <v>6.3</v>
+      </c>
+      <c r="Q468">
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="905">
   <si>
     <t>Name</t>
   </si>
@@ -2731,6 +2731,9 @@
   </si>
   <si>
     <t>Zan Celar</t>
+  </si>
+  <si>
+    <t>Maximilian Wober (O.G)</t>
   </si>
 </sst>
 </file>
@@ -3555,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R626"/>
+  <dimension ref="A1:R627"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="Q472" sqref="Q472"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="P368" sqref="P368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17153,6 +17156,9 @@
       <c r="J368" t="s">
         <v>497</v>
       </c>
+      <c r="P368">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
@@ -17220,6 +17226,12 @@
       <c r="J370" t="s">
         <v>497</v>
       </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="P370">
+        <v>6.7</v>
+      </c>
       <c r="R370" t="s">
         <v>896</v>
       </c>
@@ -17290,6 +17302,12 @@
       <c r="J372" t="s">
         <v>497</v>
       </c>
+      <c r="N372">
+        <v>1</v>
+      </c>
+      <c r="P372">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
@@ -17386,6 +17404,9 @@
       <c r="J375" t="s">
         <v>497</v>
       </c>
+      <c r="P375">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
@@ -17418,6 +17439,12 @@
       <c r="J376" t="s">
         <v>497</v>
       </c>
+      <c r="N376">
+        <v>1</v>
+      </c>
+      <c r="P376">
+        <v>6</v>
+      </c>
       <c r="R376" t="s">
         <v>896</v>
       </c>
@@ -17453,6 +17480,9 @@
       <c r="J377" t="s">
         <v>497</v>
       </c>
+      <c r="P377">
+        <v>6.5</v>
+      </c>
       <c r="R377" t="s">
         <v>896</v>
       </c>
@@ -17488,6 +17518,9 @@
       <c r="J378" t="s">
         <v>497</v>
       </c>
+      <c r="P378">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
@@ -17520,6 +17553,12 @@
       <c r="J379" t="s">
         <v>497</v>
       </c>
+      <c r="N379">
+        <v>1</v>
+      </c>
+      <c r="P379">
+        <v>6.1</v>
+      </c>
       <c r="R379" t="s">
         <v>896</v>
       </c>
@@ -17555,6 +17594,9 @@
       <c r="J380" t="s">
         <v>497</v>
       </c>
+      <c r="P380">
+        <v>7</v>
+      </c>
       <c r="R380" t="s">
         <v>896</v>
       </c>
@@ -17590,6 +17632,9 @@
       <c r="J381" t="s">
         <v>497</v>
       </c>
+      <c r="P381">
+        <v>6.9</v>
+      </c>
       <c r="R381" t="s">
         <v>896</v>
       </c>
@@ -17657,6 +17702,12 @@
       <c r="J383" t="s">
         <v>497</v>
       </c>
+      <c r="N383">
+        <v>1</v>
+      </c>
+      <c r="P383">
+        <v>6.1</v>
+      </c>
       <c r="R383" t="s">
         <v>896</v>
       </c>
@@ -17852,6 +17903,9 @@
       <c r="J389" t="s">
         <v>497</v>
       </c>
+      <c r="P389">
+        <v>6.6</v>
+      </c>
       <c r="R389" t="s">
         <v>896</v>
       </c>
@@ -17887,6 +17941,9 @@
       <c r="J390" t="s">
         <v>497</v>
       </c>
+      <c r="P390">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
@@ -17919,6 +17976,9 @@
       <c r="J391" t="s">
         <v>497</v>
       </c>
+      <c r="P391">
+        <v>6.4</v>
+      </c>
       <c r="R391" t="s">
         <v>896</v>
       </c>
@@ -17986,6 +18046,9 @@
       <c r="J393" t="s">
         <v>526</v>
       </c>
+      <c r="P393">
+        <v>7.8</v>
+      </c>
       <c r="R393" t="s">
         <v>896</v>
       </c>
@@ -18085,6 +18148,9 @@
       <c r="J396" t="s">
         <v>526</v>
       </c>
+      <c r="P396">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
@@ -18149,6 +18215,9 @@
       <c r="J398" t="s">
         <v>526</v>
       </c>
+      <c r="P398">
+        <v>7.2</v>
+      </c>
       <c r="R398" t="s">
         <v>896</v>
       </c>
@@ -18184,6 +18253,9 @@
       <c r="J399" t="s">
         <v>526</v>
       </c>
+      <c r="P399">
+        <v>7</v>
+      </c>
       <c r="R399" t="s">
         <v>896</v>
       </c>
@@ -18254,6 +18326,9 @@
       <c r="J401" t="s">
         <v>526</v>
       </c>
+      <c r="P401">
+        <v>7.3</v>
+      </c>
       <c r="R401" t="s">
         <v>896</v>
       </c>
@@ -18388,6 +18463,9 @@
       <c r="J405" t="s">
         <v>526</v>
       </c>
+      <c r="P405">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
@@ -18420,6 +18498,9 @@
       <c r="J406" t="s">
         <v>526</v>
       </c>
+      <c r="P406">
+        <v>7</v>
+      </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
@@ -18484,6 +18565,9 @@
       <c r="J408" t="s">
         <v>526</v>
       </c>
+      <c r="P408">
+        <v>6.9</v>
+      </c>
       <c r="R408" t="s">
         <v>896</v>
       </c>
@@ -18615,6 +18699,12 @@
       <c r="J412" t="s">
         <v>526</v>
       </c>
+      <c r="N412">
+        <v>1</v>
+      </c>
+      <c r="P412">
+        <v>6.6</v>
+      </c>
       <c r="R412" t="s">
         <v>896</v>
       </c>
@@ -18650,6 +18740,9 @@
       <c r="J413" t="s">
         <v>526</v>
       </c>
+      <c r="P413">
+        <v>6.5</v>
+      </c>
       <c r="R413" t="s">
         <v>896</v>
       </c>
@@ -18685,6 +18778,9 @@
       <c r="J414" t="s">
         <v>526</v>
       </c>
+      <c r="P414">
+        <v>7.4</v>
+      </c>
       <c r="R414" t="s">
         <v>896</v>
       </c>
@@ -18720,6 +18816,9 @@
       <c r="J415" t="s">
         <v>526</v>
       </c>
+      <c r="P415">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
@@ -18752,6 +18851,9 @@
       <c r="J416" t="s">
         <v>526</v>
       </c>
+      <c r="P416">
+        <v>6.6</v>
+      </c>
       <c r="R416" t="s">
         <v>896</v>
       </c>
@@ -26103,6 +26205,17 @@
         <v>6.4</v>
       </c>
       <c r="Q626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>904</v>
+      </c>
+      <c r="J627" t="s">
+        <v>526</v>
+      </c>
+      <c r="K627">
         <v>1</v>
       </c>
     </row>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -3560,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R627"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="P368" sqref="P368"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="O393" sqref="O393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17159,6 +17159,9 @@
       <c r="P368">
         <v>6.6</v>
       </c>
+      <c r="Q368">
+        <v>1</v>
+      </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
@@ -17232,6 +17235,9 @@
       <c r="P370">
         <v>6.7</v>
       </c>
+      <c r="Q370">
+        <v>1</v>
+      </c>
       <c r="R370" t="s">
         <v>896</v>
       </c>
@@ -17308,6 +17314,9 @@
       <c r="P372">
         <v>5.0999999999999996</v>
       </c>
+      <c r="Q372">
+        <v>1</v>
+      </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
@@ -17407,6 +17416,9 @@
       <c r="P375">
         <v>6.5</v>
       </c>
+      <c r="Q375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
@@ -17445,6 +17457,9 @@
       <c r="P376">
         <v>6</v>
       </c>
+      <c r="Q376">
+        <v>1</v>
+      </c>
       <c r="R376" t="s">
         <v>896</v>
       </c>
@@ -17483,6 +17498,9 @@
       <c r="P377">
         <v>6.5</v>
       </c>
+      <c r="Q377">
+        <v>1</v>
+      </c>
       <c r="R377" t="s">
         <v>896</v>
       </c>
@@ -17521,6 +17539,9 @@
       <c r="P378">
         <v>6.5</v>
       </c>
+      <c r="Q378">
+        <v>1</v>
+      </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
@@ -17559,6 +17580,9 @@
       <c r="P379">
         <v>6.1</v>
       </c>
+      <c r="Q379">
+        <v>1</v>
+      </c>
       <c r="R379" t="s">
         <v>896</v>
       </c>
@@ -17597,6 +17621,9 @@
       <c r="P380">
         <v>7</v>
       </c>
+      <c r="Q380">
+        <v>1</v>
+      </c>
       <c r="R380" t="s">
         <v>896</v>
       </c>
@@ -17635,6 +17662,9 @@
       <c r="P381">
         <v>6.9</v>
       </c>
+      <c r="Q381">
+        <v>1</v>
+      </c>
       <c r="R381" t="s">
         <v>896</v>
       </c>
@@ -17708,6 +17738,9 @@
       <c r="P383">
         <v>6.1</v>
       </c>
+      <c r="Q383">
+        <v>1</v>
+      </c>
       <c r="R383" t="s">
         <v>896</v>
       </c>
@@ -17906,6 +17939,9 @@
       <c r="P389">
         <v>6.6</v>
       </c>
+      <c r="Q389">
+        <v>1</v>
+      </c>
       <c r="R389" t="s">
         <v>896</v>
       </c>
@@ -17944,6 +17980,9 @@
       <c r="P390">
         <v>6.1</v>
       </c>
+      <c r="Q390">
+        <v>1</v>
+      </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
@@ -17979,6 +18018,9 @@
       <c r="P391">
         <v>6.4</v>
       </c>
+      <c r="Q391">
+        <v>1</v>
+      </c>
       <c r="R391" t="s">
         <v>896</v>
       </c>
@@ -18046,8 +18088,14 @@
       <c r="J393" t="s">
         <v>526</v>
       </c>
+      <c r="O393">
+        <v>1</v>
+      </c>
       <c r="P393">
         <v>7.8</v>
+      </c>
+      <c r="Q393">
+        <v>1</v>
       </c>
       <c r="R393" t="s">
         <v>896</v>
@@ -18151,6 +18199,9 @@
       <c r="P396">
         <v>7.2</v>
       </c>
+      <c r="Q396">
+        <v>1</v>
+      </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
@@ -18218,6 +18269,9 @@
       <c r="P398">
         <v>7.2</v>
       </c>
+      <c r="Q398">
+        <v>1</v>
+      </c>
       <c r="R398" t="s">
         <v>896</v>
       </c>
@@ -18256,6 +18310,9 @@
       <c r="P399">
         <v>7</v>
       </c>
+      <c r="Q399">
+        <v>1</v>
+      </c>
       <c r="R399" t="s">
         <v>896</v>
       </c>
@@ -18329,6 +18386,9 @@
       <c r="P401">
         <v>7.3</v>
       </c>
+      <c r="Q401">
+        <v>1</v>
+      </c>
       <c r="R401" t="s">
         <v>896</v>
       </c>
@@ -18466,6 +18526,9 @@
       <c r="P405">
         <v>7.2</v>
       </c>
+      <c r="Q405">
+        <v>1</v>
+      </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
@@ -18501,6 +18564,9 @@
       <c r="P406">
         <v>7</v>
       </c>
+      <c r="Q406">
+        <v>1</v>
+      </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
@@ -18568,6 +18634,9 @@
       <c r="P408">
         <v>6.9</v>
       </c>
+      <c r="Q408">
+        <v>1</v>
+      </c>
       <c r="R408" t="s">
         <v>896</v>
       </c>
@@ -18705,6 +18774,9 @@
       <c r="P412">
         <v>6.6</v>
       </c>
+      <c r="Q412">
+        <v>1</v>
+      </c>
       <c r="R412" t="s">
         <v>896</v>
       </c>
@@ -18743,6 +18815,9 @@
       <c r="P413">
         <v>6.5</v>
       </c>
+      <c r="Q413">
+        <v>1</v>
+      </c>
       <c r="R413" t="s">
         <v>896</v>
       </c>
@@ -18781,6 +18856,9 @@
       <c r="P414">
         <v>7.4</v>
       </c>
+      <c r="Q414">
+        <v>1</v>
+      </c>
       <c r="R414" t="s">
         <v>896</v>
       </c>
@@ -18819,6 +18897,9 @@
       <c r="P415">
         <v>6.4</v>
       </c>
+      <c r="Q415">
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
@@ -18853,6 +18934,9 @@
       </c>
       <c r="P416">
         <v>6.6</v>
+      </c>
+      <c r="Q416">
+        <v>1</v>
       </c>
       <c r="R416" t="s">
         <v>896</v>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -3560,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R627"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="O393" sqref="O393"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="N412" sqref="N412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17229,7 +17229,7 @@
       <c r="J370" t="s">
         <v>497</v>
       </c>
-      <c r="N370">
+      <c r="M370">
         <v>1</v>
       </c>
       <c r="P370">
@@ -17308,7 +17308,7 @@
       <c r="J372" t="s">
         <v>497</v>
       </c>
-      <c r="N372">
+      <c r="M372">
         <v>1</v>
       </c>
       <c r="P372">
@@ -17451,7 +17451,7 @@
       <c r="J376" t="s">
         <v>497</v>
       </c>
-      <c r="N376">
+      <c r="M376">
         <v>1</v>
       </c>
       <c r="P376">
@@ -17574,7 +17574,7 @@
       <c r="J379" t="s">
         <v>497</v>
       </c>
-      <c r="N379">
+      <c r="M379">
         <v>1</v>
       </c>
       <c r="P379">
@@ -17732,7 +17732,7 @@
       <c r="J383" t="s">
         <v>497</v>
       </c>
-      <c r="N383">
+      <c r="M383">
         <v>1</v>
       </c>
       <c r="P383">
@@ -18768,7 +18768,7 @@
       <c r="J412" t="s">
         <v>526</v>
       </c>
-      <c r="N412">
+      <c r="M412">
         <v>1</v>
       </c>
       <c r="P412">

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="906">
   <si>
     <t>Name</t>
   </si>
@@ -2250,9 +2250,6 @@
     <t>Tomas Soucek</t>
   </si>
   <si>
-    <t>Twente Enschede FC</t>
-  </si>
-  <si>
     <t>Lukas Cerv</t>
   </si>
   <si>
@@ -2697,9 +2694,6 @@
     <t>David Jurasek</t>
   </si>
   <si>
-    <t>Michal Sadilek</t>
-  </si>
-  <si>
     <t>Antonin Barak</t>
   </si>
   <si>
@@ -2734,6 +2728,15 @@
   </si>
   <si>
     <t>Maximilian Wober (O.G)</t>
+  </si>
+  <si>
+    <t>Robin Hranac (O.G)</t>
+  </si>
+  <si>
+    <t>Petr Sevcik</t>
+  </si>
+  <si>
+    <t>Slavia Prague</t>
   </si>
 </sst>
 </file>
@@ -3558,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R627"/>
+  <dimension ref="A1:R628"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="N412" sqref="N412"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="R619" sqref="R619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3610,21 +3613,21 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="R1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3692,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3800,12 +3803,12 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -3841,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3942,7 +3945,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -3978,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4022,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -4059,7 +4062,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -4133,12 +4136,12 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -4174,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -4215,12 +4218,12 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -4297,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -4341,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -4388,12 +4391,12 @@
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -4463,7 +4466,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -4568,7 +4571,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -4645,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -4788,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -4831,9 +4834,6 @@
       <c r="Q33">
         <v>1</v>
       </c>
-      <c r="R33" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4904,6 +4904,9 @@
       <c r="Q35">
         <v>1</v>
       </c>
+      <c r="R35" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4943,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -4984,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -5059,9 +5062,6 @@
       <c r="Q39">
         <v>1</v>
       </c>
-      <c r="R39" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -5094,6 +5094,9 @@
       <c r="J40" t="s">
         <v>59</v>
       </c>
+      <c r="R40" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -5174,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -5215,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="R43" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -5255,9 +5258,6 @@
       <c r="Q44">
         <v>1</v>
       </c>
-      <c r="R44" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5398,6 +5398,9 @@
       <c r="Q48">
         <v>1</v>
       </c>
+      <c r="R48" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -5465,7 +5468,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -5501,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="R51" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -5570,7 +5573,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -5606,12 +5609,12 @@
         <v>1</v>
       </c>
       <c r="R54" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -5675,7 +5678,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -5711,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="R57" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -5755,12 +5758,12 @@
         <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -5830,7 +5833,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -5866,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="R61" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -5907,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -5944,7 +5947,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -5981,9 +5984,6 @@
       </c>
       <c r="Q64">
         <v>1</v>
-      </c>
-      <c r="R64" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -6020,7 +6020,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -6048,6 +6048,9 @@
       </c>
       <c r="J66" t="s">
         <v>100</v>
+      </c>
+      <c r="R66" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -6090,7 +6093,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -6126,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="R68" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -6170,12 +6173,12 @@
         <v>1</v>
       </c>
       <c r="R69" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
@@ -6211,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -6248,7 +6251,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B72" t="s">
         <v>43</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B73" t="s">
         <v>47</v>
@@ -6312,7 +6315,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B74" t="s">
         <v>47</v>
@@ -6350,7 +6353,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
@@ -6418,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="R76" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -6455,7 +6458,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -6494,12 +6497,12 @@
         <v>1</v>
       </c>
       <c r="R78" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -6605,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="R81" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -6678,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="R83" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -6712,13 +6715,10 @@
       <c r="J84" t="s">
         <v>131</v>
       </c>
-      <c r="R84" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
@@ -6752,6 +6752,9 @@
       </c>
       <c r="Q85">
         <v>1</v>
+      </c>
+      <c r="R85" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -6794,7 +6797,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B87" t="s">
         <v>24</v>
@@ -6826,7 +6829,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
@@ -6862,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="R88" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -6906,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="R89" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -6979,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="R91" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -7057,6 +7060,9 @@
       <c r="Q93">
         <v>1</v>
       </c>
+      <c r="R93" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -7102,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="R94" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -7200,9 +7206,6 @@
       <c r="J97" t="s">
         <v>131</v>
       </c>
-      <c r="R97" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -7305,13 +7308,10 @@
       <c r="Q100">
         <v>1</v>
       </c>
-      <c r="R100" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B101" t="s">
         <v>52</v>
@@ -7347,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="R104" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -7504,6 +7504,9 @@
       <c r="Q105">
         <v>1</v>
       </c>
+      <c r="R105" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -7539,7 +7542,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -7578,12 +7581,12 @@
         <v>1</v>
       </c>
       <c r="R107" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -7651,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -7720,7 +7723,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B112" t="s">
         <v>24</v>
@@ -7756,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="R112" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7790,9 +7793,6 @@
       <c r="J113" t="s">
         <v>174</v>
       </c>
-      <c r="R113" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -7831,6 +7831,9 @@
       <c r="Q114">
         <v>1</v>
       </c>
+      <c r="R114" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -7873,12 +7876,12 @@
         <v>1</v>
       </c>
       <c r="R115" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B116" t="s">
         <v>38</v>
@@ -7949,12 +7952,12 @@
         <v>1</v>
       </c>
       <c r="R117" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B118" t="s">
         <v>40</v>
@@ -8025,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="R119" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -8068,7 +8071,7 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B121" t="s">
         <v>43</v>
@@ -8110,12 +8113,12 @@
         <v>1</v>
       </c>
       <c r="R121" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B122" t="s">
         <v>43</v>
@@ -8185,7 +8188,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B124" t="s">
         <v>47</v>
@@ -8253,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="R125" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -8290,7 +8293,7 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B127" t="s">
         <v>51</v>
@@ -8361,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="R128" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -8404,7 +8407,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B130" t="s">
         <v>55</v>
@@ -8443,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="R130" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -8516,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="R132" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -8621,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="R135" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -8662,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="R136" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -8702,13 +8705,10 @@
       <c r="Q137">
         <v>1</v>
       </c>
-      <c r="R137" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -8808,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="R140" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="R143" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="R144" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -9071,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="R147" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="R148" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -9149,7 +9149,7 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B150" t="s">
         <v>47</v>
@@ -9280,6 +9280,9 @@
       <c r="Q153">
         <v>1</v>
       </c>
+      <c r="R153" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -9351,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="R155" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -9391,9 +9394,6 @@
       <c r="Q156">
         <v>1</v>
       </c>
-      <c r="R156" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -9432,6 +9432,9 @@
       <c r="Q157">
         <v>1</v>
       </c>
+      <c r="R157" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -9470,6 +9473,9 @@
       <c r="Q158">
         <v>1</v>
       </c>
+      <c r="R158" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -9534,9 +9540,6 @@
       <c r="J160" t="s">
         <v>236</v>
       </c>
-      <c r="R160" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -9576,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="R161" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -9713,7 +9716,7 @@
         <v>1</v>
       </c>
       <c r="R165" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -9754,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="R166" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -9827,12 +9830,12 @@
         <v>1</v>
       </c>
       <c r="R168" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B169" t="s">
         <v>38</v>
@@ -9900,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="R170" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -9941,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="R171" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -10045,6 +10048,9 @@
       <c r="Q174">
         <v>1</v>
       </c>
+      <c r="R174" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -10151,12 +10157,12 @@
         <v>1</v>
       </c>
       <c r="R177" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B178" t="s">
         <v>51</v>
@@ -10233,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="R179" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -10276,9 +10282,6 @@
       <c r="Q180">
         <v>1</v>
       </c>
-      <c r="R180" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -10317,6 +10320,9 @@
       <c r="Q181">
         <v>1</v>
       </c>
+      <c r="R181" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -10355,9 +10361,6 @@
       <c r="Q182">
         <v>1</v>
       </c>
-      <c r="R182" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -10429,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="R184" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -10537,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="R187" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -10571,9 +10574,6 @@
       <c r="J188" t="s">
         <v>277</v>
       </c>
-      <c r="R188" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -10615,6 +10615,9 @@
       <c r="Q189">
         <v>1</v>
       </c>
+      <c r="R189" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -10717,6 +10720,9 @@
       <c r="Q192">
         <v>1</v>
       </c>
+      <c r="R192" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
@@ -10794,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="R194" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -10860,9 +10866,6 @@
       <c r="J196" t="s">
         <v>277</v>
       </c>
-      <c r="R196" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -10901,9 +10904,6 @@
       <c r="Q197">
         <v>1</v>
       </c>
-      <c r="R197" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -10943,12 +10943,12 @@
         <v>1</v>
       </c>
       <c r="R198" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B199" t="s">
         <v>43</v>
@@ -10985,6 +10985,9 @@
       </c>
       <c r="Q199">
         <v>1</v>
+      </c>
+      <c r="R199" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
@@ -11025,12 +11028,12 @@
         <v>1</v>
       </c>
       <c r="R200" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B201" t="s">
         <v>43</v>
@@ -11135,6 +11138,9 @@
       <c r="Q203">
         <v>1</v>
       </c>
+      <c r="R203" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -11174,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="R204" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
@@ -11311,7 +11317,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
@@ -11384,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="R210" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
@@ -11489,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="R213" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -11523,9 +11529,6 @@
       <c r="J214" t="s">
         <v>308</v>
       </c>
-      <c r="R214" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -11564,6 +11567,9 @@
       <c r="Q215">
         <v>1</v>
       </c>
+      <c r="R215" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -11670,12 +11676,12 @@
         <v>1</v>
       </c>
       <c r="R218" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
@@ -11712,6 +11718,9 @@
       </c>
       <c r="Q219">
         <v>1</v>
+      </c>
+      <c r="R219" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
@@ -11752,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="R220" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
@@ -11895,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="R224" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
@@ -11968,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="R226" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
@@ -12034,9 +12043,6 @@
       <c r="J228" t="s">
         <v>308</v>
       </c>
-      <c r="R228" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
@@ -12146,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="R231" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
@@ -12187,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="R232" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
@@ -12228,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="R233" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
@@ -12365,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="R237" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
@@ -12438,12 +12444,12 @@
         <v>1</v>
       </c>
       <c r="R239" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B240" t="s">
         <v>24</v>
@@ -12479,7 +12485,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
@@ -12647,6 +12653,9 @@
       <c r="Q245">
         <v>1</v>
       </c>
+      <c r="R245" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -12686,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="R246" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
@@ -12727,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="R247" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
@@ -12768,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="R248" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
@@ -12808,9 +12817,6 @@
       <c r="Q249">
         <v>1</v>
       </c>
-      <c r="R249" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
@@ -12917,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="R252" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
@@ -13054,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="R256" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
@@ -13098,7 +13104,7 @@
         <v>1</v>
       </c>
       <c r="R257" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
@@ -13177,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="R259" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
@@ -13278,7 +13284,7 @@
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B263" t="s">
         <v>15</v>
@@ -13346,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="R264" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
@@ -13387,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="R265" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
@@ -13428,7 +13434,7 @@
         <v>1</v>
       </c>
       <c r="R266" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
@@ -13469,12 +13475,12 @@
         <v>1</v>
       </c>
       <c r="R267" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B268" t="s">
         <v>24</v>
@@ -13574,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="R270" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
@@ -13615,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="R271" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
@@ -13729,12 +13735,12 @@
         <v>1</v>
       </c>
       <c r="R274" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B275" t="s">
         <v>40</v>
@@ -13766,7 +13772,7 @@
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B276" t="s">
         <v>40</v>
@@ -13802,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="R276" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
@@ -13878,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="R278" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
@@ -14043,7 +14049,7 @@
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B284" t="s">
         <v>55</v>
@@ -14079,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="R284" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
@@ -14123,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="R285" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
@@ -14259,10 +14265,13 @@
       <c r="Q289">
         <v>1</v>
       </c>
+      <c r="R289" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B290" t="s">
         <v>15</v>
@@ -14290,9 +14299,6 @@
       </c>
       <c r="J290" t="s">
         <v>410</v>
-      </c>
-      <c r="R290" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
@@ -14333,12 +14339,12 @@
         <v>1</v>
       </c>
       <c r="R291" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B292" t="s">
         <v>24</v>
@@ -14374,7 +14380,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
@@ -14415,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="R293" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
@@ -14484,6 +14490,9 @@
       <c r="M295">
         <v>1</v>
       </c>
+      <c r="R295" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
@@ -14586,6 +14595,9 @@
       <c r="Q298">
         <v>1</v>
       </c>
+      <c r="R298" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
@@ -14621,7 +14633,7 @@
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B300" t="s">
         <v>43</v>
@@ -14657,12 +14669,12 @@
         <v>1</v>
       </c>
       <c r="R300" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B301" t="s">
         <v>43</v>
@@ -14694,7 +14706,7 @@
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B302" t="s">
         <v>43</v>
@@ -14732,7 +14744,7 @@
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B303" t="s">
         <v>43</v>
@@ -14766,9 +14778,6 @@
       </c>
       <c r="Q303">
         <v>1</v>
-      </c>
-      <c r="R303" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
@@ -14805,7 +14814,7 @@
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B305" t="s">
         <v>430</v>
@@ -14839,9 +14848,6 @@
       </c>
       <c r="Q305">
         <v>1</v>
-      </c>
-      <c r="R305" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
@@ -14955,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="R308" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
@@ -14996,12 +15002,12 @@
         <v>1</v>
       </c>
       <c r="R309" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B310" t="s">
         <v>55</v>
@@ -15037,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="R310" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
@@ -15078,12 +15084,12 @@
         <v>1</v>
       </c>
       <c r="R311" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B312" t="s">
         <v>55</v>
@@ -15185,7 +15191,7 @@
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B315" t="s">
         <v>15</v>
@@ -15221,7 +15227,7 @@
         <v>1</v>
       </c>
       <c r="R315" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
@@ -15294,12 +15300,12 @@
         <v>1</v>
       </c>
       <c r="R317" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B318" t="s">
         <v>24</v>
@@ -15329,7 +15335,7 @@
         <v>440</v>
       </c>
       <c r="R318" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
@@ -15440,7 +15446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
@@ -15477,7 +15483,7 @@
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B323" t="s">
         <v>38</v>
@@ -15545,7 +15551,7 @@
         <v>1</v>
       </c>
       <c r="R324" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
@@ -15585,9 +15591,6 @@
       <c r="Q325">
         <v>1</v>
       </c>
-      <c r="R325" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
@@ -15620,6 +15623,9 @@
       <c r="J326" t="s">
         <v>440</v>
       </c>
+      <c r="R326" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
@@ -15693,7 +15699,7 @@
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B329" t="s">
         <v>43</v>
@@ -15732,7 +15738,7 @@
         <v>1</v>
       </c>
       <c r="R329" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
@@ -15849,7 +15855,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
@@ -15890,7 +15896,7 @@
         <v>1</v>
       </c>
       <c r="R333" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
@@ -16026,6 +16032,9 @@
       <c r="J337" t="s">
         <v>440</v>
       </c>
+      <c r="R337" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
@@ -16067,6 +16076,9 @@
       <c r="Q338">
         <v>1</v>
       </c>
+      <c r="R338" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
@@ -16099,13 +16111,10 @@
       <c r="J339" t="s">
         <v>440</v>
       </c>
-      <c r="R339" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B340" t="s">
         <v>55</v>
@@ -16139,9 +16148,6 @@
       </c>
       <c r="Q340">
         <v>1</v>
-      </c>
-      <c r="R340" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
@@ -16182,7 +16188,7 @@
         <v>1</v>
       </c>
       <c r="R341" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
@@ -16280,9 +16286,6 @@
       <c r="J344" t="s">
         <v>470</v>
       </c>
-      <c r="R344" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -16318,7 +16321,7 @@
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B346" t="s">
         <v>24</v>
@@ -16357,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="R346" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
@@ -16398,7 +16401,7 @@
         <v>1</v>
       </c>
       <c r="R347" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
@@ -16438,6 +16441,9 @@
       <c r="Q348">
         <v>1</v>
       </c>
+      <c r="R348" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
@@ -16470,9 +16476,6 @@
       <c r="J349" t="s">
         <v>470</v>
       </c>
-      <c r="R349" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
@@ -16544,12 +16547,12 @@
         <v>1</v>
       </c>
       <c r="R351" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B352" t="s">
         <v>35</v>
@@ -16619,6 +16622,9 @@
       <c r="Q353">
         <v>1</v>
       </c>
+      <c r="R353" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
@@ -16690,7 +16696,7 @@
         <v>1</v>
       </c>
       <c r="R355" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
@@ -16801,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="R358" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
@@ -16842,15 +16848,15 @@
         <v>1</v>
       </c>
       <c r="R359" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B360" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C360">
         <v>23</v>
@@ -16918,7 +16924,7 @@
         <v>1</v>
       </c>
       <c r="R361" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
@@ -17055,7 +17061,7 @@
         <v>470</v>
       </c>
       <c r="R365" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
@@ -17162,6 +17168,9 @@
       <c r="Q368">
         <v>1</v>
       </c>
+      <c r="R368" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
@@ -17194,9 +17203,6 @@
       <c r="J369" t="s">
         <v>497</v>
       </c>
-      <c r="R369" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
@@ -17239,7 +17245,7 @@
         <v>1</v>
       </c>
       <c r="R370" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
@@ -17273,13 +17279,10 @@
       <c r="J371" t="s">
         <v>497</v>
       </c>
-      <c r="R371" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
@@ -17419,6 +17422,9 @@
       <c r="Q375">
         <v>1</v>
       </c>
+      <c r="R375" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
@@ -17461,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="R376" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
@@ -17502,7 +17508,7 @@
         <v>1</v>
       </c>
       <c r="R377" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
@@ -17542,6 +17548,9 @@
       <c r="Q378">
         <v>1</v>
       </c>
+      <c r="R378" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
@@ -17584,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="R379" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
@@ -17625,7 +17634,7 @@
         <v>1</v>
       </c>
       <c r="R380" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
@@ -17666,7 +17675,7 @@
         <v>1</v>
       </c>
       <c r="R381" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
@@ -17742,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="R383" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
@@ -17875,7 +17884,7 @@
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B388" t="s">
         <v>51</v>
@@ -17942,9 +17951,6 @@
       <c r="Q389">
         <v>1</v>
       </c>
-      <c r="R389" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
@@ -18022,7 +18028,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
@@ -18098,7 +18104,7 @@
         <v>1</v>
       </c>
       <c r="R393" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.25">
@@ -18202,6 +18208,9 @@
       <c r="Q396">
         <v>1</v>
       </c>
+      <c r="R396" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
@@ -18273,12 +18282,12 @@
         <v>1</v>
       </c>
       <c r="R398" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B399" t="s">
         <v>24</v>
@@ -18314,12 +18323,12 @@
         <v>1</v>
       </c>
       <c r="R399" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B400" t="s">
         <v>24</v>
@@ -18348,13 +18357,10 @@
       <c r="J400" t="s">
         <v>526</v>
       </c>
-      <c r="R400" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B401" t="s">
         <v>35</v>
@@ -18390,7 +18396,7 @@
         <v>1</v>
       </c>
       <c r="R401" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.25">
@@ -18459,7 +18465,7 @@
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B404" t="s">
         <v>40</v>
@@ -18488,13 +18494,10 @@
       <c r="J404" t="s">
         <v>526</v>
       </c>
-      <c r="R404" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B405" t="s">
         <v>40</v>
@@ -18528,6 +18531,9 @@
       </c>
       <c r="Q405">
         <v>1</v>
+      </c>
+      <c r="R405" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
@@ -18570,7 +18576,7 @@
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B407" t="s">
         <v>43</v>
@@ -18638,7 +18644,7 @@
         <v>1</v>
       </c>
       <c r="R408" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.25">
@@ -18739,7 +18745,7 @@
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B412" t="s">
         <v>52</v>
@@ -18778,12 +18784,12 @@
         <v>1</v>
       </c>
       <c r="R412" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B413" t="s">
         <v>55</v>
@@ -18817,9 +18823,6 @@
       </c>
       <c r="Q413">
         <v>1</v>
-      </c>
-      <c r="R413" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.25">
@@ -18860,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="R414" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
@@ -18939,7 +18942,7 @@
         <v>1</v>
       </c>
       <c r="R416" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.25">
@@ -18973,6 +18976,9 @@
       <c r="J417" t="s">
         <v>526</v>
       </c>
+      <c r="R417" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
@@ -19005,9 +19011,6 @@
       <c r="J418" t="s">
         <v>547</v>
       </c>
-      <c r="R418" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
@@ -19046,6 +19049,9 @@
       <c r="Q419">
         <v>1</v>
       </c>
+      <c r="R419" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
@@ -19110,6 +19116,9 @@
       <c r="J421" t="s">
         <v>547</v>
       </c>
+      <c r="R421" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
@@ -19149,7 +19158,7 @@
         <v>1</v>
       </c>
       <c r="R422" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.25">
@@ -19221,9 +19230,6 @@
       <c r="J424" t="s">
         <v>547</v>
       </c>
-      <c r="R424" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
@@ -19256,6 +19262,9 @@
       <c r="J425" t="s">
         <v>547</v>
       </c>
+      <c r="R425" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
@@ -19288,9 +19297,6 @@
       <c r="J426" t="s">
         <v>547</v>
       </c>
-      <c r="R426" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
@@ -19330,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="R427" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.25">
@@ -19403,7 +19409,7 @@
         <v>1</v>
       </c>
       <c r="R429" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
@@ -19446,6 +19452,9 @@
       <c r="Q430">
         <v>1</v>
       </c>
+      <c r="R430" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
@@ -19478,9 +19487,6 @@
       <c r="J431" t="s">
         <v>547</v>
       </c>
-      <c r="R431" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
@@ -19593,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="R434" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.25">
@@ -19630,7 +19636,7 @@
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B436" t="s">
         <v>51</v>
@@ -19666,7 +19672,7 @@
         <v>1</v>
       </c>
       <c r="R436" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.25">
@@ -19707,7 +19713,7 @@
         <v>1</v>
       </c>
       <c r="R437" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
@@ -19788,7 +19794,7 @@
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B440" t="s">
         <v>52</v>
@@ -19829,7 +19835,7 @@
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B441" t="s">
         <v>55</v>
@@ -19903,7 +19909,7 @@
         <v>1</v>
       </c>
       <c r="R442" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
@@ -20011,7 +20017,7 @@
         <v>1</v>
       </c>
       <c r="R445" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
@@ -20052,7 +20058,7 @@
         <v>1</v>
       </c>
       <c r="R446" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
@@ -20093,7 +20099,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.25">
@@ -20134,7 +20140,7 @@
         <v>1</v>
       </c>
       <c r="R448" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.25">
@@ -20303,7 +20309,7 @@
         <v>1</v>
       </c>
       <c r="R453" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.25">
@@ -20344,7 +20350,7 @@
         <v>1</v>
       </c>
       <c r="R454" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.25">
@@ -20378,9 +20384,6 @@
       <c r="J455" t="s">
         <v>574</v>
       </c>
-      <c r="R455" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
@@ -20420,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="R456" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.25">
@@ -20556,6 +20559,9 @@
       <c r="Q460">
         <v>1</v>
       </c>
+      <c r="R460" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
@@ -20594,9 +20600,6 @@
       <c r="Q461">
         <v>1</v>
       </c>
-      <c r="R461" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
@@ -20636,7 +20639,7 @@
         <v>1</v>
       </c>
       <c r="R462" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.25">
@@ -20714,6 +20717,9 @@
       <c r="Q464">
         <v>1</v>
       </c>
+      <c r="R464" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
@@ -20823,7 +20829,7 @@
         <v>1</v>
       </c>
       <c r="R467" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.25">
@@ -20866,7 +20872,7 @@
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B469" t="s">
         <v>15</v>
@@ -20898,7 +20904,7 @@
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B470" t="s">
         <v>15</v>
@@ -20927,13 +20933,10 @@
       <c r="J470" t="s">
         <v>614</v>
       </c>
-      <c r="R470" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B471" t="s">
         <v>15</v>
@@ -20971,10 +20974,13 @@
       <c r="Q471">
         <v>1</v>
       </c>
+      <c r="R471" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B472" t="s">
         <v>24</v>
@@ -21010,12 +21016,12 @@
         <v>1</v>
       </c>
       <c r="R472" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B473" t="s">
         <v>24</v>
@@ -21050,10 +21056,13 @@
       <c r="Q473">
         <v>1</v>
       </c>
+      <c r="R473" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B474" t="s">
         <v>24</v>
@@ -21082,7 +21091,7 @@
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B475" t="s">
         <v>24</v>
@@ -21143,13 +21152,10 @@
       <c r="J476" t="s">
         <v>614</v>
       </c>
-      <c r="R476" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B477" t="s">
         <v>35</v>
@@ -21185,12 +21191,12 @@
         <v>1</v>
       </c>
       <c r="R477" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B478" t="s">
         <v>38</v>
@@ -21226,12 +21232,12 @@
         <v>1</v>
       </c>
       <c r="R478" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B479" t="s">
         <v>38</v>
@@ -21301,7 +21307,7 @@
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B481" t="s">
         <v>43</v>
@@ -21340,7 +21346,7 @@
         <v>1</v>
       </c>
       <c r="R481" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.25">
@@ -21381,7 +21387,7 @@
         <v>1</v>
       </c>
       <c r="R482" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.25">
@@ -21457,12 +21463,12 @@
         <v>1</v>
       </c>
       <c r="R484" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B485" t="s">
         <v>47</v>
@@ -21567,10 +21573,13 @@
       <c r="Q487">
         <v>1</v>
       </c>
+      <c r="R487" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B488" t="s">
         <v>51</v>
@@ -21604,9 +21613,6 @@
       </c>
       <c r="Q488">
         <v>1</v>
-      </c>
-      <c r="R488" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.25">
@@ -21650,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="R489" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.25">
@@ -21687,7 +21693,7 @@
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B491" t="s">
         <v>55</v>
@@ -21726,12 +21732,12 @@
         <v>1</v>
       </c>
       <c r="R491" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B492" t="s">
         <v>55</v>
@@ -21763,7 +21769,7 @@
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B493" t="s">
         <v>55</v>
@@ -21901,7 +21907,7 @@
         <v>1</v>
       </c>
       <c r="R496" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.25">
@@ -21974,7 +21980,7 @@
         <v>1</v>
       </c>
       <c r="R498" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.25">
@@ -22015,7 +22021,7 @@
         <v>1</v>
       </c>
       <c r="R499" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.25">
@@ -22152,7 +22158,7 @@
         <v>1</v>
       </c>
       <c r="R503" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.25">
@@ -22257,7 +22263,7 @@
         <v>1</v>
       </c>
       <c r="R506" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.25">
@@ -22335,6 +22341,9 @@
       <c r="Q508">
         <v>1</v>
       </c>
+      <c r="R508" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
@@ -22373,9 +22382,6 @@
       <c r="Q509">
         <v>1</v>
       </c>
-      <c r="R509" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
@@ -22447,7 +22453,7 @@
         <v>1</v>
       </c>
       <c r="R511" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.25">
@@ -22488,7 +22494,7 @@
         <v>1</v>
       </c>
       <c r="R512" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.25">
@@ -22561,7 +22567,7 @@
         <v>1</v>
       </c>
       <c r="R514" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.25">
@@ -22601,9 +22607,6 @@
       <c r="Q515">
         <v>1</v>
       </c>
-      <c r="R515" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
@@ -22674,6 +22677,9 @@
       <c r="Q517">
         <v>1</v>
       </c>
+      <c r="R517" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
@@ -22713,7 +22719,7 @@
         <v>1</v>
       </c>
       <c r="R518" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.25">
@@ -22788,7 +22794,7 @@
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B521" t="s">
         <v>15</v>
@@ -22820,7 +22826,7 @@
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B522" t="s">
         <v>15</v>
@@ -22852,7 +22858,7 @@
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B523" t="s">
         <v>15</v>
@@ -22881,8 +22887,14 @@
       <c r="J523" t="s">
         <v>668</v>
       </c>
+      <c r="P523">
+        <v>6.9</v>
+      </c>
+      <c r="Q523">
+        <v>1</v>
+      </c>
       <c r="R523" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.25">
@@ -22916,8 +22928,11 @@
       <c r="J524" t="s">
         <v>668</v>
       </c>
-      <c r="R524" t="s">
-        <v>896</v>
+      <c r="P524">
+        <v>6.7</v>
+      </c>
+      <c r="Q524">
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.25">
@@ -22954,7 +22969,7 @@
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B526" t="s">
         <v>24</v>
@@ -22983,8 +22998,17 @@
       <c r="J526" t="s">
         <v>668</v>
       </c>
+      <c r="M526">
+        <v>1</v>
+      </c>
+      <c r="P526">
+        <v>6.5</v>
+      </c>
+      <c r="Q526">
+        <v>1</v>
+      </c>
       <c r="R526" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.25">
@@ -23018,8 +23042,17 @@
       <c r="J527" t="s">
         <v>668</v>
       </c>
+      <c r="L527">
+        <v>1</v>
+      </c>
+      <c r="P527">
+        <v>7.7</v>
+      </c>
+      <c r="Q527">
+        <v>1</v>
+      </c>
       <c r="R527" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.25">
@@ -23053,10 +23086,19 @@
       <c r="J528" t="s">
         <v>668</v>
       </c>
+      <c r="P528">
+        <v>6.8</v>
+      </c>
+      <c r="Q528">
+        <v>1</v>
+      </c>
+      <c r="R528" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B529" t="s">
         <v>35</v>
@@ -23085,13 +23127,19 @@
       <c r="J529" t="s">
         <v>668</v>
       </c>
+      <c r="P529">
+        <v>7.7</v>
+      </c>
+      <c r="Q529">
+        <v>1</v>
+      </c>
       <c r="R529" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B530" t="s">
         <v>38</v>
@@ -23123,7 +23171,7 @@
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B531" t="s">
         <v>38</v>
@@ -23152,10 +23200,22 @@
       <c r="J531" t="s">
         <v>668</v>
       </c>
+      <c r="K531">
+        <v>1</v>
+      </c>
+      <c r="P531">
+        <v>7.9</v>
+      </c>
+      <c r="Q531">
+        <v>1</v>
+      </c>
+      <c r="R531" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B532" t="s">
         <v>40</v>
@@ -23184,13 +23244,22 @@
       <c r="J532" t="s">
         <v>668</v>
       </c>
+      <c r="M532">
+        <v>1</v>
+      </c>
+      <c r="P532">
+        <v>6.8</v>
+      </c>
+      <c r="Q532">
+        <v>1</v>
+      </c>
       <c r="R532" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B533" t="s">
         <v>40</v>
@@ -23222,7 +23291,7 @@
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B534" t="s">
         <v>40</v>
@@ -23251,13 +23320,10 @@
       <c r="J534" t="s">
         <v>668</v>
       </c>
-      <c r="R534" t="s">
-        <v>896</v>
-      </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B535" t="s">
         <v>40</v>
@@ -23289,7 +23355,7 @@
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B536" t="s">
         <v>43</v>
@@ -23318,13 +23384,19 @@
       <c r="J536" t="s">
         <v>668</v>
       </c>
+      <c r="P536">
+        <v>6.2</v>
+      </c>
+      <c r="Q536">
+        <v>1</v>
+      </c>
       <c r="R536" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B537" t="s">
         <v>47</v>
@@ -23353,13 +23425,22 @@
       <c r="J537" t="s">
         <v>668</v>
       </c>
+      <c r="K537">
+        <v>1</v>
+      </c>
+      <c r="P537">
+        <v>8.6</v>
+      </c>
+      <c r="Q537">
+        <v>1</v>
+      </c>
       <c r="R537" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B538" t="s">
         <v>47</v>
@@ -23388,10 +23469,16 @@
       <c r="J538" t="s">
         <v>668</v>
       </c>
+      <c r="P538">
+        <v>6.5</v>
+      </c>
+      <c r="Q538">
+        <v>1</v>
+      </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B539" t="s">
         <v>51</v>
@@ -23420,13 +23507,13 @@
       <c r="J539" t="s">
         <v>668</v>
       </c>
-      <c r="R539" t="s">
-        <v>896</v>
+      <c r="K539">
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B540" t="s">
         <v>52</v>
@@ -23455,10 +23542,19 @@
       <c r="J540" t="s">
         <v>668</v>
       </c>
+      <c r="P540">
+        <v>7</v>
+      </c>
+      <c r="Q540">
+        <v>1</v>
+      </c>
+      <c r="R540" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B541" t="s">
         <v>52</v>
@@ -23490,7 +23586,7 @@
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B542" t="s">
         <v>52</v>
@@ -23522,7 +23618,7 @@
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B543" t="s">
         <v>53</v>
@@ -23551,13 +23647,19 @@
       <c r="J543" t="s">
         <v>668</v>
       </c>
+      <c r="P543">
+        <v>6.9</v>
+      </c>
+      <c r="Q543">
+        <v>1</v>
+      </c>
       <c r="R543" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B544" t="s">
         <v>55</v>
@@ -23589,7 +23691,7 @@
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B545" t="s">
         <v>55</v>
@@ -23682,8 +23784,14 @@
       <c r="J547" t="s">
         <v>679</v>
       </c>
+      <c r="P547">
+        <v>5.9</v>
+      </c>
+      <c r="Q547">
+        <v>1</v>
+      </c>
       <c r="R547" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.25">
@@ -23781,6 +23889,12 @@
       <c r="J550" t="s">
         <v>679</v>
       </c>
+      <c r="P550">
+        <v>6.6</v>
+      </c>
+      <c r="Q550">
+        <v>1</v>
+      </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
@@ -23813,8 +23927,14 @@
       <c r="J551" t="s">
         <v>679</v>
       </c>
+      <c r="P551">
+        <v>6.6</v>
+      </c>
+      <c r="Q551">
+        <v>1</v>
+      </c>
       <c r="R551" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.25">
@@ -23848,8 +23968,17 @@
       <c r="J552" t="s">
         <v>679</v>
       </c>
+      <c r="M552">
+        <v>1</v>
+      </c>
+      <c r="P552">
+        <v>5.9</v>
+      </c>
+      <c r="Q552">
+        <v>1</v>
+      </c>
       <c r="R552" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.25">
@@ -23947,8 +24076,14 @@
       <c r="J555" t="s">
         <v>679</v>
       </c>
+      <c r="P555">
+        <v>6.5</v>
+      </c>
+      <c r="Q555">
+        <v>1</v>
+      </c>
       <c r="R555" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.25">
@@ -24014,6 +24149,12 @@
       <c r="J557" t="s">
         <v>679</v>
       </c>
+      <c r="P557">
+        <v>6.8</v>
+      </c>
+      <c r="Q557">
+        <v>1</v>
+      </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
@@ -24046,6 +24187,12 @@
       <c r="J558" t="s">
         <v>679</v>
       </c>
+      <c r="P558">
+        <v>5.9</v>
+      </c>
+      <c r="Q558">
+        <v>1</v>
+      </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
@@ -24110,8 +24257,17 @@
       <c r="J560" t="s">
         <v>679</v>
       </c>
+      <c r="L560">
+        <v>1</v>
+      </c>
+      <c r="P560">
+        <v>7.6</v>
+      </c>
+      <c r="Q560">
+        <v>1</v>
+      </c>
       <c r="R560" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.25">
@@ -24177,8 +24333,14 @@
       <c r="J562" t="s">
         <v>679</v>
       </c>
+      <c r="P562">
+        <v>6.7</v>
+      </c>
+      <c r="Q562">
+        <v>1</v>
+      </c>
       <c r="R562" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.25">
@@ -24213,7 +24375,7 @@
         <v>679</v>
       </c>
       <c r="R563" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.25">
@@ -24247,8 +24409,14 @@
       <c r="J564" t="s">
         <v>679</v>
       </c>
+      <c r="P564">
+        <v>6.2</v>
+      </c>
+      <c r="Q564">
+        <v>1</v>
+      </c>
       <c r="R564" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.25">
@@ -24282,8 +24450,14 @@
       <c r="J565" t="s">
         <v>679</v>
       </c>
+      <c r="P565">
+        <v>7.3</v>
+      </c>
+      <c r="Q565">
+        <v>1</v>
+      </c>
       <c r="R565" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.25">
@@ -24381,6 +24555,12 @@
       <c r="J568" t="s">
         <v>679</v>
       </c>
+      <c r="P568">
+        <v>6.4</v>
+      </c>
+      <c r="Q568">
+        <v>1</v>
+      </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
@@ -24445,8 +24625,17 @@
       <c r="J570" t="s">
         <v>679</v>
       </c>
+      <c r="K570">
+        <v>1</v>
+      </c>
+      <c r="P570">
+        <v>7.8</v>
+      </c>
+      <c r="Q570">
+        <v>1</v>
+      </c>
       <c r="R570" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.25">
@@ -24544,13 +24733,19 @@
       <c r="J573" t="s">
         <v>719</v>
       </c>
+      <c r="P573">
+        <v>6.1</v>
+      </c>
+      <c r="Q573">
+        <v>1</v>
+      </c>
       <c r="R573" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B574" t="s">
         <v>15</v>
@@ -24582,7 +24777,7 @@
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B575" t="s">
         <v>15</v>
@@ -24614,7 +24809,7 @@
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B576" t="s">
         <v>24</v>
@@ -24643,13 +24838,19 @@
       <c r="J576" t="s">
         <v>719</v>
       </c>
+      <c r="P576">
+        <v>7</v>
+      </c>
+      <c r="Q576">
+        <v>1</v>
+      </c>
       <c r="R576" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B577" t="s">
         <v>24</v>
@@ -24678,13 +24879,19 @@
       <c r="J577" t="s">
         <v>719</v>
       </c>
+      <c r="P577">
+        <v>6.6</v>
+      </c>
+      <c r="Q577">
+        <v>1</v>
+      </c>
       <c r="R577" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B578" t="s">
         <v>24</v>
@@ -24745,6 +24952,12 @@
       <c r="J579" t="s">
         <v>719</v>
       </c>
+      <c r="P579">
+        <v>6.5</v>
+      </c>
+      <c r="Q579">
+        <v>1</v>
+      </c>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
@@ -24777,8 +24990,14 @@
       <c r="J580" t="s">
         <v>719</v>
       </c>
+      <c r="P580">
+        <v>6.7</v>
+      </c>
+      <c r="Q580">
+        <v>1</v>
+      </c>
       <c r="R580" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.25">
@@ -24812,10 +25031,16 @@
       <c r="J581" t="s">
         <v>719</v>
       </c>
+      <c r="P581">
+        <v>6.6</v>
+      </c>
+      <c r="Q581">
+        <v>1</v>
+      </c>
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B582" t="s">
         <v>38</v>
@@ -24844,13 +25069,19 @@
       <c r="J582" t="s">
         <v>719</v>
       </c>
+      <c r="P582">
+        <v>6.8</v>
+      </c>
+      <c r="Q582">
+        <v>1</v>
+      </c>
       <c r="R582" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B583" t="s">
         <v>38</v>
@@ -24882,7 +25113,7 @@
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B584" t="s">
         <v>40</v>
@@ -24912,12 +25143,12 @@
         <v>719</v>
       </c>
       <c r="R584" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B585" t="s">
         <v>40</v>
@@ -24949,7 +25180,7 @@
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B586" t="s">
         <v>40</v>
@@ -25074,8 +25305,14 @@
       <c r="J589" t="s">
         <v>719</v>
       </c>
+      <c r="P589">
+        <v>7.5</v>
+      </c>
+      <c r="Q589">
+        <v>1</v>
+      </c>
       <c r="R589" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.25">
@@ -25109,8 +25346,14 @@
       <c r="J590" t="s">
         <v>719</v>
       </c>
+      <c r="P590">
+        <v>7.1</v>
+      </c>
+      <c r="Q590">
+        <v>1</v>
+      </c>
       <c r="R590" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.25">
@@ -25144,13 +25387,19 @@
       <c r="J591" t="s">
         <v>719</v>
       </c>
+      <c r="P591">
+        <v>7.1</v>
+      </c>
+      <c r="Q591">
+        <v>1</v>
+      </c>
       <c r="R591" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B592" t="s">
         <v>51</v>
@@ -25179,8 +25428,17 @@
       <c r="J592" t="s">
         <v>719</v>
       </c>
+      <c r="M592">
+        <v>1</v>
+      </c>
+      <c r="P592">
+        <v>6.3</v>
+      </c>
+      <c r="Q592">
+        <v>1</v>
+      </c>
       <c r="R592" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.25">
@@ -25214,6 +25472,12 @@
       <c r="J593" t="s">
         <v>719</v>
       </c>
+      <c r="P593">
+        <v>6.6</v>
+      </c>
+      <c r="Q593">
+        <v>1</v>
+      </c>
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
@@ -25249,7 +25513,7 @@
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B595" t="s">
         <v>52</v>
@@ -25278,10 +25542,16 @@
       <c r="J595" t="s">
         <v>719</v>
       </c>
+      <c r="K595">
+        <v>1</v>
+      </c>
+      <c r="M595">
+        <v>1</v>
+      </c>
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B596" t="s">
         <v>53</v>
@@ -25313,7 +25583,7 @@
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B597" t="s">
         <v>55</v>
@@ -25374,8 +25644,14 @@
       <c r="J598" t="s">
         <v>719</v>
       </c>
+      <c r="P598">
+        <v>7</v>
+      </c>
+      <c r="Q598">
+        <v>1</v>
+      </c>
       <c r="R598" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.25">
@@ -25410,7 +25686,7 @@
         <v>733</v>
       </c>
       <c r="R599" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.25">
@@ -25476,10 +25752,16 @@
       <c r="J601" t="s">
         <v>733</v>
       </c>
+      <c r="P601">
+        <v>6.5</v>
+      </c>
+      <c r="Q601">
+        <v>1</v>
+      </c>
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B602" t="s">
         <v>24</v>
@@ -25509,7 +25791,7 @@
         <v>733</v>
       </c>
       <c r="R602" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.25">
@@ -25543,6 +25825,12 @@
       <c r="J603" t="s">
         <v>733</v>
       </c>
+      <c r="P603">
+        <v>6.6</v>
+      </c>
+      <c r="Q603">
+        <v>1</v>
+      </c>
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
@@ -25607,8 +25895,14 @@
       <c r="J605" t="s">
         <v>733</v>
       </c>
+      <c r="P605">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q605">
+        <v>1</v>
+      </c>
       <c r="R605" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.25">
@@ -25674,13 +25968,19 @@
       <c r="J607" t="s">
         <v>733</v>
       </c>
+      <c r="P607">
+        <v>6.5</v>
+      </c>
+      <c r="Q607">
+        <v>1</v>
+      </c>
       <c r="R607" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B608" t="s">
         <v>35</v>
@@ -25710,12 +26010,12 @@
         <v>733</v>
       </c>
       <c r="R608" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B609" t="s">
         <v>38</v>
@@ -25744,8 +26044,17 @@
       <c r="J609" t="s">
         <v>733</v>
       </c>
+      <c r="L609">
+        <v>1</v>
+      </c>
+      <c r="P609">
+        <v>7.7</v>
+      </c>
+      <c r="Q609">
+        <v>1</v>
+      </c>
       <c r="R609" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.25">
@@ -25779,45 +26088,57 @@
       <c r="J610" t="s">
         <v>733</v>
       </c>
+      <c r="P610">
+        <v>6.7</v>
+      </c>
+      <c r="Q610">
+        <v>1</v>
+      </c>
       <c r="R610" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="B611" t="s">
         <v>43</v>
       </c>
       <c r="C611">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D611" t="s">
-        <v>743</v>
+        <v>905</v>
       </c>
       <c r="E611">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F611" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G611">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="J611" t="s">
         <v>733</v>
       </c>
+      <c r="P611">
+        <v>6.5</v>
+      </c>
+      <c r="Q611">
+        <v>1</v>
+      </c>
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B612" t="s">
         <v>43</v>
@@ -25832,7 +26153,7 @@
         <v>182</v>
       </c>
       <c r="F612" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G612">
         <v>0</v>
@@ -25849,7 +26170,7 @@
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B613" t="s">
         <v>341</v>
@@ -25878,10 +26199,16 @@
       <c r="J613" t="s">
         <v>733</v>
       </c>
+      <c r="P613">
+        <v>6.2</v>
+      </c>
+      <c r="Q613">
+        <v>1</v>
+      </c>
     </row>
     <row r="614" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B614" t="s">
         <v>430</v>
@@ -25910,13 +26237,22 @@
       <c r="J614" t="s">
         <v>733</v>
       </c>
+      <c r="K614">
+        <v>1</v>
+      </c>
+      <c r="P614">
+        <v>7.5</v>
+      </c>
+      <c r="Q614">
+        <v>1</v>
+      </c>
       <c r="R614" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B615" t="s">
         <v>47</v>
@@ -25945,10 +26281,16 @@
       <c r="J615" t="s">
         <v>733</v>
       </c>
+      <c r="P615">
+        <v>6.8</v>
+      </c>
+      <c r="Q615">
+        <v>1</v>
+      </c>
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B616" t="s">
         <v>47</v>
@@ -25977,13 +26319,19 @@
       <c r="J616" t="s">
         <v>733</v>
       </c>
+      <c r="P616">
+        <v>6.5</v>
+      </c>
+      <c r="Q616">
+        <v>1</v>
+      </c>
       <c r="R616" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B617" t="s">
         <v>47</v>
@@ -26012,10 +26360,16 @@
       <c r="J617" t="s">
         <v>733</v>
       </c>
+      <c r="P617">
+        <v>6.3</v>
+      </c>
+      <c r="Q617">
+        <v>1</v>
+      </c>
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B618" t="s">
         <v>52</v>
@@ -26030,7 +26384,7 @@
         <v>181</v>
       </c>
       <c r="F618" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G618">
         <v>1</v>
@@ -26047,7 +26401,7 @@
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B619" t="s">
         <v>52</v>
@@ -26079,7 +26433,7 @@
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B620" t="s">
         <v>53</v>
@@ -26109,12 +26463,12 @@
         <v>733</v>
       </c>
       <c r="R620" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B621" t="s">
         <v>55</v>
@@ -26143,13 +26497,22 @@
       <c r="J621" t="s">
         <v>733</v>
       </c>
+      <c r="M621">
+        <v>1</v>
+      </c>
+      <c r="P621">
+        <v>6.3</v>
+      </c>
+      <c r="Q621">
+        <v>1</v>
+      </c>
       <c r="R621" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="622" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B622" t="s">
         <v>55</v>
@@ -26164,7 +26527,7 @@
         <v>187</v>
       </c>
       <c r="F622" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G622">
         <v>12</v>
@@ -26178,10 +26541,16 @@
       <c r="J622" t="s">
         <v>733</v>
       </c>
+      <c r="P622">
+        <v>6.7</v>
+      </c>
+      <c r="Q622">
+        <v>1</v>
+      </c>
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B623" t="s">
         <v>55</v>
@@ -26210,10 +26579,16 @@
       <c r="J623" t="s">
         <v>733</v>
       </c>
+      <c r="P623">
+        <v>6.6</v>
+      </c>
+      <c r="Q623">
+        <v>1</v>
+      </c>
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B624" t="s">
         <v>55</v>
@@ -26245,7 +26620,7 @@
     </row>
     <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J625" t="s">
         <v>59</v>
@@ -26256,7 +26631,7 @@
     </row>
     <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B626" t="s">
         <v>55</v>
@@ -26294,12 +26669,23 @@
     </row>
     <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J627" t="s">
         <v>526</v>
       </c>
       <c r="K627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>903</v>
+      </c>
+      <c r="J628" t="s">
+        <v>719</v>
+      </c>
+      <c r="K628">
         <v>1</v>
       </c>
     </row>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="908">
   <si>
     <t>Name</t>
   </si>
@@ -2737,6 +2737,12 @@
   </si>
   <si>
     <t>Slavia Prague</t>
+  </si>
+  <si>
+    <t>Klaus Gjasula (O.G)</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -3561,10 +3567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R628"/>
+  <dimension ref="A1:R629"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="R619" sqref="R619"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="Q184" sqref="Q184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3688,11 +3694,14 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
       <c r="P3">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
         <v>894</v>
@@ -3797,10 +3806,10 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s">
         <v>894</v>
@@ -3837,11 +3846,14 @@
       <c r="J7" t="s">
         <v>18</v>
       </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
       <c r="P7">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="s">
         <v>894</v>
@@ -3974,11 +3986,17 @@
       <c r="J11" t="s">
         <v>18</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
       <c r="P11">
-        <v>7</v>
+        <v>7.35</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="s">
         <v>894</v>
@@ -4019,10 +4037,10 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="s">
         <v>894</v>
@@ -4094,6 +4112,12 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="P14">
+        <v>6.9</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4130,10 +4154,10 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="s">
         <v>894</v>
@@ -4170,11 +4194,17 @@
       <c r="J16" t="s">
         <v>18</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
       <c r="P16">
-        <v>7.3</v>
+        <v>7.95</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s">
         <v>894</v>
@@ -4212,10 +4242,10 @@
         <v>18</v>
       </c>
       <c r="P17">
-        <v>7.6</v>
+        <v>7.45</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="s">
         <v>894</v>
@@ -4294,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>7.7</v>
+        <v>7.15</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="s">
         <v>894</v>
@@ -4335,13 +4365,13 @@
         <v>18</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
         <v>894</v>
@@ -4385,10 +4415,10 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" t="s">
         <v>894</v>
@@ -4458,10 +4488,10 @@
         <v>18</v>
       </c>
       <c r="P23">
-        <v>6.7</v>
+        <v>6.95</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -4568,6 +4598,9 @@
       <c r="J26" t="s">
         <v>18</v>
       </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4604,10 +4637,10 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>7.6</v>
+        <v>7.15</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -4642,10 +4675,10 @@
         <v>59</v>
       </c>
       <c r="P28">
-        <v>5.3</v>
+        <v>5.85</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" t="s">
         <v>894</v>
@@ -4746,11 +4779,14 @@
       <c r="J31" t="s">
         <v>59</v>
       </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
       <c r="P31">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -4785,10 +4821,10 @@
         <v>59</v>
       </c>
       <c r="P32">
-        <v>5.9</v>
+        <v>6.15</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" t="s">
         <v>894</v>
@@ -4899,10 +4935,10 @@
         <v>59</v>
       </c>
       <c r="P35">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" t="s">
         <v>894</v>
@@ -4940,10 +4976,10 @@
         <v>59</v>
       </c>
       <c r="P36">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" t="s">
         <v>894</v>
@@ -4981,10 +5017,10 @@
         <v>59</v>
       </c>
       <c r="P37">
-        <v>5.5</v>
+        <v>5.95</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R37" t="s">
         <v>894</v>
@@ -5057,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>6.5</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
+        <v>6.2</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -5129,11 +5165,17 @@
       <c r="J41" t="s">
         <v>59</v>
       </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
       <c r="P41">
-        <v>6.3</v>
+        <v>7.35</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" t="s">
         <v>894</v>
@@ -5171,10 +5213,10 @@
         <v>59</v>
       </c>
       <c r="P42">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" t="s">
         <v>894</v>
@@ -5211,11 +5253,14 @@
       <c r="J43" t="s">
         <v>59</v>
       </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
       <c r="P43">
-        <v>5.8</v>
+        <v>6.05</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" t="s">
         <v>894</v>
@@ -5252,11 +5297,14 @@
       <c r="J44" t="s">
         <v>59</v>
       </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
       <c r="P44">
-        <v>5.9</v>
+        <v>6.65</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -5498,10 +5546,10 @@
         <v>59</v>
       </c>
       <c r="P51">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51" t="s">
         <v>894</v>
@@ -5603,10 +5651,10 @@
         <v>100</v>
       </c>
       <c r="P54">
-        <v>6.1</v>
+        <v>6.35</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R54" t="s">
         <v>894</v>
@@ -5708,10 +5756,10 @@
         <v>100</v>
       </c>
       <c r="P57">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R57" t="s">
         <v>894</v>
@@ -5793,10 +5841,10 @@
         <v>100</v>
       </c>
       <c r="P59">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -5904,10 +5952,10 @@
         <v>100</v>
       </c>
       <c r="P62">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R62" t="s">
         <v>894</v>
@@ -5944,6 +5992,12 @@
       <c r="J63" t="s">
         <v>100</v>
       </c>
+      <c r="P63">
+        <v>6.6</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -5980,10 +6034,10 @@
         <v>1</v>
       </c>
       <c r="P64">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -6123,10 +6177,10 @@
         <v>100</v>
       </c>
       <c r="P68">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R68" t="s">
         <v>894</v>
@@ -6166,11 +6220,14 @@
       <c r="L69">
         <v>1</v>
       </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
       <c r="P69">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R69" t="s">
         <v>894</v>
@@ -6208,10 +6265,10 @@
         <v>100</v>
       </c>
       <c r="P70">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R70" t="s">
         <v>894</v>
@@ -6312,6 +6369,9 @@
       <c r="J73" t="s">
         <v>100</v>
       </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -6345,10 +6405,10 @@
         <v>100</v>
       </c>
       <c r="P74">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -6415,10 +6475,10 @@
         <v>100</v>
       </c>
       <c r="P76">
-        <v>7</v>
+        <v>7.05</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R76" t="s">
         <v>894</v>
@@ -6455,6 +6515,9 @@
       <c r="J77" t="s">
         <v>100</v>
       </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -6490,11 +6553,14 @@
       <c r="K78">
         <v>1</v>
       </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.55</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R78" t="s">
         <v>894</v>
@@ -6532,10 +6598,10 @@
         <v>100</v>
       </c>
       <c r="P79">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -6602,10 +6668,10 @@
         <v>131</v>
       </c>
       <c r="P81">
-        <v>6.2</v>
+        <v>6.35</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R81" t="s">
         <v>894</v>
@@ -6675,10 +6741,10 @@
         <v>131</v>
       </c>
       <c r="P83">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R83" t="s">
         <v>894</v>
@@ -6748,10 +6814,10 @@
         <v>131</v>
       </c>
       <c r="P85">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R85" t="s">
         <v>894</v>
@@ -6792,7 +6858,7 @@
         <v>6.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -6858,11 +6924,14 @@
       <c r="J88" t="s">
         <v>131</v>
       </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
       <c r="P88">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R88" t="s">
         <v>894</v>
@@ -6903,10 +6972,10 @@
         <v>1</v>
       </c>
       <c r="P89">
-        <v>6.2</v>
+        <v>6.35</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R89" t="s">
         <v>894</v>
@@ -6976,10 +7045,10 @@
         <v>131</v>
       </c>
       <c r="P91">
-        <v>7.6</v>
+        <v>7.35</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R91" t="s">
         <v>894</v>
@@ -7055,10 +7124,10 @@
         <v>1</v>
       </c>
       <c r="P93">
-        <v>8.4</v>
+        <v>7.55</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R93" t="s">
         <v>894</v>
@@ -7102,10 +7171,10 @@
         <v>1</v>
       </c>
       <c r="P94">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R94" t="s">
         <v>894</v>
@@ -7142,6 +7211,15 @@
       <c r="J95" t="s">
         <v>131</v>
       </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>6.3</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -7174,6 +7252,12 @@
       <c r="J96" t="s">
         <v>131</v>
       </c>
+      <c r="P96">
+        <v>7</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -7206,6 +7290,15 @@
       <c r="J97" t="s">
         <v>131</v>
       </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>7.5</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -7303,10 +7396,10 @@
         <v>131</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -7341,10 +7434,10 @@
         <v>131</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R101" t="s">
         <v>894</v>
@@ -7417,10 +7510,10 @@
         <v>1</v>
       </c>
       <c r="P103">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -8513,10 +8606,10 @@
         <v>200</v>
       </c>
       <c r="P132">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Q132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R132" t="s">
         <v>894</v>
@@ -8802,10 +8895,10 @@
         <v>200</v>
       </c>
       <c r="P140">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R140" t="s">
         <v>894</v>
@@ -8907,10 +9000,10 @@
         <v>200</v>
       </c>
       <c r="P143">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
       <c r="Q143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R143" t="s">
         <v>894</v>
@@ -8948,10 +9041,10 @@
         <v>200</v>
       </c>
       <c r="P144">
-        <v>6.5</v>
+        <v>6.95</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R144" t="s">
         <v>894</v>
@@ -8989,10 +9082,10 @@
         <v>200</v>
       </c>
       <c r="P145">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Q145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -9027,10 +9120,10 @@
         <v>200</v>
       </c>
       <c r="P146">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -9065,10 +9158,10 @@
         <v>200</v>
       </c>
       <c r="P147">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R147" t="s">
         <v>894</v>
@@ -9106,10 +9199,10 @@
         <v>200</v>
       </c>
       <c r="P148">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Q148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R148" t="s">
         <v>894</v>
@@ -9275,10 +9368,10 @@
         <v>200</v>
       </c>
       <c r="P153">
-        <v>6.9</v>
+        <v>6.85</v>
       </c>
       <c r="Q153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R153" t="s">
         <v>894</v>
@@ -9347,11 +9440,14 @@
       <c r="J155" t="s">
         <v>200</v>
       </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
       <c r="P155">
-        <v>6.7</v>
+        <v>7.25</v>
       </c>
       <c r="Q155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R155" t="s">
         <v>894</v>
@@ -9388,11 +9484,14 @@
       <c r="J156" t="s">
         <v>200</v>
       </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="Q156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -9427,10 +9526,10 @@
         <v>200</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="Q157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R157" t="s">
         <v>894</v>
@@ -9468,10 +9567,10 @@
         <v>236</v>
       </c>
       <c r="P158">
-        <v>6</v>
+        <v>6.55</v>
       </c>
       <c r="Q158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R158" t="s">
         <v>894</v>
@@ -9573,10 +9672,10 @@
         <v>236</v>
       </c>
       <c r="P161">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R161" t="s">
         <v>894</v>
@@ -9710,10 +9809,10 @@
         <v>236</v>
       </c>
       <c r="P165">
-        <v>6.6</v>
+        <v>6.45</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R165" t="s">
         <v>894</v>
@@ -9751,10 +9850,10 @@
         <v>236</v>
       </c>
       <c r="P166">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R166" t="s">
         <v>894</v>
@@ -9823,11 +9922,14 @@
       <c r="J168" t="s">
         <v>236</v>
       </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
       <c r="P168">
-        <v>6.4</v>
+        <v>6.35</v>
       </c>
       <c r="Q168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R168" t="s">
         <v>894</v>
@@ -9897,10 +9999,10 @@
         <v>236</v>
       </c>
       <c r="P170">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R170" t="s">
         <v>894</v>
@@ -9938,10 +10040,10 @@
         <v>236</v>
       </c>
       <c r="P171">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R171" t="s">
         <v>894</v>
@@ -9978,6 +10080,12 @@
       <c r="J172" t="s">
         <v>236</v>
       </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -10042,8 +10150,11 @@
       <c r="J174" t="s">
         <v>236</v>
       </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
       <c r="P174">
-        <v>6.7</v>
+        <v>7.55</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -10151,10 +10262,10 @@
         <v>1</v>
       </c>
       <c r="P177">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R177" t="s">
         <v>894</v>
@@ -10232,11 +10343,14 @@
       <c r="J179" t="s">
         <v>236</v>
       </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
       <c r="P179">
-        <v>6.7</v>
+        <v>6.95</v>
       </c>
       <c r="Q179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R179" t="s">
         <v>894</v>
@@ -10315,10 +10429,10 @@
         <v>236</v>
       </c>
       <c r="P181">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Q181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R181" t="s">
         <v>894</v>
@@ -10356,10 +10470,10 @@
         <v>236</v>
       </c>
       <c r="P182">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -10393,6 +10507,9 @@
       <c r="J183" t="s">
         <v>236</v>
       </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -12364,6 +12481,9 @@
       <c r="J237" t="s">
         <v>354</v>
       </c>
+      <c r="O237">
+        <v>1</v>
+      </c>
       <c r="P237">
         <v>7.2</v>
       </c>
@@ -26686,6 +26806,17 @@
         <v>719</v>
       </c>
       <c r="K628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>906</v>
+      </c>
+      <c r="J629" t="s">
+        <v>200</v>
+      </c>
+      <c r="K629">
         <v>1</v>
       </c>
     </row>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -2295,9 +2295,6 @@
     <t>Maximilian Mittelsttadt</t>
   </si>
   <si>
-    <t>ilkay Gundoִan</t>
-  </si>
-  <si>
     <t>Chris Fuhrich</t>
   </si>
   <si>
@@ -2743,6 +2740,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>ilkay Gundogan</t>
   </si>
 </sst>
 </file>
@@ -3569,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R629"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="Q184" sqref="Q184"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3619,16 +3619,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
+        <v>891</v>
+      </c>
+      <c r="R1" t="s">
         <v>892</v>
-      </c>
-      <c r="R1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4043,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -4160,12 +4160,12 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>758</v>
+        <v>907</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -4207,7 +4207,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -4248,12 +4248,12 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -4330,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -4421,12 +4421,12 @@
         <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -4681,7 +4681,7 @@
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -4827,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -4941,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -4982,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -5023,7 +5023,7 @@
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -5096,7 +5096,7 @@
         <v>6.2</v>
       </c>
       <c r="Q39" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -5131,7 +5131,7 @@
         <v>59</v>
       </c>
       <c r="R40" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -5178,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="R41" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -5263,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="R48" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -5552,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -5621,7 +5621,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -5657,12 +5657,12 @@
         <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -5762,7 +5762,7 @@
         <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -5806,12 +5806,12 @@
         <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="R61" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -5958,7 +5958,7 @@
         <v>2</v>
       </c>
       <c r="R62" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -6001,7 +6001,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -6104,7 +6104,7 @@
         <v>100</v>
       </c>
       <c r="R66" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -6147,7 +6147,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -6183,7 +6183,7 @@
         <v>2</v>
       </c>
       <c r="R68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -6230,12 +6230,12 @@
         <v>2</v>
       </c>
       <c r="R69" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
@@ -6271,7 +6271,7 @@
         <v>2</v>
       </c>
       <c r="R70" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -6308,7 +6308,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B72" t="s">
         <v>43</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B73" t="s">
         <v>47</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B74" t="s">
         <v>47</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
@@ -6481,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -6521,7 +6521,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -6563,12 +6563,12 @@
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -6674,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -6747,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="R83" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -6784,7 +6784,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
@@ -6820,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="R85" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -6863,7 +6863,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B87" t="s">
         <v>24</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
@@ -6934,7 +6934,7 @@
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -6978,7 +6978,7 @@
         <v>2</v>
       </c>
       <c r="R89" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -7051,7 +7051,7 @@
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -7130,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -7404,7 +7404,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B101" t="s">
         <v>52</v>
@@ -7440,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="R104" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -7635,7 +7635,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -7665,21 +7665,21 @@
         <v>174</v>
       </c>
       <c r="O107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P107">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R107" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -7740,14 +7740,17 @@
       <c r="J109" t="s">
         <v>174</v>
       </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
       <c r="P109">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -7813,10 +7816,16 @@
       <c r="J111" t="s">
         <v>174</v>
       </c>
+      <c r="P111">
+        <v>6.8</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B112" t="s">
         <v>24</v>
@@ -7852,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="R112" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7919,13 +7928,13 @@
         <v>174</v>
       </c>
       <c r="P114">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R114" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -7962,19 +7971,22 @@
       <c r="K115">
         <v>1</v>
       </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
       <c r="P115">
-        <v>8.1</v>
+        <v>7.45</v>
       </c>
       <c r="Q115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B116" t="s">
         <v>38</v>
@@ -8036,21 +8048,21 @@
         <v>174</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P117">
-        <v>5.7</v>
+        <v>6.35</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R117" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B118" t="s">
         <v>40</v>
@@ -8115,13 +8127,13 @@
         <v>1</v>
       </c>
       <c r="P119">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R119" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -8159,12 +8171,12 @@
         <v>6.5</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B121" t="s">
         <v>43</v>
@@ -8200,18 +8212,18 @@
         <v>1</v>
       </c>
       <c r="P121">
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B122" t="s">
         <v>43</v>
@@ -8281,7 +8293,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B124" t="s">
         <v>47</v>
@@ -8309,6 +8321,12 @@
       </c>
       <c r="J124" t="s">
         <v>174</v>
+      </c>
+      <c r="P124">
+        <v>6.6</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8343,13 +8361,13 @@
         <v>174</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R125" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -8383,10 +8401,16 @@
       <c r="J126" t="s">
         <v>174</v>
       </c>
+      <c r="P126">
+        <v>6.7</v>
+      </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B127" t="s">
         <v>51</v>
@@ -8414,6 +8438,12 @@
       </c>
       <c r="J127" t="s">
         <v>174</v>
+      </c>
+      <c r="P127">
+        <v>6.2</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -8451,13 +8481,13 @@
         <v>1</v>
       </c>
       <c r="P128">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R128" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -8495,12 +8525,12 @@
         <v>6.6</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B130" t="s">
         <v>55</v>
@@ -8533,13 +8563,13 @@
         <v>1</v>
       </c>
       <c r="P130">
-        <v>7.1</v>
+        <v>7.25</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R130" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -8612,7 +8642,7 @@
         <v>2</v>
       </c>
       <c r="R132" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -8717,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="R135" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -8758,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="R136" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -8801,7 +8831,7 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -8901,7 +8931,7 @@
         <v>2</v>
       </c>
       <c r="R140" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -9006,7 +9036,7 @@
         <v>2</v>
       </c>
       <c r="R143" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -9047,7 +9077,7 @@
         <v>2</v>
       </c>
       <c r="R144" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -9164,7 +9194,7 @@
         <v>2</v>
       </c>
       <c r="R147" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -9205,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="R148" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -9242,7 +9272,7 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B150" t="s">
         <v>47</v>
@@ -9374,7 +9404,7 @@
         <v>2</v>
       </c>
       <c r="R153" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -9450,7 +9480,7 @@
         <v>2</v>
       </c>
       <c r="R155" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -9532,7 +9562,7 @@
         <v>2</v>
       </c>
       <c r="R157" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -9573,7 +9603,7 @@
         <v>2</v>
       </c>
       <c r="R158" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -9678,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="R161" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -9815,7 +9845,7 @@
         <v>2</v>
       </c>
       <c r="R165" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -9856,7 +9886,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -9932,12 +9962,12 @@
         <v>2</v>
       </c>
       <c r="R168" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B169" t="s">
         <v>38</v>
@@ -10005,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="R170" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -10046,7 +10076,7 @@
         <v>2</v>
       </c>
       <c r="R171" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -10160,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
@@ -10268,12 +10298,12 @@
         <v>2</v>
       </c>
       <c r="R177" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B178" t="s">
         <v>51</v>
@@ -10353,7 +10383,7 @@
         <v>2</v>
       </c>
       <c r="R179" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -10435,7 +10465,7 @@
         <v>2</v>
       </c>
       <c r="R181" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -10542,14 +10572,17 @@
       <c r="J184" t="s">
         <v>277</v>
       </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
       <c r="P184">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="Q184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R184" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -10651,13 +10684,13 @@
         <v>1</v>
       </c>
       <c r="P187">
-        <v>7.9</v>
+        <v>7.35</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R187" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -10727,13 +10760,13 @@
         <v>1</v>
       </c>
       <c r="P189">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="Q189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R189" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -10832,13 +10865,13 @@
         <v>277</v>
       </c>
       <c r="P192">
-        <v>6.2</v>
+        <v>6.45</v>
       </c>
       <c r="Q192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R192" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -10873,10 +10906,10 @@
         <v>277</v>
       </c>
       <c r="P193">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -10911,13 +10944,13 @@
         <v>277</v>
       </c>
       <c r="P194">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="Q194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R194" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -11015,11 +11048,14 @@
       <c r="J197" t="s">
         <v>277</v>
       </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
       <c r="P197">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
@@ -11054,18 +11090,18 @@
         <v>277</v>
       </c>
       <c r="P198">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Q198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R198" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B199" t="s">
         <v>43</v>
@@ -11098,13 +11134,13 @@
         <v>1</v>
       </c>
       <c r="P199">
-        <v>7.7</v>
+        <v>7.25</v>
       </c>
       <c r="Q199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R199" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
@@ -11142,15 +11178,15 @@
         <v>6.4</v>
       </c>
       <c r="Q200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R200" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B201" t="s">
         <v>43</v>
@@ -11250,13 +11286,13 @@
         <v>1</v>
       </c>
       <c r="P203">
-        <v>7.2</v>
+        <v>6.75</v>
       </c>
       <c r="Q203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R203" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
@@ -11291,13 +11327,13 @@
         <v>277</v>
       </c>
       <c r="P204">
-        <v>7.4</v>
+        <v>6.75</v>
       </c>
       <c r="Q204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R204" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
@@ -11331,6 +11367,12 @@
       <c r="J205" t="s">
         <v>277</v>
       </c>
+      <c r="P205">
+        <v>6.6</v>
+      </c>
+      <c r="Q205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -11428,13 +11470,13 @@
         <v>277</v>
       </c>
       <c r="P208">
-        <v>6.9</v>
+        <v>6.55</v>
       </c>
       <c r="Q208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R208" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
@@ -11468,6 +11510,12 @@
       <c r="J209" t="s">
         <v>277</v>
       </c>
+      <c r="P209">
+        <v>6.6</v>
+      </c>
+      <c r="Q209">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -11501,13 +11549,13 @@
         <v>308</v>
       </c>
       <c r="P210">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R210" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
@@ -11606,13 +11654,13 @@
         <v>308</v>
       </c>
       <c r="P213">
-        <v>7.6</v>
+        <v>7.45</v>
       </c>
       <c r="Q213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R213" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -11679,13 +11727,13 @@
         <v>308</v>
       </c>
       <c r="P215">
-        <v>6.3</v>
+        <v>6.55</v>
       </c>
       <c r="Q215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R215" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
@@ -11786,19 +11834,22 @@
       <c r="K218">
         <v>1</v>
       </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
       <c r="P218">
-        <v>8.6999999999999993</v>
+        <v>7.35</v>
       </c>
       <c r="Q218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R218" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
@@ -11831,13 +11882,13 @@
         <v>1</v>
       </c>
       <c r="P219">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R219" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
@@ -11871,14 +11922,17 @@
       <c r="J220" t="s">
         <v>308</v>
       </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
       <c r="P220">
-        <v>6.8</v>
+        <v>7.45</v>
       </c>
       <c r="Q220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R220" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
@@ -11913,10 +11967,10 @@
         <v>308</v>
       </c>
       <c r="P221">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
@@ -12015,13 +12069,13 @@
         <v>308</v>
       </c>
       <c r="P224">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Q224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R224" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
@@ -12087,14 +12141,17 @@
       <c r="J226" t="s">
         <v>308</v>
       </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
       <c r="P226">
-        <v>6.4</v>
+        <v>7.05</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R226" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
@@ -12225,10 +12282,10 @@
         <v>308</v>
       </c>
       <c r="P230">
-        <v>6.8</v>
+        <v>6.65</v>
       </c>
       <c r="Q230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
@@ -12263,13 +12320,13 @@
         <v>308</v>
       </c>
       <c r="P231">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Q231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R231" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
@@ -12304,13 +12361,13 @@
         <v>308</v>
       </c>
       <c r="P232">
-        <v>6.9</v>
+        <v>7.35</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R232" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
@@ -12345,13 +12402,13 @@
         <v>308</v>
       </c>
       <c r="P233">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R233" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
@@ -12385,6 +12442,15 @@
       <c r="J234" t="s">
         <v>308</v>
       </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="P234">
+        <v>6.2</v>
+      </c>
+      <c r="Q234">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
@@ -12485,13 +12551,13 @@
         <v>1</v>
       </c>
       <c r="P237">
-        <v>7.2</v>
+        <v>7.15</v>
       </c>
       <c r="Q237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R237" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
@@ -12558,18 +12624,18 @@
         <v>354</v>
       </c>
       <c r="P239">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Q239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R239" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B240" t="s">
         <v>24</v>
@@ -12602,10 +12668,10 @@
         <v>7</v>
       </c>
       <c r="Q240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R240" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
@@ -12768,13 +12834,13 @@
         <v>354</v>
       </c>
       <c r="P245">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Q245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R245" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
@@ -12809,13 +12875,13 @@
         <v>354</v>
       </c>
       <c r="P246">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="Q246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R246" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
@@ -12850,13 +12916,13 @@
         <v>354</v>
       </c>
       <c r="P247">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R247" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
@@ -12891,13 +12957,13 @@
         <v>354</v>
       </c>
       <c r="P248">
-        <v>6.8</v>
+        <v>6.95</v>
       </c>
       <c r="Q248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R248" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
@@ -12931,11 +12997,14 @@
       <c r="J249" t="s">
         <v>354</v>
       </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
       <c r="P249">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
@@ -13037,13 +13106,13 @@
         <v>1</v>
       </c>
       <c r="P252">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R252" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
@@ -13109,6 +13178,12 @@
       <c r="J254" t="s">
         <v>354</v>
       </c>
+      <c r="P254">
+        <v>6.7</v>
+      </c>
+      <c r="Q254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -13174,13 +13249,13 @@
         <v>354</v>
       </c>
       <c r="P256">
-        <v>7</v>
+        <v>7.05</v>
       </c>
       <c r="Q256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R256" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
@@ -13218,13 +13293,13 @@
         <v>1</v>
       </c>
       <c r="P257">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Q257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R257" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
@@ -13259,10 +13334,10 @@
         <v>354</v>
       </c>
       <c r="P258">
-        <v>6.8</v>
+        <v>6.65</v>
       </c>
       <c r="Q258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
@@ -13296,14 +13371,17 @@
       <c r="J259" t="s">
         <v>354</v>
       </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
       <c r="P259">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="Q259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R259" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
@@ -13337,6 +13415,12 @@
       <c r="J260" t="s">
         <v>354</v>
       </c>
+      <c r="P260">
+        <v>6.4</v>
+      </c>
+      <c r="Q260">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
@@ -13404,7 +13488,7 @@
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B263" t="s">
         <v>15</v>
@@ -13469,10 +13553,10 @@
         <v>6.5</v>
       </c>
       <c r="Q264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R264" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
@@ -13507,13 +13591,13 @@
         <v>384</v>
       </c>
       <c r="P265">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="Q265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R265" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
@@ -13548,13 +13632,13 @@
         <v>384</v>
       </c>
       <c r="P266">
-        <v>6.2</v>
+        <v>6.45</v>
       </c>
       <c r="Q266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R266" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
@@ -13588,19 +13672,22 @@
       <c r="J267" t="s">
         <v>384</v>
       </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
       <c r="P267">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Q267">
         <v>1</v>
       </c>
       <c r="R267" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B268" t="s">
         <v>24</v>
@@ -13693,14 +13780,17 @@
       <c r="J270" t="s">
         <v>384</v>
       </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
       <c r="P270">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R270" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
@@ -13734,14 +13824,17 @@
       <c r="J271" t="s">
         <v>384</v>
       </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
       <c r="P271">
-        <v>6.4</v>
+        <v>6.35</v>
       </c>
       <c r="Q271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R271" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
@@ -13776,10 +13869,10 @@
         <v>384</v>
       </c>
       <c r="P272">
-        <v>7</v>
+        <v>6.85</v>
       </c>
       <c r="Q272">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
@@ -13845,22 +13938,25 @@
       <c r="J274" t="s">
         <v>384</v>
       </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
       <c r="M274">
         <v>1</v>
       </c>
       <c r="P274">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Q274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R274" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B275" t="s">
         <v>40</v>
@@ -13889,10 +13985,16 @@
       <c r="J275" t="s">
         <v>384</v>
       </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="Q275">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B276" t="s">
         <v>40</v>
@@ -13922,13 +14024,13 @@
         <v>384</v>
       </c>
       <c r="P276">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R276" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
@@ -13998,13 +14100,13 @@
         <v>1</v>
       </c>
       <c r="P278">
-        <v>9.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Q278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R278" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
@@ -14070,6 +14172,12 @@
       <c r="J280" t="s">
         <v>384</v>
       </c>
+      <c r="P280">
+        <v>7</v>
+      </c>
+      <c r="Q280">
+        <v>1</v>
+      </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
@@ -14134,6 +14242,9 @@
       <c r="J282" t="s">
         <v>384</v>
       </c>
+      <c r="Q282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -14169,7 +14280,7 @@
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B284" t="s">
         <v>55</v>
@@ -14202,10 +14313,10 @@
         <v>6.4</v>
       </c>
       <c r="Q284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R284" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
@@ -14243,13 +14354,13 @@
         <v>1</v>
       </c>
       <c r="P285">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="Q285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R285" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
@@ -14315,6 +14426,12 @@
       <c r="J287" t="s">
         <v>384</v>
       </c>
+      <c r="P287">
+        <v>6.2</v>
+      </c>
+      <c r="Q287">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -14380,18 +14497,18 @@
         <v>410</v>
       </c>
       <c r="P289">
-        <v>6.5</v>
+        <v>6.85</v>
       </c>
       <c r="Q289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R289" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B290" t="s">
         <v>15</v>
@@ -14453,18 +14570,18 @@
         <v>410</v>
       </c>
       <c r="P291">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R291" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B292" t="s">
         <v>24</v>
@@ -14494,13 +14611,13 @@
         <v>410</v>
       </c>
       <c r="P292">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
       <c r="Q292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R292" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
@@ -14535,13 +14652,13 @@
         <v>410</v>
       </c>
       <c r="P293">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R293" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
@@ -14611,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="R295" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
@@ -14710,13 +14827,13 @@
         <v>410</v>
       </c>
       <c r="P298">
-        <v>6.8</v>
+        <v>6.45</v>
       </c>
       <c r="Q298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R298" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
@@ -14753,7 +14870,7 @@
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B300" t="s">
         <v>43</v>
@@ -14783,18 +14900,18 @@
         <v>410</v>
       </c>
       <c r="P300">
-        <v>6.7</v>
+        <v>6.55</v>
       </c>
       <c r="Q300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R300" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B301" t="s">
         <v>43</v>
@@ -14823,10 +14940,13 @@
       <c r="J301" t="s">
         <v>410</v>
       </c>
+      <c r="Q301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B302" t="s">
         <v>43</v>
@@ -14855,16 +14975,19 @@
       <c r="J302" t="s">
         <v>410</v>
       </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
       <c r="P302">
-        <v>6.5</v>
+        <v>7.15</v>
       </c>
       <c r="Q302">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B303" t="s">
         <v>43</v>
@@ -14893,11 +15016,14 @@
       <c r="J303" t="s">
         <v>410</v>
       </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
       <c r="P303">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="Q303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
@@ -14934,7 +15060,7 @@
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B305" t="s">
         <v>430</v>
@@ -15001,6 +15127,15 @@
       <c r="J306" t="s">
         <v>410</v>
       </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="P306">
+        <v>6.2</v>
+      </c>
+      <c r="Q306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
@@ -15037,7 +15172,7 @@
         <v>6.7</v>
       </c>
       <c r="Q307">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
@@ -15075,13 +15210,13 @@
         <v>1</v>
       </c>
       <c r="P308">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R308" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
@@ -15116,18 +15251,18 @@
         <v>410</v>
       </c>
       <c r="P309">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R309" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B310" t="s">
         <v>55</v>
@@ -15157,13 +15292,13 @@
         <v>410</v>
       </c>
       <c r="P310">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="Q310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R310" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
@@ -15198,18 +15333,18 @@
         <v>410</v>
       </c>
       <c r="P311">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Q311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R311" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B312" t="s">
         <v>55</v>
@@ -15238,11 +15373,17 @@
       <c r="J312" t="s">
         <v>410</v>
       </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
       <c r="P312">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q312">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
@@ -15311,7 +15452,7 @@
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B315" t="s">
         <v>15</v>
@@ -15347,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="R315" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
@@ -15420,12 +15561,12 @@
         <v>1</v>
       </c>
       <c r="R317" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B318" t="s">
         <v>24</v>
@@ -15455,7 +15596,7 @@
         <v>440</v>
       </c>
       <c r="R318" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
@@ -15566,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
@@ -15603,7 +15744,7 @@
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B323" t="s">
         <v>38</v>
@@ -15671,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="R324" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
@@ -15744,7 +15885,7 @@
         <v>440</v>
       </c>
       <c r="R326" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
@@ -15819,7 +15960,7 @@
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B329" t="s">
         <v>43</v>
@@ -15858,7 +15999,7 @@
         <v>1</v>
       </c>
       <c r="R329" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
@@ -15975,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
@@ -16016,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="R333" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
@@ -16153,7 +16294,7 @@
         <v>440</v>
       </c>
       <c r="R337" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
@@ -16197,7 +16338,7 @@
         <v>1</v>
       </c>
       <c r="R338" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
@@ -16234,7 +16375,7 @@
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B340" t="s">
         <v>55</v>
@@ -16308,7 +16449,7 @@
         <v>1</v>
       </c>
       <c r="R341" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
@@ -16441,7 +16582,7 @@
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B346" t="s">
         <v>24</v>
@@ -16480,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="R346" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
@@ -16521,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="R347" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
@@ -16562,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="R348" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
@@ -16667,12 +16808,12 @@
         <v>1</v>
       </c>
       <c r="R351" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B352" t="s">
         <v>35</v>
@@ -16743,7 +16884,7 @@
         <v>1</v>
       </c>
       <c r="R353" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
@@ -16816,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="R355" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
@@ -16927,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="R358" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
@@ -16968,15 +17109,15 @@
         <v>1</v>
       </c>
       <c r="R359" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>895</v>
+      </c>
+      <c r="B360" t="s">
         <v>896</v>
-      </c>
-      <c r="B360" t="s">
-        <v>897</v>
       </c>
       <c r="C360">
         <v>23</v>
@@ -17044,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="R361" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
@@ -17181,7 +17322,7 @@
         <v>470</v>
       </c>
       <c r="R365" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
@@ -17289,7 +17430,7 @@
         <v>1</v>
       </c>
       <c r="R368" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
@@ -17365,7 +17506,7 @@
         <v>1</v>
       </c>
       <c r="R370" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
@@ -17402,7 +17543,7 @@
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
@@ -17543,7 +17684,7 @@
         <v>1</v>
       </c>
       <c r="R375" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
@@ -17587,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="R376" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
@@ -17628,7 +17769,7 @@
         <v>1</v>
       </c>
       <c r="R377" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
@@ -17669,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="R378" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
@@ -17713,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="R379" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
@@ -17754,7 +17895,7 @@
         <v>1</v>
       </c>
       <c r="R380" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
@@ -17795,7 +17936,7 @@
         <v>1</v>
       </c>
       <c r="R381" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
@@ -17871,7 +18012,7 @@
         <v>1</v>
       </c>
       <c r="R383" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
@@ -18004,7 +18145,7 @@
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B388" t="s">
         <v>51</v>
@@ -18148,7 +18289,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
@@ -18224,7 +18365,7 @@
         <v>1</v>
       </c>
       <c r="R393" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.25">
@@ -18329,7 +18470,7 @@
         <v>1</v>
       </c>
       <c r="R396" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
@@ -18402,12 +18543,12 @@
         <v>1</v>
       </c>
       <c r="R398" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B399" t="s">
         <v>24</v>
@@ -18443,12 +18584,12 @@
         <v>1</v>
       </c>
       <c r="R399" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B400" t="s">
         <v>24</v>
@@ -18480,7 +18621,7 @@
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B401" t="s">
         <v>35</v>
@@ -18516,7 +18657,7 @@
         <v>1</v>
       </c>
       <c r="R401" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.25">
@@ -18585,7 +18726,7 @@
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B404" t="s">
         <v>40</v>
@@ -18617,7 +18758,7 @@
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B405" t="s">
         <v>40</v>
@@ -18653,7 +18794,7 @@
         <v>1</v>
       </c>
       <c r="R405" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
@@ -18696,7 +18837,7 @@
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B407" t="s">
         <v>43</v>
@@ -18764,7 +18905,7 @@
         <v>1</v>
       </c>
       <c r="R408" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.25">
@@ -18865,7 +19006,7 @@
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B412" t="s">
         <v>52</v>
@@ -18904,12 +19045,12 @@
         <v>1</v>
       </c>
       <c r="R412" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B413" t="s">
         <v>55</v>
@@ -18983,7 +19124,7 @@
         <v>1</v>
       </c>
       <c r="R414" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
@@ -19062,7 +19203,7 @@
         <v>1</v>
       </c>
       <c r="R416" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.25">
@@ -19097,7 +19238,7 @@
         <v>526</v>
       </c>
       <c r="R417" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.25">
@@ -19170,7 +19311,7 @@
         <v>1</v>
       </c>
       <c r="R419" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
@@ -19237,7 +19378,7 @@
         <v>547</v>
       </c>
       <c r="R421" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.25">
@@ -19278,7 +19419,7 @@
         <v>1</v>
       </c>
       <c r="R422" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.25">
@@ -19383,7 +19524,7 @@
         <v>547</v>
       </c>
       <c r="R425" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
@@ -19456,7 +19597,7 @@
         <v>1</v>
       </c>
       <c r="R427" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.25">
@@ -19529,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="R429" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
@@ -19573,7 +19714,7 @@
         <v>1</v>
       </c>
       <c r="R430" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
@@ -19719,7 +19860,7 @@
         <v>1</v>
       </c>
       <c r="R434" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.25">
@@ -19756,7 +19897,7 @@
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B436" t="s">
         <v>51</v>
@@ -19792,7 +19933,7 @@
         <v>1</v>
       </c>
       <c r="R436" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.25">
@@ -19833,7 +19974,7 @@
         <v>1</v>
       </c>
       <c r="R437" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
@@ -19914,7 +20055,7 @@
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B440" t="s">
         <v>52</v>
@@ -19955,7 +20096,7 @@
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B441" t="s">
         <v>55</v>
@@ -20029,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="R442" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
@@ -20137,7 +20278,7 @@
         <v>1</v>
       </c>
       <c r="R445" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
@@ -20178,7 +20319,7 @@
         <v>1</v>
       </c>
       <c r="R446" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
@@ -20219,7 +20360,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.25">
@@ -20260,7 +20401,7 @@
         <v>1</v>
       </c>
       <c r="R448" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.25">
@@ -20429,7 +20570,7 @@
         <v>1</v>
       </c>
       <c r="R453" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.25">
@@ -20470,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="R454" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.25">
@@ -20543,7 +20684,7 @@
         <v>1</v>
       </c>
       <c r="R456" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.25">
@@ -20680,7 +20821,7 @@
         <v>1</v>
       </c>
       <c r="R460" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
@@ -20759,7 +20900,7 @@
         <v>1</v>
       </c>
       <c r="R462" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.25">
@@ -20838,7 +20979,7 @@
         <v>1</v>
       </c>
       <c r="R464" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.25">
@@ -20949,7 +21090,7 @@
         <v>1</v>
       </c>
       <c r="R467" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.25">
@@ -20992,7 +21133,7 @@
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B469" t="s">
         <v>15</v>
@@ -21024,7 +21165,7 @@
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B470" t="s">
         <v>15</v>
@@ -21056,7 +21197,7 @@
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B471" t="s">
         <v>15</v>
@@ -21095,12 +21236,12 @@
         <v>1</v>
       </c>
       <c r="R471" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B472" t="s">
         <v>24</v>
@@ -21136,12 +21277,12 @@
         <v>1</v>
       </c>
       <c r="R472" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B473" t="s">
         <v>24</v>
@@ -21177,12 +21318,12 @@
         <v>1</v>
       </c>
       <c r="R473" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B474" t="s">
         <v>24</v>
@@ -21211,7 +21352,7 @@
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B475" t="s">
         <v>24</v>
@@ -21275,7 +21416,7 @@
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B477" t="s">
         <v>35</v>
@@ -21311,12 +21452,12 @@
         <v>1</v>
       </c>
       <c r="R477" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B478" t="s">
         <v>38</v>
@@ -21352,12 +21493,12 @@
         <v>1</v>
       </c>
       <c r="R478" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B479" t="s">
         <v>38</v>
@@ -21427,7 +21568,7 @@
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B481" t="s">
         <v>43</v>
@@ -21466,7 +21607,7 @@
         <v>1</v>
       </c>
       <c r="R481" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.25">
@@ -21507,7 +21648,7 @@
         <v>1</v>
       </c>
       <c r="R482" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.25">
@@ -21583,12 +21724,12 @@
         <v>1</v>
       </c>
       <c r="R484" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B485" t="s">
         <v>47</v>
@@ -21694,12 +21835,12 @@
         <v>1</v>
       </c>
       <c r="R487" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B488" t="s">
         <v>51</v>
@@ -21776,7 +21917,7 @@
         <v>1</v>
       </c>
       <c r="R489" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.25">
@@ -21813,7 +21954,7 @@
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B491" t="s">
         <v>55</v>
@@ -21852,12 +21993,12 @@
         <v>1</v>
       </c>
       <c r="R491" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B492" t="s">
         <v>55</v>
@@ -21889,7 +22030,7 @@
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B493" t="s">
         <v>55</v>
@@ -22027,7 +22168,7 @@
         <v>1</v>
       </c>
       <c r="R496" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.25">
@@ -22100,7 +22241,7 @@
         <v>1</v>
       </c>
       <c r="R498" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.25">
@@ -22141,7 +22282,7 @@
         <v>1</v>
       </c>
       <c r="R499" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.25">
@@ -22278,7 +22419,7 @@
         <v>1</v>
       </c>
       <c r="R503" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.25">
@@ -22383,7 +22524,7 @@
         <v>1</v>
       </c>
       <c r="R506" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.25">
@@ -22462,7 +22603,7 @@
         <v>1</v>
       </c>
       <c r="R508" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.25">
@@ -22573,7 +22714,7 @@
         <v>1</v>
       </c>
       <c r="R511" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.25">
@@ -22614,7 +22755,7 @@
         <v>1</v>
       </c>
       <c r="R512" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.25">
@@ -22687,7 +22828,7 @@
         <v>1</v>
       </c>
       <c r="R514" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.25">
@@ -22798,7 +22939,7 @@
         <v>1</v>
       </c>
       <c r="R517" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.25">
@@ -22839,7 +22980,7 @@
         <v>1</v>
       </c>
       <c r="R518" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.25">
@@ -22914,7 +23055,7 @@
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B521" t="s">
         <v>15</v>
@@ -22946,7 +23087,7 @@
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B522" t="s">
         <v>15</v>
@@ -22978,7 +23119,7 @@
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B523" t="s">
         <v>15</v>
@@ -23014,7 +23155,7 @@
         <v>1</v>
       </c>
       <c r="R523" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.25">
@@ -23089,7 +23230,7 @@
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B526" t="s">
         <v>24</v>
@@ -23128,7 +23269,7 @@
         <v>1</v>
       </c>
       <c r="R526" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.25">
@@ -23172,7 +23313,7 @@
         <v>1</v>
       </c>
       <c r="R527" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.25">
@@ -23213,12 +23354,12 @@
         <v>1</v>
       </c>
       <c r="R528" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B529" t="s">
         <v>35</v>
@@ -23254,12 +23395,12 @@
         <v>1</v>
       </c>
       <c r="R529" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B530" t="s">
         <v>38</v>
@@ -23291,7 +23432,7 @@
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B531" t="s">
         <v>38</v>
@@ -23330,12 +23471,12 @@
         <v>1</v>
       </c>
       <c r="R531" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B532" t="s">
         <v>40</v>
@@ -23374,12 +23515,12 @@
         <v>1</v>
       </c>
       <c r="R532" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B533" t="s">
         <v>40</v>
@@ -23411,7 +23552,7 @@
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B534" t="s">
         <v>40</v>
@@ -23443,7 +23584,7 @@
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B535" t="s">
         <v>40</v>
@@ -23475,7 +23616,7 @@
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B536" t="s">
         <v>43</v>
@@ -23511,12 +23652,12 @@
         <v>1</v>
       </c>
       <c r="R536" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B537" t="s">
         <v>47</v>
@@ -23555,12 +23696,12 @@
         <v>1</v>
       </c>
       <c r="R537" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B538" t="s">
         <v>47</v>
@@ -23598,7 +23739,7 @@
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B539" t="s">
         <v>51</v>
@@ -23633,7 +23774,7 @@
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B540" t="s">
         <v>52</v>
@@ -23669,12 +23810,12 @@
         <v>1</v>
       </c>
       <c r="R540" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B541" t="s">
         <v>52</v>
@@ -23706,7 +23847,7 @@
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B542" t="s">
         <v>52</v>
@@ -23738,7 +23879,7 @@
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B543" t="s">
         <v>53</v>
@@ -23774,12 +23915,12 @@
         <v>1</v>
       </c>
       <c r="R543" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B544" t="s">
         <v>55</v>
@@ -23811,7 +23952,7 @@
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B545" t="s">
         <v>55</v>
@@ -23911,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="R547" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.25">
@@ -24054,7 +24195,7 @@
         <v>1</v>
       </c>
       <c r="R551" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.25">
@@ -24098,7 +24239,7 @@
         <v>1</v>
       </c>
       <c r="R552" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.25">
@@ -24203,7 +24344,7 @@
         <v>1</v>
       </c>
       <c r="R555" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.25">
@@ -24387,7 +24528,7 @@
         <v>1</v>
       </c>
       <c r="R560" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.25">
@@ -24460,7 +24601,7 @@
         <v>1</v>
       </c>
       <c r="R562" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.25">
@@ -24495,7 +24636,7 @@
         <v>679</v>
       </c>
       <c r="R563" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.25">
@@ -24536,7 +24677,7 @@
         <v>1</v>
       </c>
       <c r="R564" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.25">
@@ -24577,7 +24718,7 @@
         <v>1</v>
       </c>
       <c r="R565" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.25">
@@ -24755,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="R570" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.25">
@@ -24860,12 +25001,12 @@
         <v>1</v>
       </c>
       <c r="R573" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B574" t="s">
         <v>15</v>
@@ -24897,7 +25038,7 @@
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B575" t="s">
         <v>15</v>
@@ -24929,7 +25070,7 @@
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B576" t="s">
         <v>24</v>
@@ -24965,12 +25106,12 @@
         <v>1</v>
       </c>
       <c r="R576" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B577" t="s">
         <v>24</v>
@@ -25006,12 +25147,12 @@
         <v>1</v>
       </c>
       <c r="R577" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B578" t="s">
         <v>24</v>
@@ -25117,7 +25258,7 @@
         <v>1</v>
       </c>
       <c r="R580" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.25">
@@ -25160,7 +25301,7 @@
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B582" t="s">
         <v>38</v>
@@ -25196,12 +25337,12 @@
         <v>1</v>
       </c>
       <c r="R582" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B583" t="s">
         <v>38</v>
@@ -25233,7 +25374,7 @@
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B584" t="s">
         <v>40</v>
@@ -25263,12 +25404,12 @@
         <v>719</v>
       </c>
       <c r="R584" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B585" t="s">
         <v>40</v>
@@ -25300,7 +25441,7 @@
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B586" t="s">
         <v>40</v>
@@ -25432,7 +25573,7 @@
         <v>1</v>
       </c>
       <c r="R589" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.25">
@@ -25473,7 +25614,7 @@
         <v>1</v>
       </c>
       <c r="R590" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.25">
@@ -25514,12 +25655,12 @@
         <v>1</v>
       </c>
       <c r="R591" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B592" t="s">
         <v>51</v>
@@ -25558,7 +25699,7 @@
         <v>1</v>
       </c>
       <c r="R592" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.25">
@@ -25633,7 +25774,7 @@
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B595" t="s">
         <v>52</v>
@@ -25671,7 +25812,7 @@
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B596" t="s">
         <v>53</v>
@@ -25703,7 +25844,7 @@
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B597" t="s">
         <v>55</v>
@@ -25771,7 +25912,7 @@
         <v>1</v>
       </c>
       <c r="R598" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.25">
@@ -25806,7 +25947,7 @@
         <v>733</v>
       </c>
       <c r="R599" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.25">
@@ -25881,7 +26022,7 @@
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B602" t="s">
         <v>24</v>
@@ -25911,7 +26052,7 @@
         <v>733</v>
       </c>
       <c r="R602" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.25">
@@ -26022,7 +26163,7 @@
         <v>1</v>
       </c>
       <c r="R605" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.25">
@@ -26095,12 +26236,12 @@
         <v>1</v>
       </c>
       <c r="R607" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B608" t="s">
         <v>35</v>
@@ -26130,12 +26271,12 @@
         <v>733</v>
       </c>
       <c r="R608" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B609" t="s">
         <v>38</v>
@@ -26174,7 +26315,7 @@
         <v>1</v>
       </c>
       <c r="R609" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.25">
@@ -26215,12 +26356,12 @@
         <v>1</v>
       </c>
       <c r="R610" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B611" t="s">
         <v>43</v>
@@ -26229,7 +26370,7 @@
         <v>30</v>
       </c>
       <c r="D611" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E611">
         <v>172</v>
@@ -26367,7 +26508,7 @@
         <v>1</v>
       </c>
       <c r="R614" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.25">
@@ -26410,7 +26551,7 @@
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B616" t="s">
         <v>47</v>
@@ -26446,7 +26587,7 @@
         <v>1</v>
       </c>
       <c r="R616" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.25">
@@ -26583,7 +26724,7 @@
         <v>733</v>
       </c>
       <c r="R620" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.25">
@@ -26627,12 +26768,12 @@
         <v>1</v>
       </c>
       <c r="R621" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="622" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B622" t="s">
         <v>55</v>
@@ -26740,7 +26881,7 @@
     </row>
     <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J625" t="s">
         <v>59</v>
@@ -26751,7 +26892,7 @@
     </row>
     <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B626" t="s">
         <v>55</v>
@@ -26789,7 +26930,7 @@
     </row>
     <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J627" t="s">
         <v>526</v>
@@ -26800,7 +26941,7 @@
     </row>
     <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J628" t="s">
         <v>719</v>
@@ -26811,7 +26952,7 @@
     </row>
     <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J629" t="s">
         <v>200</v>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="910">
   <si>
     <t>Name</t>
   </si>
@@ -2743,6 +2743,12 @@
   </si>
   <si>
     <t>ilkay Gundogan</t>
+  </si>
+  <si>
+    <t>Riccardo Calafiori (O.G)</t>
+  </si>
+  <si>
+    <t>Samet Akaydin (O.G)</t>
   </si>
 </sst>
 </file>
@@ -3567,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R629"/>
+  <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="K631" sqref="K631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15481,11 +15487,14 @@
       <c r="J315" t="s">
         <v>440</v>
       </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
       <c r="P315">
-        <v>5.8</v>
+        <v>5.55</v>
       </c>
       <c r="Q315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R315" t="s">
         <v>893</v>
@@ -15555,10 +15564,10 @@
         <v>440</v>
       </c>
       <c r="P317">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R317" t="s">
         <v>893</v>
@@ -15595,6 +15604,12 @@
       <c r="J318" t="s">
         <v>440</v>
       </c>
+      <c r="P318">
+        <v>6</v>
+      </c>
+      <c r="Q318">
+        <v>1</v>
+      </c>
       <c r="R318" t="s">
         <v>893</v>
       </c>
@@ -15701,10 +15716,10 @@
         <v>440</v>
       </c>
       <c r="P321">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="Q321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R321" t="s">
         <v>893</v>
@@ -15806,10 +15821,10 @@
         <v>440</v>
       </c>
       <c r="P324">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Q324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R324" t="s">
         <v>893</v>
@@ -15846,11 +15861,14 @@
       <c r="J325" t="s">
         <v>440</v>
       </c>
+      <c r="M325">
+        <v>1</v>
+      </c>
       <c r="P325">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Q325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
@@ -15993,10 +16011,10 @@
         <v>1</v>
       </c>
       <c r="P329">
-        <v>7.1</v>
+        <v>7.05</v>
       </c>
       <c r="Q329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R329" t="s">
         <v>893</v>
@@ -16033,11 +16051,14 @@
       <c r="J330" t="s">
         <v>440</v>
       </c>
+      <c r="M330">
+        <v>1</v>
+      </c>
       <c r="P330">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q330">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
@@ -16075,7 +16096,7 @@
         <v>6.4</v>
       </c>
       <c r="Q331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
@@ -16110,10 +16131,10 @@
         <v>440</v>
       </c>
       <c r="P332">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R332" t="s">
         <v>893</v>
@@ -16151,10 +16172,10 @@
         <v>440</v>
       </c>
       <c r="P333">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="Q333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R333" t="s">
         <v>893</v>
@@ -16261,6 +16282,12 @@
       <c r="J336" t="s">
         <v>440</v>
       </c>
+      <c r="P336">
+        <v>6.2</v>
+      </c>
+      <c r="Q336">
+        <v>1</v>
+      </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
@@ -16293,6 +16320,15 @@
       <c r="J337" t="s">
         <v>440</v>
       </c>
+      <c r="M337">
+        <v>1</v>
+      </c>
+      <c r="P337">
+        <v>6.5</v>
+      </c>
+      <c r="Q337">
+        <v>1</v>
+      </c>
       <c r="R337" t="s">
         <v>893</v>
       </c>
@@ -16332,10 +16368,10 @@
         <v>1</v>
       </c>
       <c r="P338">
-        <v>7.9</v>
+        <v>7.25</v>
       </c>
       <c r="Q338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R338" t="s">
         <v>893</v>
@@ -16372,6 +16408,15 @@
       <c r="J339" t="s">
         <v>440</v>
       </c>
+      <c r="K339">
+        <v>1</v>
+      </c>
+      <c r="P339">
+        <v>7.3</v>
+      </c>
+      <c r="Q339">
+        <v>1</v>
+      </c>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
@@ -16405,10 +16450,10 @@
         <v>440</v>
       </c>
       <c r="P340">
-        <v>7.1</v>
+        <v>6.95</v>
       </c>
       <c r="Q340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
@@ -16442,11 +16487,14 @@
       <c r="J341" t="s">
         <v>470</v>
       </c>
+      <c r="O341">
+        <v>1</v>
+      </c>
       <c r="P341">
-        <v>6.9</v>
+        <v>7.35</v>
       </c>
       <c r="Q341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R341" t="s">
         <v>893</v>
@@ -16615,10 +16663,10 @@
         <v>2</v>
       </c>
       <c r="P346">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="Q346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R346" t="s">
         <v>893</v>
@@ -16656,10 +16704,10 @@
         <v>470</v>
       </c>
       <c r="P347">
-        <v>6.6</v>
+        <v>6.95</v>
       </c>
       <c r="Q347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R347" t="s">
         <v>893</v>
@@ -16697,10 +16745,10 @@
         <v>470</v>
       </c>
       <c r="P348">
-        <v>6.7</v>
+        <v>6.85</v>
       </c>
       <c r="Q348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R348" t="s">
         <v>893</v>
@@ -16769,6 +16817,12 @@
       <c r="J350" t="s">
         <v>470</v>
       </c>
+      <c r="P350">
+        <v>6.5</v>
+      </c>
+      <c r="Q350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
@@ -16801,11 +16855,14 @@
       <c r="J351" t="s">
         <v>470</v>
       </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
       <c r="P351">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="Q351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R351" t="s">
         <v>893</v>
@@ -16881,7 +16938,7 @@
         <v>6.8</v>
       </c>
       <c r="Q353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R353" t="s">
         <v>893</v>
@@ -16951,10 +17008,10 @@
         <v>470</v>
       </c>
       <c r="P355">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
       <c r="Q355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R355" t="s">
         <v>893</v>
@@ -16992,10 +17049,10 @@
         <v>470</v>
       </c>
       <c r="P356">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="Q356">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
@@ -17029,6 +17086,12 @@
       <c r="J357" t="s">
         <v>470</v>
       </c>
+      <c r="P357">
+        <v>6.6</v>
+      </c>
+      <c r="Q357">
+        <v>1</v>
+      </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
@@ -17062,10 +17125,10 @@
         <v>470</v>
       </c>
       <c r="P358">
-        <v>6.9</v>
+        <v>6.55</v>
       </c>
       <c r="Q358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R358" t="s">
         <v>893</v>
@@ -17103,10 +17166,10 @@
         <v>470</v>
       </c>
       <c r="P359">
-        <v>7.1</v>
+        <v>7.05</v>
       </c>
       <c r="Q359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R359" t="s">
         <v>893</v>
@@ -17179,10 +17242,10 @@
         <v>1</v>
       </c>
       <c r="P361">
-        <v>8.5</v>
+        <v>7.75</v>
       </c>
       <c r="Q361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R361" t="s">
         <v>893</v>
@@ -17321,6 +17384,12 @@
       <c r="J365" t="s">
         <v>470</v>
       </c>
+      <c r="P365">
+        <v>6.2</v>
+      </c>
+      <c r="Q365">
+        <v>2</v>
+      </c>
       <c r="R365" t="s">
         <v>893</v>
       </c>
@@ -17359,6 +17428,12 @@
       <c r="K366">
         <v>1</v>
       </c>
+      <c r="P366">
+        <v>6.6</v>
+      </c>
+      <c r="Q366">
+        <v>2</v>
+      </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
@@ -17424,10 +17499,10 @@
         <v>497</v>
       </c>
       <c r="P368">
-        <v>6.6</v>
+        <v>6.45</v>
       </c>
       <c r="Q368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R368" t="s">
         <v>893</v>
@@ -17503,7 +17578,7 @@
         <v>6.7</v>
       </c>
       <c r="Q370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R370" t="s">
         <v>893</v>
@@ -17540,6 +17615,12 @@
       <c r="J371" t="s">
         <v>497</v>
       </c>
+      <c r="P371">
+        <v>7</v>
+      </c>
+      <c r="Q371">
+        <v>1</v>
+      </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
@@ -17677,11 +17758,14 @@
       <c r="J375" t="s">
         <v>497</v>
       </c>
+      <c r="K375">
+        <v>1</v>
+      </c>
       <c r="P375">
-        <v>6.5</v>
+        <v>7.15</v>
       </c>
       <c r="Q375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R375" t="s">
         <v>893</v>
@@ -17718,14 +17802,17 @@
       <c r="J376" t="s">
         <v>497</v>
       </c>
+      <c r="L376">
+        <v>1</v>
+      </c>
       <c r="M376">
         <v>1</v>
       </c>
       <c r="P376">
-        <v>6</v>
+        <v>6.65</v>
       </c>
       <c r="Q376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R376" t="s">
         <v>893</v>
@@ -17763,10 +17850,10 @@
         <v>497</v>
       </c>
       <c r="P377">
-        <v>6.5</v>
+        <v>7.05</v>
       </c>
       <c r="Q377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R377" t="s">
         <v>893</v>
@@ -17804,10 +17891,10 @@
         <v>497</v>
       </c>
       <c r="P378">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="Q378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R378" t="s">
         <v>893</v>
@@ -17848,10 +17935,10 @@
         <v>1</v>
       </c>
       <c r="P379">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Q379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R379" t="s">
         <v>893</v>
@@ -17889,10 +17976,10 @@
         <v>497</v>
       </c>
       <c r="P380">
-        <v>7</v>
+        <v>7.45</v>
       </c>
       <c r="Q380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R380" t="s">
         <v>893</v>
@@ -17930,10 +18017,10 @@
         <v>497</v>
       </c>
       <c r="P381">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="Q381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R381" t="s">
         <v>893</v>
@@ -17970,6 +18057,15 @@
       <c r="J382" t="s">
         <v>497</v>
       </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="P382">
+        <v>7.1</v>
+      </c>
+      <c r="Q382">
+        <v>1</v>
+      </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
@@ -18002,14 +18098,17 @@
       <c r="J383" t="s">
         <v>497</v>
       </c>
+      <c r="K383">
+        <v>1</v>
+      </c>
       <c r="M383">
         <v>1</v>
       </c>
       <c r="P383">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="Q383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R383" t="s">
         <v>893</v>
@@ -18046,6 +18145,9 @@
       <c r="J384" t="s">
         <v>497</v>
       </c>
+      <c r="Q384">
+        <v>1</v>
+      </c>
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
@@ -18206,11 +18308,14 @@
       <c r="J389" t="s">
         <v>497</v>
       </c>
+      <c r="M389">
+        <v>1</v>
+      </c>
       <c r="P389">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q389">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
@@ -18248,7 +18353,7 @@
         <v>6.1</v>
       </c>
       <c r="Q390">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
@@ -18282,11 +18387,17 @@
       <c r="J391" t="s">
         <v>497</v>
       </c>
+      <c r="K391">
+        <v>1</v>
+      </c>
+      <c r="M391">
+        <v>1</v>
+      </c>
       <c r="P391">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Q391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R391" t="s">
         <v>893</v>
@@ -18356,13 +18467,13 @@
         <v>526</v>
       </c>
       <c r="O393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P393">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Q393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R393" t="s">
         <v>893</v>
@@ -18464,10 +18575,10 @@
         <v>526</v>
       </c>
       <c r="P396">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Q396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R396" t="s">
         <v>893</v>
@@ -18537,10 +18648,10 @@
         <v>526</v>
       </c>
       <c r="P398">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="Q398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R398" t="s">
         <v>893</v>
@@ -18578,10 +18689,10 @@
         <v>526</v>
       </c>
       <c r="P399">
-        <v>7</v>
+        <v>7.15</v>
       </c>
       <c r="Q399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R399" t="s">
         <v>893</v>
@@ -18651,10 +18762,10 @@
         <v>526</v>
       </c>
       <c r="P401">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="Q401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R401" t="s">
         <v>893</v>
@@ -18755,6 +18866,12 @@
       <c r="J404" t="s">
         <v>526</v>
       </c>
+      <c r="P404">
+        <v>6.7</v>
+      </c>
+      <c r="Q404">
+        <v>1</v>
+      </c>
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
@@ -18788,10 +18905,10 @@
         <v>526</v>
       </c>
       <c r="P405">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="Q405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R405" t="s">
         <v>893</v>
@@ -18899,10 +19016,10 @@
         <v>526</v>
       </c>
       <c r="P408">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="Q408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R408" t="s">
         <v>893</v>
@@ -18971,6 +19088,12 @@
       <c r="J410" t="s">
         <v>526</v>
       </c>
+      <c r="P410">
+        <v>6.5</v>
+      </c>
+      <c r="Q410">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
@@ -19039,10 +19162,10 @@
         <v>1</v>
       </c>
       <c r="P412">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
       <c r="Q412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R412" t="s">
         <v>893</v>
@@ -19118,10 +19241,10 @@
         <v>526</v>
       </c>
       <c r="P414">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Q414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R414" t="s">
         <v>893</v>
@@ -19197,10 +19320,10 @@
         <v>526</v>
       </c>
       <c r="P416">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R416" t="s">
         <v>893</v>
@@ -19237,6 +19360,12 @@
       <c r="J417" t="s">
         <v>526</v>
       </c>
+      <c r="P417">
+        <v>6.5</v>
+      </c>
+      <c r="Q417">
+        <v>2</v>
+      </c>
       <c r="R417" t="s">
         <v>893</v>
       </c>
@@ -19304,11 +19433,17 @@
       <c r="J419" t="s">
         <v>547</v>
       </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+      <c r="O419">
+        <v>1</v>
+      </c>
       <c r="P419">
-        <v>6.6</v>
+        <v>7.05</v>
       </c>
       <c r="Q419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R419" t="s">
         <v>893</v>
@@ -19377,6 +19512,12 @@
       <c r="J421" t="s">
         <v>547</v>
       </c>
+      <c r="P421">
+        <v>7.2</v>
+      </c>
+      <c r="Q421">
+        <v>1</v>
+      </c>
       <c r="R421" t="s">
         <v>893</v>
       </c>
@@ -19413,10 +19554,10 @@
         <v>547</v>
       </c>
       <c r="P422">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R422" t="s">
         <v>893</v>
@@ -19454,10 +19595,10 @@
         <v>547</v>
       </c>
       <c r="P423">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
       <c r="Q423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.25">
@@ -19523,6 +19664,12 @@
       <c r="J425" t="s">
         <v>547</v>
       </c>
+      <c r="P425">
+        <v>7.2</v>
+      </c>
+      <c r="Q425">
+        <v>1</v>
+      </c>
       <c r="R425" t="s">
         <v>893</v>
       </c>
@@ -19591,10 +19738,10 @@
         <v>547</v>
       </c>
       <c r="P427">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="Q427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R427" t="s">
         <v>893</v>
@@ -19664,10 +19811,10 @@
         <v>547</v>
       </c>
       <c r="P429">
-        <v>7.1</v>
+        <v>6.55</v>
       </c>
       <c r="Q429">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R429" t="s">
         <v>893</v>
@@ -19704,14 +19851,17 @@
       <c r="J430" t="s">
         <v>547</v>
       </c>
+      <c r="K430">
+        <v>1</v>
+      </c>
       <c r="M430">
         <v>1</v>
       </c>
       <c r="P430">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="Q430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R430" t="s">
         <v>893</v>
@@ -19853,11 +20003,14 @@
       <c r="J434" t="s">
         <v>547</v>
       </c>
+      <c r="K434">
+        <v>1</v>
+      </c>
       <c r="P434">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="Q434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R434" t="s">
         <v>893</v>
@@ -19927,10 +20080,10 @@
         <v>547</v>
       </c>
       <c r="P436">
-        <v>5.6</v>
+        <v>6.75</v>
       </c>
       <c r="Q436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R436" t="s">
         <v>893</v>
@@ -19968,10 +20121,10 @@
         <v>547</v>
       </c>
       <c r="P437">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Q437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R437" t="s">
         <v>893</v>
@@ -20009,10 +20162,10 @@
         <v>547</v>
       </c>
       <c r="P438">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Q438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
@@ -20088,10 +20241,10 @@
         <v>1</v>
       </c>
       <c r="P440">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Q440">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
@@ -20163,11 +20316,14 @@
       <c r="J442" t="s">
         <v>547</v>
       </c>
+      <c r="L442">
+        <v>1</v>
+      </c>
       <c r="P442">
-        <v>5.9</v>
+        <v>6.75</v>
       </c>
       <c r="Q442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R442" t="s">
         <v>893</v>
@@ -20272,10 +20428,10 @@
         <v>1</v>
       </c>
       <c r="P445">
-        <v>7.2</v>
+        <v>6.65</v>
       </c>
       <c r="Q445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R445" t="s">
         <v>893</v>
@@ -20316,7 +20472,7 @@
         <v>6.8</v>
       </c>
       <c r="Q446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R446" t="s">
         <v>893</v>
@@ -20354,10 +20510,10 @@
         <v>574</v>
       </c>
       <c r="P447">
-        <v>7.4</v>
+        <v>6.95</v>
       </c>
       <c r="Q447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R447" t="s">
         <v>893</v>
@@ -20395,10 +20551,10 @@
         <v>574</v>
       </c>
       <c r="P448">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Q448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R448" t="s">
         <v>893</v>
@@ -20435,6 +20591,12 @@
       <c r="J449" t="s">
         <v>574</v>
       </c>
+      <c r="P449">
+        <v>6.5</v>
+      </c>
+      <c r="Q449">
+        <v>2</v>
+      </c>
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
@@ -20564,10 +20726,10 @@
         <v>574</v>
       </c>
       <c r="P453">
-        <v>6.8</v>
+        <v>6.65</v>
       </c>
       <c r="Q453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R453" t="s">
         <v>893</v>
@@ -20605,10 +20767,10 @@
         <v>574</v>
       </c>
       <c r="P454">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Q454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R454" t="s">
         <v>893</v>
@@ -20645,6 +20807,12 @@
       <c r="J455" t="s">
         <v>574</v>
       </c>
+      <c r="P455">
+        <v>7.1</v>
+      </c>
+      <c r="Q455">
+        <v>1</v>
+      </c>
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
@@ -20681,7 +20849,7 @@
         <v>6.7</v>
       </c>
       <c r="Q456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R456" t="s">
         <v>893</v>
@@ -20815,10 +20983,10 @@
         <v>574</v>
       </c>
       <c r="P460">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="Q460">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R460" t="s">
         <v>893</v>
@@ -20856,10 +21024,10 @@
         <v>574</v>
       </c>
       <c r="P461">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
       <c r="Q461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
@@ -20893,11 +21061,14 @@
       <c r="J462" t="s">
         <v>574</v>
       </c>
+      <c r="L462">
+        <v>1</v>
+      </c>
       <c r="P462">
-        <v>7.7</v>
+        <v>7.75</v>
       </c>
       <c r="Q462">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R462" t="s">
         <v>893</v>
@@ -20934,6 +21105,9 @@
       <c r="J463" t="s">
         <v>574</v>
       </c>
+      <c r="Q463">
+        <v>1</v>
+      </c>
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
@@ -20967,16 +21141,16 @@
         <v>574</v>
       </c>
       <c r="K464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M464">
         <v>1</v>
       </c>
       <c r="P464">
-        <v>7.8</v>
+        <v>7.55</v>
       </c>
       <c r="Q464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R464" t="s">
         <v>893</v>
@@ -21084,10 +21258,10 @@
         <v>574</v>
       </c>
       <c r="P467">
-        <v>6.7</v>
+        <v>6.55</v>
       </c>
       <c r="Q467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R467" t="s">
         <v>893</v>
@@ -21125,10 +21299,10 @@
         <v>574</v>
       </c>
       <c r="P468">
-        <v>6.3</v>
+        <v>6.45</v>
       </c>
       <c r="Q468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">
@@ -21230,10 +21404,10 @@
         <v>1</v>
       </c>
       <c r="P471">
-        <v>7.3</v>
+        <v>7.15</v>
       </c>
       <c r="Q471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R471" t="s">
         <v>893</v>
@@ -21271,10 +21445,10 @@
         <v>614</v>
       </c>
       <c r="P472">
-        <v>7.7</v>
+        <v>7.45</v>
       </c>
       <c r="Q472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R472" t="s">
         <v>893</v>
@@ -21312,10 +21486,10 @@
         <v>614</v>
       </c>
       <c r="P473">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="Q473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R473" t="s">
         <v>893</v>
@@ -21445,11 +21619,14 @@
       <c r="J477" t="s">
         <v>614</v>
       </c>
+      <c r="M477">
+        <v>1</v>
+      </c>
       <c r="P477">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Q477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R477" t="s">
         <v>893</v>
@@ -21487,10 +21664,10 @@
         <v>614</v>
       </c>
       <c r="P478">
-        <v>7.6</v>
+        <v>6.95</v>
       </c>
       <c r="Q478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R478" t="s">
         <v>893</v>
@@ -21601,10 +21778,10 @@
         <v>1</v>
       </c>
       <c r="P481">
-        <v>7.5</v>
+        <v>7.05</v>
       </c>
       <c r="Q481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R481" t="s">
         <v>893</v>
@@ -21641,11 +21818,14 @@
       <c r="J482" t="s">
         <v>614</v>
       </c>
+      <c r="M482">
+        <v>1</v>
+      </c>
       <c r="P482">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R482" t="s">
         <v>893</v>
@@ -21682,6 +21862,12 @@
       <c r="J483" t="s">
         <v>614</v>
       </c>
+      <c r="P483">
+        <v>6.5</v>
+      </c>
+      <c r="Q483">
+        <v>1</v>
+      </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
@@ -21718,10 +21904,10 @@
         <v>1</v>
       </c>
       <c r="P484">
-        <v>8.1999999999999993</v>
+        <v>7.45</v>
       </c>
       <c r="Q484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R484" t="s">
         <v>893</v>
@@ -21791,10 +21977,10 @@
         <v>614</v>
       </c>
       <c r="P486">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="Q486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
@@ -21873,7 +22059,7 @@
         <v>6.6</v>
       </c>
       <c r="Q488">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.25">
@@ -21911,10 +22097,10 @@
         <v>2</v>
       </c>
       <c r="P489">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Q489">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R489" t="s">
         <v>893</v>
@@ -21951,6 +22137,9 @@
       <c r="J490" t="s">
         <v>614</v>
       </c>
+      <c r="Q490">
+        <v>1</v>
+      </c>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
@@ -21987,10 +22176,10 @@
         <v>1</v>
       </c>
       <c r="P491">
-        <v>7.6</v>
+        <v>6.85</v>
       </c>
       <c r="Q491">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R491" t="s">
         <v>893</v>
@@ -22097,6 +22286,9 @@
       <c r="J494" t="s">
         <v>614</v>
       </c>
+      <c r="Q494">
+        <v>1</v>
+      </c>
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
@@ -22129,6 +22321,12 @@
       <c r="J495" t="s">
         <v>635</v>
       </c>
+      <c r="P495">
+        <v>7</v>
+      </c>
+      <c r="Q495">
+        <v>1</v>
+      </c>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
@@ -22235,10 +22433,10 @@
         <v>635</v>
       </c>
       <c r="P498">
-        <v>6.2</v>
+        <v>6.35</v>
       </c>
       <c r="Q498">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R498" t="s">
         <v>893</v>
@@ -22276,10 +22474,10 @@
         <v>635</v>
       </c>
       <c r="P499">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R499" t="s">
         <v>893</v>
@@ -22412,11 +22610,14 @@
       <c r="J503" t="s">
         <v>635</v>
       </c>
+      <c r="L503">
+        <v>1</v>
+      </c>
       <c r="P503">
-        <v>5.9</v>
+        <v>6.95</v>
       </c>
       <c r="Q503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R503" t="s">
         <v>893</v>
@@ -22559,10 +22760,10 @@
         <v>635</v>
       </c>
       <c r="P507">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="Q507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.25">
@@ -22597,10 +22798,10 @@
         <v>635</v>
       </c>
       <c r="P508">
-        <v>7.1</v>
+        <v>7.15</v>
       </c>
       <c r="Q508">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R508" t="s">
         <v>893</v>
@@ -22707,11 +22908,17 @@
       <c r="J511" t="s">
         <v>635</v>
       </c>
+      <c r="K511">
+        <v>1</v>
+      </c>
+      <c r="L511">
+        <v>1</v>
+      </c>
       <c r="P511">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q511">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R511" t="s">
         <v>893</v>
@@ -22749,10 +22956,10 @@
         <v>635</v>
       </c>
       <c r="P512">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="Q512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R512" t="s">
         <v>893</v>
@@ -22789,6 +22996,9 @@
       <c r="J513" t="s">
         <v>635</v>
       </c>
+      <c r="Q513">
+        <v>2</v>
+      </c>
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
@@ -22822,10 +23032,10 @@
         <v>635</v>
       </c>
       <c r="P514">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="Q514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R514" t="s">
         <v>893</v>
@@ -22900,6 +23110,12 @@
       <c r="J516" t="s">
         <v>635</v>
       </c>
+      <c r="P516">
+        <v>6.3</v>
+      </c>
+      <c r="Q516">
+        <v>1</v>
+      </c>
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
@@ -22933,10 +23149,10 @@
         <v>635</v>
       </c>
       <c r="P517">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q517">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R517" t="s">
         <v>893</v>
@@ -22974,10 +23190,10 @@
         <v>635</v>
       </c>
       <c r="P518">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R518" t="s">
         <v>893</v>
@@ -23046,11 +23262,17 @@
       <c r="J520" t="s">
         <v>635</v>
       </c>
+      <c r="K520">
+        <v>1</v>
+      </c>
+      <c r="M520">
+        <v>1</v>
+      </c>
       <c r="P520">
-        <v>6.8</v>
+        <v>7.05</v>
       </c>
       <c r="Q520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">
@@ -23084,6 +23306,12 @@
       <c r="J521" t="s">
         <v>668</v>
       </c>
+      <c r="P521">
+        <v>5.4</v>
+      </c>
+      <c r="Q521">
+        <v>1</v>
+      </c>
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
@@ -23190,10 +23418,10 @@
         <v>668</v>
       </c>
       <c r="P524">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
       <c r="Q524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.25">
@@ -23260,13 +23488,13 @@
         <v>668</v>
       </c>
       <c r="M526">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P526">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="Q526">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R526" t="s">
         <v>893</v>
@@ -23307,10 +23535,10 @@
         <v>1</v>
       </c>
       <c r="P527">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="Q527">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R527" t="s">
         <v>893</v>
@@ -23347,11 +23575,14 @@
       <c r="J528" t="s">
         <v>668</v>
       </c>
+      <c r="M528">
+        <v>1</v>
+      </c>
       <c r="P528">
-        <v>6.8</v>
+        <v>5.95</v>
       </c>
       <c r="Q528">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R528" t="s">
         <v>893</v>
@@ -23389,10 +23620,10 @@
         <v>668</v>
       </c>
       <c r="P529">
-        <v>7.7</v>
+        <v>7.05</v>
       </c>
       <c r="Q529">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R529" t="s">
         <v>893</v>
@@ -23429,6 +23660,15 @@
       <c r="J530" t="s">
         <v>668</v>
       </c>
+      <c r="M530">
+        <v>1</v>
+      </c>
+      <c r="P530">
+        <v>5.7</v>
+      </c>
+      <c r="Q530">
+        <v>2</v>
+      </c>
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
@@ -23509,10 +23749,10 @@
         <v>1</v>
       </c>
       <c r="P532">
-        <v>6.8</v>
+        <v>6.85</v>
       </c>
       <c r="Q532">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R532" t="s">
         <v>893</v>
@@ -23549,6 +23789,12 @@
       <c r="J533" t="s">
         <v>668</v>
       </c>
+      <c r="P533">
+        <v>6.9</v>
+      </c>
+      <c r="Q533">
+        <v>1</v>
+      </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
@@ -23646,10 +23892,10 @@
         <v>668</v>
       </c>
       <c r="P536">
-        <v>6.2</v>
+        <v>6.45</v>
       </c>
       <c r="Q536">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R536" t="s">
         <v>893</v>
@@ -23690,10 +23936,10 @@
         <v>1</v>
       </c>
       <c r="P537">
-        <v>8.6</v>
+        <v>7.55</v>
       </c>
       <c r="Q537">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R537" t="s">
         <v>893</v>
@@ -23731,10 +23977,10 @@
         <v>668</v>
       </c>
       <c r="P538">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="Q538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.25">
@@ -23771,6 +24017,12 @@
       <c r="K539">
         <v>1</v>
       </c>
+      <c r="P539">
+        <v>6.5</v>
+      </c>
+      <c r="Q539">
+        <v>2</v>
+      </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
@@ -23804,10 +24056,10 @@
         <v>668</v>
       </c>
       <c r="P540">
-        <v>7</v>
+        <v>6.55</v>
       </c>
       <c r="Q540">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R540" t="s">
         <v>893</v>
@@ -23876,6 +24128,12 @@
       <c r="J542" t="s">
         <v>668</v>
       </c>
+      <c r="P542">
+        <v>7</v>
+      </c>
+      <c r="Q542">
+        <v>1</v>
+      </c>
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
@@ -23909,10 +24167,10 @@
         <v>668</v>
       </c>
       <c r="P543">
-        <v>6.9</v>
+        <v>6.75</v>
       </c>
       <c r="Q543">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R543" t="s">
         <v>893</v>
@@ -24046,10 +24304,10 @@
         <v>679</v>
       </c>
       <c r="P547">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="Q547">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R547" t="s">
         <v>893</v>
@@ -24151,10 +24409,10 @@
         <v>679</v>
       </c>
       <c r="P550">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
@@ -24189,10 +24447,10 @@
         <v>679</v>
       </c>
       <c r="P551">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q551">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R551" t="s">
         <v>893</v>
@@ -24233,10 +24491,10 @@
         <v>1</v>
       </c>
       <c r="P552">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q552">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R552" t="s">
         <v>893</v>
@@ -24305,6 +24563,12 @@
       <c r="J554" t="s">
         <v>679</v>
       </c>
+      <c r="M554">
+        <v>1</v>
+      </c>
+      <c r="Q554">
+        <v>1</v>
+      </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
@@ -24337,11 +24601,14 @@
       <c r="J555" t="s">
         <v>679</v>
       </c>
+      <c r="M555">
+        <v>1</v>
+      </c>
       <c r="P555">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="Q555">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R555" t="s">
         <v>893</v>
@@ -24410,11 +24677,14 @@
       <c r="J557" t="s">
         <v>679</v>
       </c>
+      <c r="M557">
+        <v>1</v>
+      </c>
       <c r="P557">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Q557">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.25">
@@ -24521,11 +24791,14 @@
       <c r="L560">
         <v>1</v>
       </c>
+      <c r="M560">
+        <v>1</v>
+      </c>
       <c r="P560">
-        <v>7.6</v>
+        <v>6.85</v>
       </c>
       <c r="Q560">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R560" t="s">
         <v>893</v>
@@ -24595,10 +24868,10 @@
         <v>679</v>
       </c>
       <c r="P562">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
       <c r="Q562">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R562" t="s">
         <v>893</v>
@@ -24671,10 +24944,10 @@
         <v>679</v>
       </c>
       <c r="P564">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Q564">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R564" t="s">
         <v>893</v>
@@ -24712,10 +24985,10 @@
         <v>679</v>
       </c>
       <c r="P565">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="Q565">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R565" t="s">
         <v>893</v>
@@ -24752,6 +25025,9 @@
       <c r="J566" t="s">
         <v>679</v>
       </c>
+      <c r="Q566">
+        <v>1</v>
+      </c>
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
@@ -24784,6 +25060,12 @@
       <c r="J567" t="s">
         <v>679</v>
       </c>
+      <c r="P567">
+        <v>6.1</v>
+      </c>
+      <c r="Q567">
+        <v>2</v>
+      </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
@@ -24817,10 +25099,10 @@
         <v>679</v>
       </c>
       <c r="P568">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.25">
@@ -24887,13 +25169,13 @@
         <v>679</v>
       </c>
       <c r="K570">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P570">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Q570">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R570" t="s">
         <v>893</v>
@@ -24930,6 +25212,9 @@
       <c r="J571" t="s">
         <v>679</v>
       </c>
+      <c r="Q571">
+        <v>1</v>
+      </c>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
@@ -24994,11 +25279,14 @@
       <c r="J573" t="s">
         <v>719</v>
       </c>
+      <c r="O573">
+        <v>1</v>
+      </c>
       <c r="P573">
-        <v>6.1</v>
+        <v>6.75</v>
       </c>
       <c r="Q573">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R573" t="s">
         <v>893</v>
@@ -25100,10 +25388,10 @@
         <v>719</v>
       </c>
       <c r="P576">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="Q576">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R576" t="s">
         <v>893</v>
@@ -25181,6 +25469,9 @@
       <c r="J578" t="s">
         <v>719</v>
       </c>
+      <c r="Q578">
+        <v>1</v>
+      </c>
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
@@ -25214,10 +25505,10 @@
         <v>719</v>
       </c>
       <c r="P579">
-        <v>6.5</v>
+        <v>6.85</v>
       </c>
       <c r="Q579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.25">
@@ -25251,11 +25542,14 @@
       <c r="J580" t="s">
         <v>719</v>
       </c>
+      <c r="L580">
+        <v>1</v>
+      </c>
       <c r="P580">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="Q580">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R580" t="s">
         <v>893</v>
@@ -25331,10 +25625,10 @@
         <v>719</v>
       </c>
       <c r="P582">
-        <v>6.8</v>
+        <v>6.95</v>
       </c>
       <c r="Q582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R582" t="s">
         <v>893</v>
@@ -25371,6 +25665,12 @@
       <c r="J583" t="s">
         <v>719</v>
       </c>
+      <c r="P583">
+        <v>6.3</v>
+      </c>
+      <c r="Q583">
+        <v>2</v>
+      </c>
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
@@ -25403,6 +25703,15 @@
       <c r="J584" t="s">
         <v>719</v>
       </c>
+      <c r="M584">
+        <v>1</v>
+      </c>
+      <c r="P584">
+        <v>6.5</v>
+      </c>
+      <c r="Q584">
+        <v>1</v>
+      </c>
       <c r="R584" t="s">
         <v>893</v>
       </c>
@@ -25438,6 +25747,9 @@
       <c r="J585" t="s">
         <v>719</v>
       </c>
+      <c r="Q585">
+        <v>1</v>
+      </c>
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
@@ -25470,6 +25782,12 @@
       <c r="J586" t="s">
         <v>719</v>
       </c>
+      <c r="P586">
+        <v>6.7</v>
+      </c>
+      <c r="Q586">
+        <v>1</v>
+      </c>
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
@@ -25567,10 +25885,10 @@
         <v>719</v>
       </c>
       <c r="P589">
-        <v>7.5</v>
+        <v>7.35</v>
       </c>
       <c r="Q589">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R589" t="s">
         <v>893</v>
@@ -25607,11 +25925,14 @@
       <c r="J590" t="s">
         <v>719</v>
       </c>
+      <c r="K590">
+        <v>1</v>
+      </c>
       <c r="P590">
-        <v>7.1</v>
+        <v>7.45</v>
       </c>
       <c r="Q590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R590" t="s">
         <v>893</v>
@@ -25648,11 +25969,14 @@
       <c r="J591" t="s">
         <v>719</v>
       </c>
+      <c r="K591">
+        <v>1</v>
+      </c>
       <c r="P591">
-        <v>7.1</v>
+        <v>7.85</v>
       </c>
       <c r="Q591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R591" t="s">
         <v>893</v>
@@ -25696,7 +26020,7 @@
         <v>6.3</v>
       </c>
       <c r="Q592">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R592" t="s">
         <v>893</v>
@@ -25771,6 +26095,12 @@
       <c r="J594" t="s">
         <v>719</v>
       </c>
+      <c r="P594">
+        <v>6.7</v>
+      </c>
+      <c r="Q594">
+        <v>2</v>
+      </c>
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
@@ -25809,6 +26139,9 @@
       <c r="M595">
         <v>1</v>
       </c>
+      <c r="Q595">
+        <v>1</v>
+      </c>
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
@@ -25905,11 +26238,14 @@
       <c r="J598" t="s">
         <v>719</v>
       </c>
+      <c r="L598">
+        <v>1</v>
+      </c>
       <c r="P598">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q598">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R598" t="s">
         <v>893</v>
@@ -26014,10 +26350,10 @@
         <v>733</v>
       </c>
       <c r="P601">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="Q601">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
@@ -26087,10 +26423,10 @@
         <v>733</v>
       </c>
       <c r="P603">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q603">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.25">
@@ -26157,10 +26493,10 @@
         <v>733</v>
       </c>
       <c r="P605">
-        <v>4.4000000000000004</v>
+        <v>5.05</v>
       </c>
       <c r="Q605">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R605" t="s">
         <v>893</v>
@@ -26229,11 +26565,14 @@
       <c r="J607" t="s">
         <v>733</v>
       </c>
+      <c r="M607">
+        <v>1</v>
+      </c>
       <c r="P607">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="Q607">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R607" t="s">
         <v>893</v>
@@ -26270,6 +26609,12 @@
       <c r="J608" t="s">
         <v>733</v>
       </c>
+      <c r="P608">
+        <v>6.6</v>
+      </c>
+      <c r="Q608">
+        <v>1</v>
+      </c>
       <c r="R608" t="s">
         <v>893</v>
       </c>
@@ -26309,10 +26654,10 @@
         <v>1</v>
       </c>
       <c r="P609">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="Q609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R609" t="s">
         <v>893</v>
@@ -26350,10 +26695,10 @@
         <v>733</v>
       </c>
       <c r="P610">
-        <v>6.7</v>
+        <v>6.85</v>
       </c>
       <c r="Q610">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R610" t="s">
         <v>893</v>
@@ -26394,7 +26739,7 @@
         <v>6.5</v>
       </c>
       <c r="Q611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.25">
@@ -26501,11 +26846,14 @@
       <c r="K614">
         <v>1</v>
       </c>
+      <c r="M614">
+        <v>1</v>
+      </c>
       <c r="P614">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R614" t="s">
         <v>893</v>
@@ -26584,7 +26932,7 @@
         <v>6.5</v>
       </c>
       <c r="Q616">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R616" t="s">
         <v>893</v>
@@ -26622,10 +26970,10 @@
         <v>733</v>
       </c>
       <c r="P617">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="Q617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.25">
@@ -26659,6 +27007,12 @@
       <c r="J618" t="s">
         <v>733</v>
       </c>
+      <c r="P618">
+        <v>7.3</v>
+      </c>
+      <c r="Q618">
+        <v>1</v>
+      </c>
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
@@ -26691,6 +27045,12 @@
       <c r="J619" t="s">
         <v>733</v>
       </c>
+      <c r="P619">
+        <v>6.4</v>
+      </c>
+      <c r="Q619">
+        <v>1</v>
+      </c>
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
@@ -26723,6 +27083,12 @@
       <c r="J620" t="s">
         <v>733</v>
       </c>
+      <c r="P620">
+        <v>6.9</v>
+      </c>
+      <c r="Q620">
+        <v>1</v>
+      </c>
       <c r="R620" t="s">
         <v>893</v>
       </c>
@@ -26762,10 +27128,10 @@
         <v>1</v>
       </c>
       <c r="P621">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="Q621">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R621" t="s">
         <v>893</v>
@@ -26803,10 +27169,10 @@
         <v>733</v>
       </c>
       <c r="P622">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
       <c r="Q622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.25">
@@ -26958,6 +27324,28 @@
         <v>200</v>
       </c>
       <c r="K629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>908</v>
+      </c>
+      <c r="J630" t="s">
+        <v>174</v>
+      </c>
+      <c r="K630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>909</v>
+      </c>
+      <c r="J631" t="s">
+        <v>719</v>
+      </c>
+      <c r="K631">
         <v>1</v>
       </c>
     </row>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="909">
   <si>
     <t>Name</t>
   </si>
@@ -2737,9 +2737,6 @@
   </si>
   <si>
     <t>Klaus Gjasula (O.G)</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>ilkay Gundogan</t>
@@ -3575,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A607" workbookViewId="0">
-      <selection activeCell="K631" sqref="K631"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3704,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>6.8</v>
+        <v>6.633</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" t="s">
         <v>893</v>
@@ -3776,6 +3773,12 @@
       <c r="J5" t="s">
         <v>18</v>
       </c>
+      <c r="P5">
+        <v>6.7</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3809,13 +3812,13 @@
         <v>18</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>6.766</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s">
         <v>893</v>
@@ -3859,7 +3862,7 @@
         <v>6.5</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s">
         <v>893</v>
@@ -3960,6 +3963,15 @@
       <c r="J10" t="s">
         <v>18</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>7.8</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3999,10 +4011,10 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>7.35</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" t="s">
         <v>893</v>
@@ -4043,10 +4055,10 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" t="s">
         <v>893</v>
@@ -4160,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>6.5</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" t="s">
         <v>893</v>
@@ -4171,7 +4183,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -4207,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>7.95</v>
+        <v>7.4329999999999998</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4248,10 +4260,10 @@
         <v>18</v>
       </c>
       <c r="P17">
-        <v>7.45</v>
+        <v>7.6</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="s">
         <v>893</v>
@@ -4330,10 +4342,10 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>7.15</v>
+        <v>7.133</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19" t="s">
         <v>893</v>
@@ -4374,10 +4386,10 @@
         <v>2</v>
       </c>
       <c r="P20">
-        <v>7.8</v>
+        <v>7.6669999999999998</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="s">
         <v>893</v>
@@ -4421,10 +4433,10 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>7.1</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" t="s">
         <v>893</v>
@@ -4494,10 +4506,10 @@
         <v>18</v>
       </c>
       <c r="P23">
-        <v>6.95</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -4572,6 +4584,12 @@
       <c r="J25" t="s">
         <v>18</v>
       </c>
+      <c r="P25">
+        <v>6.5</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4643,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>7.15</v>
+        <v>7.266</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -4681,10 +4699,10 @@
         <v>59</v>
       </c>
       <c r="P28">
-        <v>5.85</v>
+        <v>6.1660000000000004</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" t="s">
         <v>893</v>
@@ -4789,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>6.4</v>
+        <v>6.4660000000000002</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -4827,10 +4845,10 @@
         <v>59</v>
       </c>
       <c r="P32">
-        <v>6.15</v>
+        <v>6.2329999999999997</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" t="s">
         <v>893</v>
@@ -4941,10 +4959,10 @@
         <v>59</v>
       </c>
       <c r="P35">
-        <v>6.5</v>
+        <v>6.633</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35" t="s">
         <v>893</v>
@@ -4985,7 +5003,7 @@
         <v>6.8</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R36" t="s">
         <v>893</v>
@@ -5099,10 +5117,10 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>6.2</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>906</v>
+        <v>6.3</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -5175,13 +5193,13 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41">
-        <v>7.35</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R41" t="s">
         <v>893</v>
@@ -5222,7 +5240,7 @@
         <v>6.55</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R42" t="s">
         <v>893</v>
@@ -5263,10 +5281,10 @@
         <v>1</v>
       </c>
       <c r="P43">
-        <v>6.05</v>
+        <v>6.266</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R43" t="s">
         <v>893</v>
@@ -5307,10 +5325,10 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>6.65</v>
+        <v>6.6</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -5344,6 +5362,12 @@
       <c r="J45" t="s">
         <v>59</v>
       </c>
+      <c r="P45">
+        <v>6.5</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5412,7 +5436,7 @@
         <v>6.6</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -5447,10 +5471,10 @@
         <v>59</v>
       </c>
       <c r="P48">
-        <v>5.8</v>
+        <v>6.15</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R48" t="s">
         <v>893</v>
@@ -5487,6 +5511,9 @@
       <c r="J49" t="s">
         <v>59</v>
       </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -5552,10 +5579,10 @@
         <v>59</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R51" t="s">
         <v>893</v>
@@ -5592,6 +5619,12 @@
       <c r="J52" t="s">
         <v>59</v>
       </c>
+      <c r="P52">
+        <v>6.8</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -5656,11 +5689,14 @@
       <c r="J54" t="s">
         <v>100</v>
       </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
       <c r="P54">
-        <v>6.35</v>
+        <v>6.5</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R54" t="s">
         <v>893</v>
@@ -5761,11 +5797,14 @@
       <c r="J57" t="s">
         <v>100</v>
       </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
       <c r="P57">
-        <v>6.4</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R57" t="s">
         <v>893</v>
@@ -5806,10 +5845,10 @@
         <v>1</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R58" t="s">
         <v>893</v>
@@ -5847,10 +5886,10 @@
         <v>100</v>
       </c>
       <c r="P59">
-        <v>6.2</v>
+        <v>6.266</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -5958,10 +5997,10 @@
         <v>100</v>
       </c>
       <c r="P62">
-        <v>6.1</v>
+        <v>6.2329999999999997</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R62" t="s">
         <v>893</v>
@@ -5999,10 +6038,10 @@
         <v>100</v>
       </c>
       <c r="P63">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -6043,7 +6082,7 @@
         <v>6.6</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -6077,6 +6116,12 @@
       <c r="J65" t="s">
         <v>100</v>
       </c>
+      <c r="P65">
+        <v>6.8</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -6183,10 +6228,10 @@
         <v>100</v>
       </c>
       <c r="P68">
-        <v>6.35</v>
+        <v>6.5330000000000004</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R68" t="s">
         <v>893</v>
@@ -6230,10 +6275,10 @@
         <v>1</v>
       </c>
       <c r="P69">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R69" t="s">
         <v>893</v>
@@ -6270,11 +6315,14 @@
       <c r="J70" t="s">
         <v>100</v>
       </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
       <c r="P70">
-        <v>6.15</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R70" t="s">
         <v>893</v>
@@ -6311,6 +6359,15 @@
       <c r="J71" t="s">
         <v>100</v>
       </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>6.5</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -6410,6 +6467,9 @@
       <c r="J74" t="s">
         <v>100</v>
       </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
       <c r="P74">
         <v>6.4</v>
       </c>
@@ -6481,10 +6541,10 @@
         <v>100</v>
       </c>
       <c r="P76">
-        <v>7.05</v>
+        <v>7.3659999999999997</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R76" t="s">
         <v>893</v>
@@ -6521,8 +6581,17 @@
       <c r="J77" t="s">
         <v>100</v>
       </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
       <c r="M77">
         <v>1</v>
+      </c>
+      <c r="P77">
+        <v>7.4</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -6563,10 +6632,10 @@
         <v>1</v>
       </c>
       <c r="P78">
-        <v>6.55</v>
+        <v>6.5659999999999998</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R78" t="s">
         <v>893</v>
@@ -6604,7 +6673,7 @@
         <v>100</v>
       </c>
       <c r="P79">
-        <v>6.45</v>
+        <v>6.633</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -6674,10 +6743,10 @@
         <v>131</v>
       </c>
       <c r="P81">
-        <v>6.35</v>
+        <v>6.3659999999999997</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R81" t="s">
         <v>893</v>
@@ -6747,10 +6816,10 @@
         <v>131</v>
       </c>
       <c r="P83">
-        <v>6.65</v>
+        <v>6.7329999999999997</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R83" t="s">
         <v>893</v>
@@ -6820,10 +6889,10 @@
         <v>131</v>
       </c>
       <c r="P85">
-        <v>7</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R85" t="s">
         <v>893</v>
@@ -6937,7 +7006,7 @@
         <v>6.5</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R88" t="s">
         <v>893</v>
@@ -6975,13 +7044,13 @@
         <v>131</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89">
-        <v>6.35</v>
+        <v>6.2329999999999997</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R89" t="s">
         <v>893</v>
@@ -7050,11 +7119,14 @@
       <c r="J91" t="s">
         <v>131</v>
       </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
       <c r="P91">
-        <v>7.35</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R91" t="s">
         <v>893</v>
@@ -7130,10 +7202,10 @@
         <v>1</v>
       </c>
       <c r="P93">
-        <v>7.55</v>
+        <v>7.2</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R93" t="s">
         <v>893</v>
@@ -7171,16 +7243,16 @@
         <v>131</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94">
         <v>1</v>
       </c>
       <c r="P94">
-        <v>6.55</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="Q94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R94" t="s">
         <v>893</v>
@@ -7259,10 +7331,10 @@
         <v>131</v>
       </c>
       <c r="P96">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -7401,11 +7473,17 @@
       <c r="J100" t="s">
         <v>131</v>
       </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
       <c r="P100">
-        <v>6.75</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q100">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -7440,10 +7518,10 @@
         <v>131</v>
       </c>
       <c r="P101">
-        <v>7.1</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R101" t="s">
         <v>893</v>
@@ -7516,10 +7594,10 @@
         <v>1</v>
       </c>
       <c r="P103">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -7554,10 +7632,10 @@
         <v>131</v>
       </c>
       <c r="P104">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R104" t="s">
         <v>893</v>
@@ -7598,10 +7676,10 @@
         <v>1</v>
       </c>
       <c r="P105">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R105" t="s">
         <v>893</v>
@@ -27329,7 +27407,7 @@
     </row>
     <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J630" t="s">
         <v>174</v>
@@ -27340,7 +27418,7 @@
     </row>
     <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J631" t="s">
         <v>719</v>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -3572,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4658,7 +4658,7 @@
         <v>18</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>7.266</v>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -3572,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7716,6 +7716,15 @@
       <c r="J106" t="s">
         <v>174</v>
       </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>7.6</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -7828,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="P109">
-        <v>6.8</v>
+        <v>6.766</v>
       </c>
       <c r="Q109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R109" t="s">
         <v>893</v>
@@ -7868,6 +7877,15 @@
       <c r="J110" t="s">
         <v>174</v>
       </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>7.3</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -7901,10 +7919,10 @@
         <v>174</v>
       </c>
       <c r="P111">
-        <v>6.8</v>
+        <v>6.85</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -7979,6 +7997,12 @@
       <c r="J113" t="s">
         <v>174</v>
       </c>
+      <c r="P113">
+        <v>7.8</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -8099,6 +8123,12 @@
       <c r="J116" t="s">
         <v>174</v>
       </c>
+      <c r="P116">
+        <v>7.2</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -8175,6 +8205,12 @@
       <c r="J118" t="s">
         <v>174</v>
       </c>
+      <c r="P118">
+        <v>6.2</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -8252,10 +8288,10 @@
         <v>174</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>6.5659999999999998</v>
       </c>
       <c r="Q120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -8336,6 +8372,12 @@
       <c r="J122" t="s">
         <v>174</v>
       </c>
+      <c r="P122">
+        <v>6.5</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -8368,11 +8410,14 @@
       <c r="J123" t="s">
         <v>174</v>
       </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
       <c r="P123">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -8410,7 +8455,7 @@
         <v>6.6</v>
       </c>
       <c r="Q124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8485,11 +8530,14 @@
       <c r="J126" t="s">
         <v>174</v>
       </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
       <c r="P126">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="Q126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -8565,10 +8613,10 @@
         <v>1</v>
       </c>
       <c r="P128">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Q128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R128" t="s">
         <v>893</v>
@@ -8606,10 +8654,10 @@
         <v>174</v>
       </c>
       <c r="P129">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q129">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -8647,10 +8695,10 @@
         <v>1</v>
       </c>
       <c r="P130">
-        <v>7.25</v>
+        <v>7.133</v>
       </c>
       <c r="Q130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R130" t="s">
         <v>893</v>
@@ -8687,6 +8735,12 @@
       <c r="J131" t="s">
         <v>174</v>
       </c>
+      <c r="P131">
+        <v>6.6</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -8720,10 +8774,10 @@
         <v>200</v>
       </c>
       <c r="P132">
-        <v>6</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="Q132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R132" t="s">
         <v>893</v>
@@ -8824,11 +8878,14 @@
       <c r="J135" t="s">
         <v>200</v>
       </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
       <c r="P135">
-        <v>6.1</v>
+        <v>6.1660000000000004</v>
       </c>
       <c r="Q135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R135" t="s">
         <v>893</v>
@@ -8866,7 +8923,7 @@
         <v>200</v>
       </c>
       <c r="P136">
-        <v>6.6</v>
+        <v>6.766</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -8906,11 +8963,14 @@
       <c r="J137" t="s">
         <v>200</v>
       </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
       <c r="P137">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -9009,10 +9069,10 @@
         <v>200</v>
       </c>
       <c r="P140">
-        <v>6.05</v>
+        <v>6.2</v>
       </c>
       <c r="Q140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R140" t="s">
         <v>893</v>
@@ -9081,6 +9141,12 @@
       <c r="J142" t="s">
         <v>200</v>
       </c>
+      <c r="P142">
+        <v>6.6</v>
+      </c>
+      <c r="Q142">
+        <v>2</v>
+      </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -9113,11 +9179,14 @@
       <c r="J143" t="s">
         <v>200</v>
       </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
       <c r="P143">
-        <v>6.75</v>
+        <v>6.766</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R143" t="s">
         <v>893</v>
@@ -9155,10 +9224,10 @@
         <v>200</v>
       </c>
       <c r="P144">
-        <v>6.95</v>
+        <v>6.8659999999999997</v>
       </c>
       <c r="Q144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R144" t="s">
         <v>893</v>
@@ -9195,11 +9264,14 @@
       <c r="J145" t="s">
         <v>200</v>
       </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
       <c r="P145">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -9237,7 +9309,7 @@
         <v>6.5</v>
       </c>
       <c r="Q146">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -9271,11 +9343,17 @@
       <c r="J147" t="s">
         <v>200</v>
       </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
       <c r="P147">
-        <v>6.5</v>
+        <v>6.5330000000000004</v>
       </c>
       <c r="Q147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R147" t="s">
         <v>893</v>
@@ -9313,10 +9391,10 @@
         <v>200</v>
       </c>
       <c r="P148">
-        <v>6.6</v>
+        <v>6.5659999999999998</v>
       </c>
       <c r="Q148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R148" t="s">
         <v>893</v>
@@ -9417,6 +9495,15 @@
       <c r="J151" t="s">
         <v>200</v>
       </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="P151">
+        <v>6.3</v>
+      </c>
+      <c r="Q151">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -9482,10 +9569,10 @@
         <v>200</v>
       </c>
       <c r="P153">
-        <v>6.85</v>
+        <v>6.7329999999999997</v>
       </c>
       <c r="Q153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R153" t="s">
         <v>893</v>
@@ -9558,10 +9645,10 @@
         <v>1</v>
       </c>
       <c r="P155">
-        <v>7.25</v>
+        <v>7.1</v>
       </c>
       <c r="Q155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R155" t="s">
         <v>893</v>
@@ -9602,10 +9689,10 @@
         <v>1</v>
       </c>
       <c r="P156">
-        <v>7.2</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="Q156">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -9681,10 +9768,10 @@
         <v>236</v>
       </c>
       <c r="P158">
-        <v>6.55</v>
+        <v>6.633</v>
       </c>
       <c r="Q158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R158" t="s">
         <v>893</v>
@@ -9786,10 +9873,10 @@
         <v>236</v>
       </c>
       <c r="P161">
-        <v>6.75</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="Q161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R161" t="s">
         <v>893</v>
@@ -9923,10 +10010,10 @@
         <v>236</v>
       </c>
       <c r="P165">
-        <v>6.45</v>
+        <v>6.7</v>
       </c>
       <c r="Q165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R165" t="s">
         <v>893</v>
@@ -9964,10 +10051,10 @@
         <v>236</v>
       </c>
       <c r="P166">
-        <v>6.75</v>
+        <v>6.5659999999999998</v>
       </c>
       <c r="Q166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R166" t="s">
         <v>893</v>
@@ -10080,6 +10167,12 @@
       <c r="J169" t="s">
         <v>236</v>
       </c>
+      <c r="P169">
+        <v>6.7</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -10113,10 +10206,10 @@
         <v>236</v>
       </c>
       <c r="P170">
-        <v>7.25</v>
+        <v>7.5330000000000004</v>
       </c>
       <c r="Q170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R170" t="s">
         <v>893</v>
@@ -10154,10 +10247,10 @@
         <v>236</v>
       </c>
       <c r="P171">
-        <v>6.9</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="Q171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R171" t="s">
         <v>893</v>
@@ -10200,6 +10293,12 @@
       <c r="M172">
         <v>1</v>
       </c>
+      <c r="P172">
+        <v>6.3</v>
+      </c>
+      <c r="Q172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -10268,10 +10367,10 @@
         <v>1</v>
       </c>
       <c r="P174">
-        <v>7.55</v>
+        <v>7.266</v>
       </c>
       <c r="Q174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R174" t="s">
         <v>893</v>
@@ -10308,6 +10407,15 @@
       <c r="J175" t="s">
         <v>236</v>
       </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>6.4</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -10340,6 +10448,9 @@
       <c r="J176" t="s">
         <v>236</v>
       </c>
+      <c r="Q176">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -10375,11 +10486,14 @@
       <c r="K177">
         <v>1</v>
       </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
       <c r="P177">
-        <v>6.9</v>
+        <v>6.633</v>
       </c>
       <c r="Q177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R177" t="s">
         <v>893</v>
@@ -10420,10 +10534,10 @@
         <v>1</v>
       </c>
       <c r="P178">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="Q178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -10461,10 +10575,10 @@
         <v>1</v>
       </c>
       <c r="P179">
-        <v>6.95</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="Q179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R179" t="s">
         <v>893</v>
@@ -10505,10 +10619,10 @@
         <v>1</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>6.766</v>
       </c>
       <c r="Q180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -10546,7 +10660,7 @@
         <v>6.3</v>
       </c>
       <c r="Q181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R181" t="s">
         <v>893</v>
@@ -10660,10 +10774,10 @@
         <v>1</v>
       </c>
       <c r="P184">
-        <v>6.75</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="Q184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R184" t="s">
         <v>893</v>
@@ -10768,10 +10882,10 @@
         <v>1</v>
       </c>
       <c r="P187">
-        <v>7.35</v>
+        <v>7.133</v>
       </c>
       <c r="Q187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R187" t="s">
         <v>893</v>
@@ -10840,14 +10954,17 @@
       <c r="J189" t="s">
         <v>277</v>
       </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
       <c r="M189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P189">
-        <v>6.2</v>
+        <v>6.766</v>
       </c>
       <c r="Q189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R189" t="s">
         <v>893</v>
@@ -10949,10 +11066,10 @@
         <v>277</v>
       </c>
       <c r="P192">
-        <v>6.45</v>
+        <v>6.5330000000000004</v>
       </c>
       <c r="Q192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R192" t="s">
         <v>893</v>
@@ -11028,10 +11145,10 @@
         <v>277</v>
       </c>
       <c r="P194">
-        <v>6.7</v>
+        <v>6.633</v>
       </c>
       <c r="Q194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R194" t="s">
         <v>893</v>
@@ -11100,6 +11217,12 @@
       <c r="J196" t="s">
         <v>277</v>
       </c>
+      <c r="P196">
+        <v>6.4</v>
+      </c>
+      <c r="Q196">
+        <v>2</v>
+      </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -11177,7 +11300,7 @@
         <v>6.6</v>
       </c>
       <c r="Q198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R198" t="s">
         <v>893</v>
@@ -11218,10 +11341,10 @@
         <v>1</v>
       </c>
       <c r="P199">
-        <v>7.25</v>
+        <v>7.1</v>
       </c>
       <c r="Q199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R199" t="s">
         <v>893</v>
@@ -11259,10 +11382,10 @@
         <v>277</v>
       </c>
       <c r="P200">
-        <v>6.4</v>
+        <v>6.1660000000000004</v>
       </c>
       <c r="Q200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R200" t="s">
         <v>893</v>
@@ -11299,6 +11422,15 @@
       <c r="J201" t="s">
         <v>277</v>
       </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="P201">
+        <v>6.3</v>
+      </c>
+      <c r="Q201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -11370,10 +11502,10 @@
         <v>1</v>
       </c>
       <c r="P203">
-        <v>6.75</v>
+        <v>6.9</v>
       </c>
       <c r="Q203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R203" t="s">
         <v>893</v>
@@ -11411,10 +11543,10 @@
         <v>277</v>
       </c>
       <c r="P204">
-        <v>6.75</v>
+        <v>6.633</v>
       </c>
       <c r="Q204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R204" t="s">
         <v>893</v>
@@ -11451,11 +11583,14 @@
       <c r="J205" t="s">
         <v>277</v>
       </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
       <c r="P205">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="Q205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
@@ -11521,6 +11656,12 @@
       <c r="J207" t="s">
         <v>277</v>
       </c>
+      <c r="P207">
+        <v>7.3</v>
+      </c>
+      <c r="Q207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -11554,10 +11695,10 @@
         <v>277</v>
       </c>
       <c r="P208">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R208" t="s">
         <v>893</v>
@@ -11598,7 +11739,7 @@
         <v>6.6</v>
       </c>
       <c r="Q209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -3572,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="Q418" sqref="Q418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11773,11 +11773,14 @@
       <c r="J210" t="s">
         <v>308</v>
       </c>
+      <c r="O210">
+        <v>1</v>
+      </c>
       <c r="P210">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="Q210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R210" t="s">
         <v>893</v>
@@ -11878,11 +11881,14 @@
       <c r="J213" t="s">
         <v>308</v>
       </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
       <c r="P213">
-        <v>7.45</v>
+        <v>7.3</v>
       </c>
       <c r="Q213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R213" t="s">
         <v>893</v>
@@ -11952,10 +11958,10 @@
         <v>308</v>
       </c>
       <c r="P215">
-        <v>6.55</v>
+        <v>6.7329999999999997</v>
       </c>
       <c r="Q215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R215" t="s">
         <v>893</v>
@@ -12024,6 +12030,9 @@
       <c r="J217" t="s">
         <v>308</v>
       </c>
+      <c r="Q217">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -12060,13 +12069,13 @@
         <v>1</v>
       </c>
       <c r="M218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P218">
-        <v>7.35</v>
+        <v>7</v>
       </c>
       <c r="Q218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R218" t="s">
         <v>893</v>
@@ -12107,10 +12116,10 @@
         <v>1</v>
       </c>
       <c r="P219">
-        <v>6.5</v>
+        <v>6.633</v>
       </c>
       <c r="Q219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R219" t="s">
         <v>893</v>
@@ -12151,10 +12160,10 @@
         <v>1</v>
       </c>
       <c r="P220">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="Q220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R220" t="s">
         <v>893</v>
@@ -12195,7 +12204,7 @@
         <v>6.7</v>
       </c>
       <c r="Q221">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
@@ -12297,7 +12306,7 @@
         <v>6.8</v>
       </c>
       <c r="Q224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R224" t="s">
         <v>893</v>
@@ -12370,10 +12379,10 @@
         <v>1</v>
       </c>
       <c r="P226">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="Q226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R226" t="s">
         <v>893</v>
@@ -12474,6 +12483,9 @@
       <c r="J229" t="s">
         <v>308</v>
       </c>
+      <c r="Q229">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
@@ -12545,10 +12557,10 @@
         <v>308</v>
       </c>
       <c r="P231">
-        <v>6.75</v>
+        <v>6.6669999999999998</v>
       </c>
       <c r="Q231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R231" t="s">
         <v>893</v>
@@ -12586,10 +12598,10 @@
         <v>308</v>
       </c>
       <c r="P232">
-        <v>7.35</v>
+        <v>7.1</v>
       </c>
       <c r="Q232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R232" t="s">
         <v>893</v>
@@ -12627,10 +12639,10 @@
         <v>308</v>
       </c>
       <c r="P233">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="Q233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R233" t="s">
         <v>893</v>
@@ -12773,13 +12785,13 @@
         <v>354</v>
       </c>
       <c r="O237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P237">
-        <v>7.15</v>
+        <v>7.2</v>
       </c>
       <c r="Q237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R237" t="s">
         <v>893</v>
@@ -12849,10 +12861,10 @@
         <v>354</v>
       </c>
       <c r="P239">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="Q239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R239" t="s">
         <v>893</v>
@@ -12889,11 +12901,14 @@
       <c r="J240" t="s">
         <v>354</v>
       </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
       <c r="P240">
-        <v>7</v>
+        <v>6.8659999999999997</v>
       </c>
       <c r="Q240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R240" t="s">
         <v>893</v>
@@ -13062,7 +13077,7 @@
         <v>7</v>
       </c>
       <c r="Q245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R245" t="s">
         <v>893</v>
@@ -13100,10 +13115,10 @@
         <v>354</v>
       </c>
       <c r="P246">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="Q246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R246" t="s">
         <v>893</v>
@@ -13140,11 +13155,14 @@
       <c r="J247" t="s">
         <v>354</v>
       </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
       <c r="P247">
-        <v>6.8</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R247" t="s">
         <v>893</v>
@@ -13182,10 +13200,10 @@
         <v>354</v>
       </c>
       <c r="P248">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="Q248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R248" t="s">
         <v>893</v>
@@ -13229,7 +13247,7 @@
         <v>6.5</v>
       </c>
       <c r="Q249">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
@@ -13263,6 +13281,12 @@
       <c r="J250" t="s">
         <v>354</v>
       </c>
+      <c r="P250">
+        <v>6.6</v>
+      </c>
+      <c r="Q250">
+        <v>2</v>
+      </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
@@ -13331,10 +13355,10 @@
         <v>1</v>
       </c>
       <c r="P252">
-        <v>7.5</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="Q252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R252" t="s">
         <v>893</v>
@@ -13371,6 +13395,12 @@
       <c r="J253" t="s">
         <v>354</v>
       </c>
+      <c r="P253">
+        <v>6.8</v>
+      </c>
+      <c r="Q253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
@@ -13441,6 +13471,9 @@
       <c r="J255" t="s">
         <v>354</v>
       </c>
+      <c r="Q255">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
@@ -13473,8 +13506,11 @@
       <c r="J256" t="s">
         <v>354</v>
       </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
       <c r="P256">
-        <v>7.05</v>
+        <v>6.9</v>
       </c>
       <c r="Q256">
         <v>2</v>
@@ -13518,10 +13554,10 @@
         <v>1</v>
       </c>
       <c r="P257">
-        <v>7.4</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="Q257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R257" t="s">
         <v>893</v>
@@ -13600,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="P259">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Q259">
         <v>2</v>
@@ -13774,11 +13810,14 @@
       <c r="J264" t="s">
         <v>384</v>
       </c>
+      <c r="O264">
+        <v>1</v>
+      </c>
       <c r="P264">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Q264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R264" t="s">
         <v>893</v>
@@ -13816,10 +13855,10 @@
         <v>384</v>
       </c>
       <c r="P265">
-        <v>6.8</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R265" t="s">
         <v>893</v>
@@ -13857,10 +13896,10 @@
         <v>384</v>
       </c>
       <c r="P266">
-        <v>6.45</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="Q266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R266" t="s">
         <v>893</v>
@@ -13901,10 +13940,10 @@
         <v>1</v>
       </c>
       <c r="P267">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="Q267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R267" t="s">
         <v>893</v>
@@ -14012,7 +14051,7 @@
         <v>6.5</v>
       </c>
       <c r="Q270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R270" t="s">
         <v>893</v>
@@ -14053,10 +14092,10 @@
         <v>1</v>
       </c>
       <c r="P271">
-        <v>6.35</v>
+        <v>6.4660000000000002</v>
       </c>
       <c r="Q271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R271" t="s">
         <v>893</v>
@@ -14097,7 +14136,7 @@
         <v>6.85</v>
       </c>
       <c r="Q272">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
@@ -14167,13 +14206,13 @@
         <v>1</v>
       </c>
       <c r="M274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P274">
-        <v>6.9</v>
+        <v>6.8659999999999997</v>
       </c>
       <c r="Q274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R274" t="s">
         <v>893</v>
@@ -14249,10 +14288,10 @@
         <v>384</v>
       </c>
       <c r="P276">
-        <v>7.2</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="Q276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R276" t="s">
         <v>893</v>
@@ -14325,10 +14364,10 @@
         <v>1</v>
       </c>
       <c r="P278">
-        <v>8.3000000000000007</v>
+        <v>7.9329999999999998</v>
       </c>
       <c r="Q278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R278" t="s">
         <v>893</v>
@@ -14365,6 +14404,12 @@
       <c r="J279" t="s">
         <v>384</v>
       </c>
+      <c r="P279">
+        <v>6.5</v>
+      </c>
+      <c r="Q279">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
@@ -14467,8 +14512,11 @@
       <c r="J282" t="s">
         <v>384</v>
       </c>
+      <c r="P282">
+        <v>6.5</v>
+      </c>
       <c r="Q282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
@@ -14538,7 +14586,7 @@
         <v>6.4</v>
       </c>
       <c r="Q284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R284" t="s">
         <v>893</v>
@@ -14578,11 +14626,14 @@
       <c r="L285">
         <v>1</v>
       </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
       <c r="P285">
-        <v>7.4</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R285" t="s">
         <v>893</v>
@@ -14619,6 +14670,12 @@
       <c r="J286" t="s">
         <v>384</v>
       </c>
+      <c r="P286">
+        <v>6.5</v>
+      </c>
+      <c r="Q286">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
@@ -14655,7 +14712,7 @@
         <v>6.2</v>
       </c>
       <c r="Q287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.25">
@@ -14721,11 +14778,14 @@
       <c r="J289" t="s">
         <v>410</v>
       </c>
+      <c r="O289">
+        <v>1</v>
+      </c>
       <c r="P289">
-        <v>6.85</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R289" t="s">
         <v>893</v>
@@ -14795,10 +14855,10 @@
         <v>410</v>
       </c>
       <c r="P291">
-        <v>6.5</v>
+        <v>6.633</v>
       </c>
       <c r="Q291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R291" t="s">
         <v>893</v>
@@ -14835,11 +14895,14 @@
       <c r="J292" t="s">
         <v>410</v>
       </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
       <c r="P292">
-        <v>6.65</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="Q292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R292" t="s">
         <v>893</v>
@@ -14877,10 +14940,10 @@
         <v>410</v>
       </c>
       <c r="P293">
-        <v>6.5</v>
+        <v>6.633</v>
       </c>
       <c r="Q293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R293" t="s">
         <v>893</v>
@@ -14952,6 +15015,12 @@
       <c r="M295">
         <v>1</v>
       </c>
+      <c r="P295">
+        <v>6.45</v>
+      </c>
+      <c r="Q295">
+        <v>2</v>
+      </c>
       <c r="R295" t="s">
         <v>893</v>
       </c>
@@ -15052,10 +15121,10 @@
         <v>410</v>
       </c>
       <c r="P298">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R298" t="s">
         <v>893</v>
@@ -15092,6 +15161,12 @@
       <c r="J299" t="s">
         <v>410</v>
       </c>
+      <c r="P299">
+        <v>6.8</v>
+      </c>
+      <c r="Q299">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
@@ -15128,7 +15203,7 @@
         <v>6.55</v>
       </c>
       <c r="Q300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R300" t="s">
         <v>893</v>
@@ -15165,8 +15240,11 @@
       <c r="J301" t="s">
         <v>410</v>
       </c>
+      <c r="P301">
+        <v>6.5</v>
+      </c>
       <c r="Q301">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
@@ -15204,10 +15282,10 @@
         <v>1</v>
       </c>
       <c r="P302">
-        <v>7.15</v>
+        <v>6.9</v>
       </c>
       <c r="Q302">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
@@ -15245,10 +15323,10 @@
         <v>1</v>
       </c>
       <c r="P303">
-        <v>6.35</v>
+        <v>6.5330000000000004</v>
       </c>
       <c r="Q303">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
@@ -15435,10 +15513,10 @@
         <v>1</v>
       </c>
       <c r="P308">
-        <v>7</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R308" t="s">
         <v>893</v>
@@ -15476,10 +15554,10 @@
         <v>410</v>
       </c>
       <c r="P309">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Q309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R309" t="s">
         <v>893</v>
@@ -15517,10 +15595,10 @@
         <v>410</v>
       </c>
       <c r="P310">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="Q310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R310" t="s">
         <v>893</v>
@@ -15557,11 +15635,14 @@
       <c r="J311" t="s">
         <v>410</v>
       </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
       <c r="P311">
         <v>6.4</v>
       </c>
       <c r="Q311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R311" t="s">
         <v>893</v>
@@ -15605,10 +15686,10 @@
         <v>1</v>
       </c>
       <c r="P312">
-        <v>7</v>
+        <v>6.7329999999999997</v>
       </c>
       <c r="Q312">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
@@ -15750,6 +15831,15 @@
       <c r="J316" t="s">
         <v>440</v>
       </c>
+      <c r="O316">
+        <v>1</v>
+      </c>
+      <c r="P316">
+        <v>7.4</v>
+      </c>
+      <c r="Q316">
+        <v>1</v>
+      </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
@@ -15783,10 +15873,10 @@
         <v>440</v>
       </c>
       <c r="P317">
-        <v>6.6</v>
+        <v>6.7329999999999997</v>
       </c>
       <c r="Q317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R317" t="s">
         <v>893</v>
@@ -15823,11 +15913,14 @@
       <c r="J318" t="s">
         <v>440</v>
       </c>
+      <c r="M318">
+        <v>1</v>
+      </c>
       <c r="P318">
-        <v>6</v>
+        <v>6.1660000000000004</v>
       </c>
       <c r="Q318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R318" t="s">
         <v>893</v>
@@ -15935,10 +16028,10 @@
         <v>440</v>
       </c>
       <c r="P321">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="Q321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R321" t="s">
         <v>893</v>
@@ -16230,10 +16323,10 @@
         <v>1</v>
       </c>
       <c r="P329">
-        <v>7.05</v>
+        <v>7.133</v>
       </c>
       <c r="Q329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R329" t="s">
         <v>893</v>
@@ -16277,7 +16370,7 @@
         <v>6.6</v>
       </c>
       <c r="Q330">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
@@ -16312,10 +16405,10 @@
         <v>440</v>
       </c>
       <c r="P331">
-        <v>6.4</v>
+        <v>6.633</v>
       </c>
       <c r="Q331">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
@@ -16353,7 +16446,7 @@
         <v>6.4</v>
       </c>
       <c r="Q332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R332" t="s">
         <v>893</v>
@@ -16394,7 +16487,7 @@
         <v>6.45</v>
       </c>
       <c r="Q333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R333" t="s">
         <v>893</v>
@@ -16432,10 +16525,10 @@
         <v>440</v>
       </c>
       <c r="P334">
-        <v>6.1</v>
+        <v>6.45</v>
       </c>
       <c r="Q334">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
@@ -16469,6 +16562,12 @@
       <c r="J335" t="s">
         <v>440</v>
       </c>
+      <c r="P335">
+        <v>6.7</v>
+      </c>
+      <c r="Q335">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
@@ -16539,14 +16638,17 @@
       <c r="J337" t="s">
         <v>440</v>
       </c>
+      <c r="K337">
+        <v>1</v>
+      </c>
       <c r="M337">
         <v>1</v>
       </c>
       <c r="P337">
-        <v>6.5</v>
+        <v>6.66</v>
       </c>
       <c r="Q337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R337" t="s">
         <v>893</v>
@@ -16668,11 +16770,14 @@
       <c r="J340" t="s">
         <v>440</v>
       </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
       <c r="P340">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="Q340">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
@@ -16710,10 +16815,10 @@
         <v>1</v>
       </c>
       <c r="P341">
-        <v>7.35</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="Q341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R341" t="s">
         <v>893</v>
@@ -16846,6 +16951,12 @@
       <c r="J345" t="s">
         <v>470</v>
       </c>
+      <c r="P345">
+        <v>6.5</v>
+      </c>
+      <c r="Q345">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -16882,10 +16993,10 @@
         <v>2</v>
       </c>
       <c r="P346">
-        <v>7.4</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="Q346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R346" t="s">
         <v>893</v>
@@ -16923,10 +17034,10 @@
         <v>470</v>
       </c>
       <c r="P347">
-        <v>6.95</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="Q347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R347" t="s">
         <v>893</v>
@@ -16964,10 +17075,10 @@
         <v>470</v>
       </c>
       <c r="P348">
-        <v>6.85</v>
+        <v>6.5330000000000004</v>
       </c>
       <c r="Q348">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R348" t="s">
         <v>893</v>
@@ -17037,10 +17148,10 @@
         <v>470</v>
       </c>
       <c r="P350">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="Q350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
@@ -17078,10 +17189,10 @@
         <v>1</v>
       </c>
       <c r="P351">
-        <v>6.8</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="Q351">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R351" t="s">
         <v>893</v>
@@ -17154,10 +17265,10 @@
         <v>1</v>
       </c>
       <c r="P353">
-        <v>6.8</v>
+        <v>6.4660000000000002</v>
       </c>
       <c r="Q353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R353" t="s">
         <v>893</v>
@@ -17227,10 +17338,10 @@
         <v>470</v>
       </c>
       <c r="P355">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="Q355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R355" t="s">
         <v>893</v>
@@ -17271,7 +17382,7 @@
         <v>6.55</v>
       </c>
       <c r="Q356">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
@@ -17384,11 +17495,14 @@
       <c r="J359" t="s">
         <v>470</v>
       </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
       <c r="P359">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="Q359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R359" t="s">
         <v>893</v>
@@ -17458,13 +17572,13 @@
         <v>470</v>
       </c>
       <c r="K361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P361">
         <v>7.75</v>
       </c>
       <c r="Q361">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R361" t="s">
         <v>893</v>
@@ -17534,10 +17648,10 @@
         <v>470</v>
       </c>
       <c r="P363">
-        <v>6.8</v>
+        <v>6.05</v>
       </c>
       <c r="Q363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.25">
@@ -17603,11 +17717,14 @@
       <c r="J365" t="s">
         <v>470</v>
       </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
       <c r="P365">
-        <v>6.2</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="Q365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R365" t="s">
         <v>893</v>
@@ -17647,11 +17764,14 @@
       <c r="K366">
         <v>1</v>
       </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
       <c r="P366">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q366">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
@@ -17718,10 +17838,10 @@
         <v>497</v>
       </c>
       <c r="P368">
-        <v>6.45</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="Q368">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R368" t="s">
         <v>893</v>
@@ -17835,10 +17955,10 @@
         <v>497</v>
       </c>
       <c r="P371">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Q371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
@@ -17876,10 +17996,10 @@
         <v>1</v>
       </c>
       <c r="P372">
-        <v>5.0999999999999996</v>
+        <v>5.95</v>
       </c>
       <c r="Q372">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
@@ -17945,6 +18065,15 @@
       <c r="J374" t="s">
         <v>497</v>
       </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+      <c r="P374">
+        <v>6.5</v>
+      </c>
+      <c r="Q374">
+        <v>1</v>
+      </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
@@ -18068,11 +18197,14 @@
       <c r="J377" t="s">
         <v>497</v>
       </c>
+      <c r="M377">
+        <v>1</v>
+      </c>
       <c r="P377">
-        <v>7.05</v>
+        <v>6.7</v>
       </c>
       <c r="Q377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R377" t="s">
         <v>893</v>
@@ -18109,11 +18241,14 @@
       <c r="J378" t="s">
         <v>497</v>
       </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
       <c r="P378">
-        <v>6.75</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="Q378">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R378" t="s">
         <v>893</v>
@@ -18154,10 +18289,10 @@
         <v>1</v>
       </c>
       <c r="P379">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Q379">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R379" t="s">
         <v>893</v>
@@ -18194,11 +18329,14 @@
       <c r="J380" t="s">
         <v>497</v>
       </c>
+      <c r="K380">
+        <v>1</v>
+      </c>
       <c r="P380">
-        <v>7.45</v>
+        <v>7.7</v>
       </c>
       <c r="Q380">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R380" t="s">
         <v>893</v>
@@ -18236,10 +18374,10 @@
         <v>497</v>
       </c>
       <c r="P381">
-        <v>7.2</v>
+        <v>7.133</v>
       </c>
       <c r="Q381">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R381" t="s">
         <v>893</v>
@@ -18280,10 +18418,10 @@
         <v>1</v>
       </c>
       <c r="P382">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="Q382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
@@ -18320,14 +18458,17 @@
       <c r="K383">
         <v>1</v>
       </c>
+      <c r="L383">
+        <v>1</v>
+      </c>
       <c r="M383">
         <v>1</v>
       </c>
       <c r="P383">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="Q383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R383" t="s">
         <v>893</v>
@@ -18463,6 +18604,9 @@
       <c r="J387" t="s">
         <v>497</v>
       </c>
+      <c r="Q387">
+        <v>1</v>
+      </c>
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
@@ -18528,13 +18672,13 @@
         <v>497</v>
       </c>
       <c r="M389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P389">
-        <v>6.65</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="Q389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
@@ -18569,10 +18713,10 @@
         <v>497</v>
       </c>
       <c r="P390">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Q390">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
@@ -18613,10 +18757,10 @@
         <v>1</v>
       </c>
       <c r="P391">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q391">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R391" t="s">
         <v>893</v>
@@ -18689,10 +18833,10 @@
         <v>2</v>
       </c>
       <c r="P393">
-        <v>7.7</v>
+        <v>7.266</v>
       </c>
       <c r="Q393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R393" t="s">
         <v>893</v>
@@ -18794,10 +18938,10 @@
         <v>526</v>
       </c>
       <c r="P396">
-        <v>7.1</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="Q396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R396" t="s">
         <v>893</v>
@@ -18867,10 +19011,10 @@
         <v>526</v>
       </c>
       <c r="P398">
-        <v>7.25</v>
+        <v>6.8659999999999997</v>
       </c>
       <c r="Q398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R398" t="s">
         <v>893</v>
@@ -18908,10 +19052,10 @@
         <v>526</v>
       </c>
       <c r="P399">
-        <v>7.15</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="Q399">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R399" t="s">
         <v>893</v>
@@ -18984,7 +19128,7 @@
         <v>6.95</v>
       </c>
       <c r="Q401">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R401" t="s">
         <v>893</v>
@@ -19086,10 +19230,10 @@
         <v>526</v>
       </c>
       <c r="P404">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="Q404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
@@ -19124,10 +19268,10 @@
         <v>526</v>
       </c>
       <c r="P405">
-        <v>7.25</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="Q405">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R405" t="s">
         <v>893</v>
@@ -19165,10 +19309,10 @@
         <v>526</v>
       </c>
       <c r="P406">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="Q406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
@@ -19234,11 +19378,14 @@
       <c r="J408" t="s">
         <v>526</v>
       </c>
+      <c r="M408">
+        <v>1</v>
+      </c>
       <c r="P408">
-        <v>7.3</v>
+        <v>6.8659999999999997</v>
       </c>
       <c r="Q408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R408" t="s">
         <v>893</v>
@@ -19275,6 +19422,12 @@
       <c r="J409" t="s">
         <v>526</v>
       </c>
+      <c r="P409">
+        <v>6.5</v>
+      </c>
+      <c r="Q409">
+        <v>1</v>
+      </c>
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
@@ -19345,6 +19498,12 @@
       <c r="J411" t="s">
         <v>526</v>
       </c>
+      <c r="P411">
+        <v>7.5</v>
+      </c>
+      <c r="Q411">
+        <v>1</v>
+      </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
@@ -19381,10 +19540,10 @@
         <v>1</v>
       </c>
       <c r="P412">
-        <v>6.55</v>
+        <v>6.9</v>
       </c>
       <c r="Q412">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R412" t="s">
         <v>893</v>
@@ -19421,11 +19580,14 @@
       <c r="J413" t="s">
         <v>526</v>
       </c>
+      <c r="K413">
+        <v>1</v>
+      </c>
       <c r="P413">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.25">
@@ -19504,7 +19666,7 @@
         <v>6.4</v>
       </c>
       <c r="Q415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
@@ -19539,10 +19701,10 @@
         <v>526</v>
       </c>
       <c r="P416">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="Q416">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R416" t="s">
         <v>893</v>
@@ -19580,10 +19742,10 @@
         <v>526</v>
       </c>
       <c r="P417">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Q417">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R417" t="s">
         <v>893</v>

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -3572,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="Q418" sqref="Q418"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="R553" sqref="R553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19818,13 +19818,13 @@
         <v>1</v>
       </c>
       <c r="O419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P419">
-        <v>7.05</v>
+        <v>7.2329999999999997</v>
       </c>
       <c r="Q419">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R419" t="s">
         <v>893</v>
@@ -19894,10 +19894,10 @@
         <v>547</v>
       </c>
       <c r="P421">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Q421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R421" t="s">
         <v>893</v>
@@ -19934,11 +19934,14 @@
       <c r="J422" t="s">
         <v>547</v>
       </c>
+      <c r="M422">
+        <v>1</v>
+      </c>
       <c r="P422">
-        <v>6.65</v>
+        <v>6.5</v>
       </c>
       <c r="Q422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R422" t="s">
         <v>893</v>
@@ -20046,10 +20049,10 @@
         <v>547</v>
       </c>
       <c r="P425">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Q425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R425" t="s">
         <v>893</v>
@@ -20122,7 +20125,7 @@
         <v>6.75</v>
       </c>
       <c r="Q427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R427" t="s">
         <v>893</v>
@@ -20192,10 +20195,10 @@
         <v>547</v>
       </c>
       <c r="P429">
-        <v>6.55</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="Q429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R429" t="s">
         <v>893</v>
@@ -20239,7 +20242,7 @@
         <v>1</v>
       </c>
       <c r="P430">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Q430">
         <v>2</v>
@@ -20318,7 +20321,7 @@
         <v>6.2</v>
       </c>
       <c r="Q432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.25">
@@ -20388,10 +20391,10 @@
         <v>1</v>
       </c>
       <c r="P434">
-        <v>8.1</v>
+        <v>7.9660000000000002</v>
       </c>
       <c r="Q434">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R434" t="s">
         <v>893</v>
@@ -20464,7 +20467,7 @@
         <v>6.75</v>
       </c>
       <c r="Q436">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R436" t="s">
         <v>893</v>
@@ -20502,10 +20505,10 @@
         <v>547</v>
       </c>
       <c r="P437">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Q437">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R437" t="s">
         <v>893</v>
@@ -20546,7 +20549,7 @@
         <v>6.75</v>
       </c>
       <c r="Q438">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
@@ -20584,7 +20587,7 @@
         <v>6.7</v>
       </c>
       <c r="Q439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
@@ -20663,7 +20666,7 @@
         <v>6.7</v>
       </c>
       <c r="Q441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.25">
@@ -20704,7 +20707,7 @@
         <v>6.75</v>
       </c>
       <c r="Q442">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R442" t="s">
         <v>893</v>
@@ -20809,10 +20812,10 @@
         <v>1</v>
       </c>
       <c r="P445">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="Q445">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R445" t="s">
         <v>893</v>
@@ -20850,10 +20853,10 @@
         <v>574</v>
       </c>
       <c r="P446">
-        <v>6.8</v>
+        <v>6.266</v>
       </c>
       <c r="Q446">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R446" t="s">
         <v>893</v>
@@ -20891,10 +20894,10 @@
         <v>574</v>
       </c>
       <c r="P447">
-        <v>6.95</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="Q447">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R447" t="s">
         <v>893</v>
@@ -20932,10 +20935,10 @@
         <v>574</v>
       </c>
       <c r="P448">
-        <v>6.7</v>
+        <v>6.633</v>
       </c>
       <c r="Q448">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R448" t="s">
         <v>893</v>
@@ -21010,6 +21013,9 @@
       <c r="J450" t="s">
         <v>574</v>
       </c>
+      <c r="Q450">
+        <v>1</v>
+      </c>
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
@@ -21107,10 +21113,10 @@
         <v>574</v>
       </c>
       <c r="P453">
-        <v>6.65</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="Q453">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R453" t="s">
         <v>893</v>
@@ -21148,10 +21154,10 @@
         <v>574</v>
       </c>
       <c r="P454">
-        <v>6.9</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="Q454">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R454" t="s">
         <v>893</v>
@@ -21226,11 +21232,17 @@
       <c r="J456" t="s">
         <v>574</v>
       </c>
+      <c r="K456">
+        <v>1</v>
+      </c>
+      <c r="M456">
+        <v>1</v>
+      </c>
       <c r="P456">
-        <v>6.7</v>
+        <v>6.8659999999999997</v>
       </c>
       <c r="Q456">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R456" t="s">
         <v>893</v>
@@ -21363,11 +21375,14 @@
       <c r="J460" t="s">
         <v>574</v>
       </c>
+      <c r="L460">
+        <v>1</v>
+      </c>
       <c r="P460">
-        <v>6.95</v>
+        <v>7.1</v>
       </c>
       <c r="Q460">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R460" t="s">
         <v>893</v>
@@ -21405,10 +21420,10 @@
         <v>574</v>
       </c>
       <c r="P461">
-        <v>6.75</v>
+        <v>6.633</v>
       </c>
       <c r="Q461">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
@@ -21446,10 +21461,10 @@
         <v>1</v>
       </c>
       <c r="P462">
-        <v>7.75</v>
+        <v>7.633</v>
       </c>
       <c r="Q462">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R462" t="s">
         <v>893</v>
@@ -21528,10 +21543,10 @@
         <v>1</v>
       </c>
       <c r="P464">
-        <v>7.55</v>
+        <v>7.2</v>
       </c>
       <c r="Q464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R464" t="s">
         <v>893</v>
@@ -21604,7 +21619,7 @@
         <v>6.5</v>
       </c>
       <c r="Q466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.25">
@@ -21639,10 +21654,10 @@
         <v>574</v>
       </c>
       <c r="P467">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q467">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R467" t="s">
         <v>893</v>
@@ -21680,10 +21695,10 @@
         <v>574</v>
       </c>
       <c r="P468">
-        <v>6.45</v>
+        <v>6.5330000000000004</v>
       </c>
       <c r="Q468">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">
@@ -21785,10 +21800,10 @@
         <v>1</v>
       </c>
       <c r="P471">
-        <v>7.15</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="Q471">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R471" t="s">
         <v>893</v>
@@ -21826,10 +21841,10 @@
         <v>614</v>
       </c>
       <c r="P472">
-        <v>7.45</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="Q472">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R472" t="s">
         <v>893</v>
@@ -21866,11 +21881,14 @@
       <c r="J473" t="s">
         <v>614</v>
       </c>
+      <c r="M473">
+        <v>1</v>
+      </c>
       <c r="P473">
-        <v>6.95</v>
+        <v>6.7329999999999997</v>
       </c>
       <c r="Q473">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R473" t="s">
         <v>893</v>
@@ -22001,13 +22019,13 @@
         <v>614</v>
       </c>
       <c r="M477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P477">
-        <v>6.2</v>
+        <v>6.4660000000000002</v>
       </c>
       <c r="Q477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R477" t="s">
         <v>893</v>
@@ -22045,10 +22063,10 @@
         <v>614</v>
       </c>
       <c r="P478">
-        <v>6.95</v>
+        <v>7.266</v>
       </c>
       <c r="Q478">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R478" t="s">
         <v>893</v>
@@ -22121,7 +22139,7 @@
         <v>6.5</v>
       </c>
       <c r="Q480">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.25">
@@ -22156,13 +22174,13 @@
         <v>614</v>
       </c>
       <c r="K481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P481">
-        <v>7.05</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="Q481">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R481" t="s">
         <v>893</v>
@@ -22206,7 +22224,7 @@
         <v>6.5</v>
       </c>
       <c r="Q482">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R482" t="s">
         <v>893</v>
@@ -22285,10 +22303,10 @@
         <v>1</v>
       </c>
       <c r="P484">
-        <v>7.45</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="Q484">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R484" t="s">
         <v>893</v>
@@ -22358,10 +22376,10 @@
         <v>614</v>
       </c>
       <c r="P486">
-        <v>6.35</v>
+        <v>6.633</v>
       </c>
       <c r="Q486">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
@@ -22396,10 +22414,10 @@
         <v>614</v>
       </c>
       <c r="P487">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="Q487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R487" t="s">
         <v>893</v>
@@ -22478,10 +22496,10 @@
         <v>2</v>
       </c>
       <c r="P489">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Q489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R489" t="s">
         <v>893</v>
@@ -22518,8 +22536,11 @@
       <c r="J490" t="s">
         <v>614</v>
       </c>
+      <c r="P490">
+        <v>6.5</v>
+      </c>
       <c r="Q490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.25">
@@ -22557,10 +22578,10 @@
         <v>1</v>
       </c>
       <c r="P491">
-        <v>6.85</v>
+        <v>6.7329999999999997</v>
       </c>
       <c r="Q491">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R491" t="s">
         <v>893</v>
@@ -22629,11 +22650,14 @@
       <c r="J493" t="s">
         <v>614</v>
       </c>
+      <c r="M493">
+        <v>1</v>
+      </c>
       <c r="P493">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="Q493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.25">
@@ -22702,11 +22726,14 @@
       <c r="J495" t="s">
         <v>635</v>
       </c>
+      <c r="O495">
+        <v>1</v>
+      </c>
       <c r="P495">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="Q495">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.25">
@@ -22814,10 +22841,10 @@
         <v>635</v>
       </c>
       <c r="P498">
-        <v>6.35</v>
+        <v>6.5330000000000004</v>
       </c>
       <c r="Q498">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R498" t="s">
         <v>893</v>
@@ -22855,10 +22882,10 @@
         <v>635</v>
       </c>
       <c r="P499">
-        <v>6.5</v>
+        <v>6.766</v>
       </c>
       <c r="Q499">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R499" t="s">
         <v>893</v>
@@ -22959,6 +22986,12 @@
       <c r="J502" t="s">
         <v>635</v>
       </c>
+      <c r="P502">
+        <v>7.2</v>
+      </c>
+      <c r="Q502">
+        <v>1</v>
+      </c>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
@@ -22995,10 +23028,10 @@
         <v>1</v>
       </c>
       <c r="P503">
-        <v>6.95</v>
+        <v>6.766</v>
       </c>
       <c r="Q503">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R503" t="s">
         <v>893</v>
@@ -23035,6 +23068,12 @@
       <c r="J504" t="s">
         <v>635</v>
       </c>
+      <c r="P504">
+        <v>7</v>
+      </c>
+      <c r="Q504">
+        <v>1</v>
+      </c>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
@@ -23141,10 +23180,10 @@
         <v>635</v>
       </c>
       <c r="P507">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q507">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.25">
@@ -23179,10 +23218,10 @@
         <v>635</v>
       </c>
       <c r="P508">
-        <v>7.15</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="Q508">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R508" t="s">
         <v>893</v>
@@ -23220,10 +23259,10 @@
         <v>635</v>
       </c>
       <c r="P509">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.25">
@@ -23296,10 +23335,10 @@
         <v>1</v>
       </c>
       <c r="P511">
-        <v>7.5</v>
+        <v>7.266</v>
       </c>
       <c r="Q511">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R511" t="s">
         <v>893</v>
@@ -23337,10 +23376,10 @@
         <v>635</v>
       </c>
       <c r="P512">
-        <v>6.95</v>
+        <v>7.266</v>
       </c>
       <c r="Q512">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R512" t="s">
         <v>893</v>
@@ -23377,8 +23416,11 @@
       <c r="J513" t="s">
         <v>635</v>
       </c>
+      <c r="P513">
+        <v>7.1</v>
+      </c>
       <c r="Q513">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.25">
@@ -23533,7 +23575,7 @@
         <v>6.5</v>
       </c>
       <c r="Q517">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R517" t="s">
         <v>893</v>
@@ -23570,11 +23612,14 @@
       <c r="J518" t="s">
         <v>635</v>
       </c>
+      <c r="M518">
+        <v>1</v>
+      </c>
       <c r="P518">
         <v>6.6</v>
       </c>
       <c r="Q518">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R518" t="s">
         <v>893</v>
@@ -23611,6 +23656,12 @@
       <c r="J519" t="s">
         <v>635</v>
       </c>
+      <c r="P519">
+        <v>6.5</v>
+      </c>
+      <c r="Q519">
+        <v>1</v>
+      </c>
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
@@ -23650,10 +23701,10 @@
         <v>1</v>
       </c>
       <c r="P520">
-        <v>7.05</v>
+        <v>6.8659999999999997</v>
       </c>
       <c r="Q520">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">
@@ -23725,6 +23776,9 @@
       <c r="J522" t="s">
         <v>668</v>
       </c>
+      <c r="M522">
+        <v>1</v>
+      </c>
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
@@ -23757,11 +23811,14 @@
       <c r="J523" t="s">
         <v>668</v>
       </c>
+      <c r="M523">
+        <v>1</v>
+      </c>
       <c r="P523">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="Q523">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R523" t="s">
         <v>893</v>
@@ -23799,10 +23856,10 @@
         <v>668</v>
       </c>
       <c r="P524">
-        <v>6.65</v>
+        <v>6.8</v>
       </c>
       <c r="Q524">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.25">
@@ -23915,11 +23972,14 @@
       <c r="L527">
         <v>1</v>
       </c>
+      <c r="M527">
+        <v>1</v>
+      </c>
       <c r="P527">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Q527">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R527" t="s">
         <v>893</v>
@@ -23957,13 +24017,13 @@
         <v>668</v>
       </c>
       <c r="M528">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P528">
-        <v>5.95</v>
+        <v>6.2</v>
       </c>
       <c r="Q528">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R528" t="s">
         <v>893</v>
@@ -24001,10 +24061,10 @@
         <v>668</v>
       </c>
       <c r="P529">
-        <v>7.05</v>
+        <v>7.266</v>
       </c>
       <c r="Q529">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R529" t="s">
         <v>893</v>
@@ -24085,11 +24145,14 @@
       <c r="K531">
         <v>1</v>
       </c>
+      <c r="M531">
+        <v>1</v>
+      </c>
       <c r="P531">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="Q531">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R531" t="s">
         <v>893</v>
@@ -24126,14 +24189,17 @@
       <c r="J532" t="s">
         <v>668</v>
       </c>
+      <c r="K532">
+        <v>1</v>
+      </c>
       <c r="M532">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P532">
-        <v>6.85</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="Q532">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R532" t="s">
         <v>893</v>
@@ -24170,11 +24236,17 @@
       <c r="J533" t="s">
         <v>668</v>
       </c>
+      <c r="L533">
+        <v>1</v>
+      </c>
+      <c r="M533">
+        <v>1</v>
+      </c>
       <c r="P533">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Q533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
@@ -24208,6 +24280,15 @@
       <c r="J534" t="s">
         <v>668</v>
       </c>
+      <c r="M534">
+        <v>1</v>
+      </c>
+      <c r="P534">
+        <v>6.3</v>
+      </c>
+      <c r="Q534">
+        <v>2</v>
+      </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
@@ -24240,6 +24321,12 @@
       <c r="J535" t="s">
         <v>668</v>
       </c>
+      <c r="P535">
+        <v>6.7</v>
+      </c>
+      <c r="Q535">
+        <v>1</v>
+      </c>
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
@@ -24272,11 +24359,17 @@
       <c r="J536" t="s">
         <v>668</v>
       </c>
+      <c r="L536">
+        <v>1</v>
+      </c>
+      <c r="M536">
+        <v>1</v>
+      </c>
       <c r="P536">
         <v>6.45</v>
       </c>
       <c r="Q536">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R536" t="s">
         <v>893</v>
@@ -24316,11 +24409,14 @@
       <c r="K537">
         <v>1</v>
       </c>
+      <c r="M537">
+        <v>1</v>
+      </c>
       <c r="P537">
-        <v>7.55</v>
+        <v>7.2329999999999997</v>
       </c>
       <c r="Q537">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R537" t="s">
         <v>893</v>
@@ -24399,10 +24495,10 @@
         <v>1</v>
       </c>
       <c r="P539">
-        <v>6.5</v>
+        <v>6.5659999999999998</v>
       </c>
       <c r="Q539">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.25">
@@ -24437,10 +24533,10 @@
         <v>668</v>
       </c>
       <c r="P540">
-        <v>6.55</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="Q540">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R540" t="s">
         <v>893</v>
@@ -24547,11 +24643,14 @@
       <c r="J543" t="s">
         <v>668</v>
       </c>
+      <c r="M543">
+        <v>1</v>
+      </c>
       <c r="P543">
-        <v>6.75</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="Q543">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R543" t="s">
         <v>893</v>
@@ -24652,6 +24751,15 @@
       <c r="J546" t="s">
         <v>668</v>
       </c>
+      <c r="K546">
+        <v>1</v>
+      </c>
+      <c r="P546">
+        <v>7.5</v>
+      </c>
+      <c r="Q546">
+        <v>1</v>
+      </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
@@ -24684,11 +24792,14 @@
       <c r="J547" t="s">
         <v>679</v>
       </c>
+      <c r="O547">
+        <v>1</v>
+      </c>
       <c r="P547">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Q547">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R547" t="s">
         <v>893</v>
@@ -24790,10 +24901,10 @@
         <v>679</v>
       </c>
       <c r="P550">
-        <v>6.65</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="Q550">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
@@ -24828,10 +24939,10 @@
         <v>679</v>
       </c>
       <c r="P551">
-        <v>6.65</v>
+        <v>6.8</v>
       </c>
       <c r="Q551">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R551" t="s">
         <v>893</v>
@@ -24872,10 +24983,10 @@
         <v>1</v>
       </c>
       <c r="P552">
-        <v>6.4</v>
+        <v>6.4660000000000002</v>
       </c>
       <c r="Q552">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R552" t="s">
         <v>893</v>
@@ -24947,8 +25058,11 @@
       <c r="M554">
         <v>1</v>
       </c>
+      <c r="P554">
+        <v>7</v>
+      </c>
       <c r="Q554">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.25">
@@ -24986,10 +25100,10 @@
         <v>1</v>
       </c>
       <c r="P555">
-        <v>6.75</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="Q555">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R555" t="s">
         <v>893</v>
@@ -25059,13 +25173,13 @@
         <v>679</v>
       </c>
       <c r="M557">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P557">
         <v>6.7</v>
       </c>
       <c r="Q557">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.25">
@@ -25179,7 +25293,7 @@
         <v>6.85</v>
       </c>
       <c r="Q560">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R560" t="s">
         <v>893</v>
@@ -25249,10 +25363,10 @@
         <v>679</v>
       </c>
       <c r="P562">
-        <v>6.65</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="Q562">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R562" t="s">
         <v>893</v>
@@ -25289,6 +25403,12 @@
       <c r="J563" t="s">
         <v>679</v>
       </c>
+      <c r="P563">
+        <v>6.4</v>
+      </c>
+      <c r="Q563">
+        <v>1</v>
+      </c>
       <c r="R563" t="s">
         <v>893</v>
       </c>
@@ -25325,10 +25445,10 @@
         <v>679</v>
       </c>
       <c r="P564">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q564">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R564" t="s">
         <v>893</v>
@@ -25365,11 +25485,14 @@
       <c r="J565" t="s">
         <v>679</v>
       </c>
+      <c r="K565">
+        <v>1</v>
+      </c>
       <c r="P565">
-        <v>6.95</v>
+        <v>7.2329999999999997</v>
       </c>
       <c r="Q565">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R565" t="s">
         <v>893</v>
@@ -25442,10 +25565,10 @@
         <v>679</v>
       </c>
       <c r="P567">
-        <v>6.1</v>
+        <v>6.266</v>
       </c>
       <c r="Q567">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.25">
@@ -25483,7 +25606,7 @@
         <v>6.5</v>
       </c>
       <c r="Q568">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.25">
@@ -25550,13 +25673,16 @@
         <v>679</v>
       </c>
       <c r="K570">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="L570">
+        <v>1</v>
       </c>
       <c r="P570">
-        <v>7.6</v>
+        <v>7.633</v>
       </c>
       <c r="Q570">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R570" t="s">
         <v>893</v>
@@ -25664,10 +25790,10 @@
         <v>1</v>
       </c>
       <c r="P573">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q573">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R573" t="s">
         <v>893</v>
@@ -25810,10 +25936,10 @@
         <v>719</v>
       </c>
       <c r="P577">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q577">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R577" t="s">
         <v>893</v>
@@ -25850,8 +25976,11 @@
       <c r="J578" t="s">
         <v>719</v>
       </c>
+      <c r="P578">
+        <v>4.8</v>
+      </c>
       <c r="Q578">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.25">
@@ -25968,10 +26097,10 @@
         <v>719</v>
       </c>
       <c r="P581">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q581">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.25">
@@ -26050,7 +26179,7 @@
         <v>6.3</v>
       </c>
       <c r="Q583">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.25">
@@ -26091,7 +26220,7 @@
         <v>6.5</v>
       </c>
       <c r="Q584">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R584" t="s">
         <v>893</v>
@@ -26128,8 +26257,11 @@
       <c r="J585" t="s">
         <v>719</v>
       </c>
+      <c r="P585">
+        <v>6.7</v>
+      </c>
       <c r="Q585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.25">
@@ -26163,11 +26295,14 @@
       <c r="J586" t="s">
         <v>719</v>
       </c>
+      <c r="M586">
+        <v>1</v>
+      </c>
       <c r="P586">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.25">
@@ -26201,6 +26336,12 @@
       <c r="J587" t="s">
         <v>719</v>
       </c>
+      <c r="P587">
+        <v>6.3</v>
+      </c>
+      <c r="Q587">
+        <v>1</v>
+      </c>
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
@@ -26233,6 +26374,12 @@
       <c r="J588" t="s">
         <v>719</v>
       </c>
+      <c r="P588">
+        <v>6.8</v>
+      </c>
+      <c r="Q588">
+        <v>1</v>
+      </c>
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
@@ -26442,7 +26589,7 @@
         <v>6.6</v>
       </c>
       <c r="Q593">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.25">
@@ -26476,11 +26623,14 @@
       <c r="J594" t="s">
         <v>719</v>
       </c>
+      <c r="M594">
+        <v>1</v>
+      </c>
       <c r="P594">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q594">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
@@ -26520,8 +26670,11 @@
       <c r="M595">
         <v>1</v>
       </c>
+      <c r="P595">
+        <v>7.2</v>
+      </c>
       <c r="Q595">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
@@ -26555,6 +26708,12 @@
       <c r="J596" t="s">
         <v>719</v>
       </c>
+      <c r="P596">
+        <v>7.6</v>
+      </c>
+      <c r="Q596">
+        <v>1</v>
+      </c>
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
@@ -26587,6 +26746,12 @@
       <c r="J597" t="s">
         <v>719</v>
       </c>
+      <c r="P597">
+        <v>6.7</v>
+      </c>
+      <c r="Q597">
+        <v>1</v>
+      </c>
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
@@ -26622,11 +26787,14 @@
       <c r="L598">
         <v>1</v>
       </c>
+      <c r="M598">
+        <v>1</v>
+      </c>
       <c r="P598">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q598">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R598" t="s">
         <v>893</v>
@@ -26663,6 +26831,12 @@
       <c r="J599" t="s">
         <v>733</v>
       </c>
+      <c r="P599">
+        <v>6.3</v>
+      </c>
+      <c r="Q599">
+        <v>1</v>
+      </c>
       <c r="R599" t="s">
         <v>893</v>
       </c>
@@ -26734,7 +26908,7 @@
         <v>6.45</v>
       </c>
       <c r="Q601">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
@@ -26803,11 +26977,14 @@
       <c r="J603" t="s">
         <v>733</v>
       </c>
+      <c r="M603">
+        <v>1</v>
+      </c>
       <c r="P603">
-        <v>6.8</v>
+        <v>6.633</v>
       </c>
       <c r="Q603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.25">
@@ -26873,11 +27050,14 @@
       <c r="J605" t="s">
         <v>733</v>
       </c>
+      <c r="L605">
+        <v>1</v>
+      </c>
       <c r="P605">
-        <v>5.05</v>
+        <v>5.6</v>
       </c>
       <c r="Q605">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R605" t="s">
         <v>893</v>
@@ -26950,10 +27130,10 @@
         <v>1</v>
       </c>
       <c r="P607">
-        <v>6.55</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="Q607">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R607" t="s">
         <v>893</v>
@@ -26991,10 +27171,10 @@
         <v>733</v>
       </c>
       <c r="P608">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q608">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R608" t="s">
         <v>893</v>
@@ -27035,10 +27215,10 @@
         <v>1</v>
       </c>
       <c r="P609">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Q609">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R609" t="s">
         <v>893</v>
@@ -27075,11 +27255,17 @@
       <c r="J610" t="s">
         <v>733</v>
       </c>
+      <c r="K610">
+        <v>1</v>
+      </c>
+      <c r="M610">
+        <v>1</v>
+      </c>
       <c r="P610">
-        <v>6.85</v>
+        <v>7.133</v>
       </c>
       <c r="Q610">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R610" t="s">
         <v>893</v>
@@ -27154,6 +27340,9 @@
       <c r="J612" t="s">
         <v>733</v>
       </c>
+      <c r="M612">
+        <v>1</v>
+      </c>
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
@@ -27231,10 +27420,10 @@
         <v>1</v>
       </c>
       <c r="P614">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Q614">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R614" t="s">
         <v>893</v>
@@ -27309,11 +27498,17 @@
       <c r="J616" t="s">
         <v>733</v>
       </c>
+      <c r="M616">
+        <v>2</v>
+      </c>
+      <c r="N616">
+        <v>1</v>
+      </c>
       <c r="P616">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="Q616">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R616" t="s">
         <v>893</v>
@@ -27354,7 +27549,7 @@
         <v>6.6</v>
       </c>
       <c r="Q617">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.25">
@@ -27389,10 +27584,10 @@
         <v>733</v>
       </c>
       <c r="P618">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="Q618">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.25">
@@ -27465,10 +27660,10 @@
         <v>733</v>
       </c>
       <c r="P620">
-        <v>6.9</v>
+        <v>6.85</v>
       </c>
       <c r="Q620">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R620" t="s">
         <v>893</v>
@@ -27506,7 +27701,7 @@
         <v>733</v>
       </c>
       <c r="M621">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P621">
         <v>7.3</v>
@@ -27553,7 +27748,7 @@
         <v>6.65</v>
       </c>
       <c r="Q622">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.25">
@@ -27588,10 +27783,10 @@
         <v>733</v>
       </c>
       <c r="P623">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q623">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.25">
@@ -27624,6 +27819,15 @@
       </c>
       <c r="J624" t="s">
         <v>733</v>
+      </c>
+      <c r="N624">
+        <v>1</v>
+      </c>
+      <c r="P624">
+        <v>5.4</v>
+      </c>
+      <c r="Q624">
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:17" x14ac:dyDescent="0.25">

--- a/backend/excels/euro2024_players.xlsx
+++ b/backend/excels/euro2024_players.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="910">
   <si>
     <t>Name</t>
   </si>
@@ -2746,6 +2746,9 @@
   </si>
   <si>
     <t>Samet Akaydin (O.G)</t>
+  </si>
+  <si>
+    <t>Donyell Malen (O.G)</t>
   </si>
 </sst>
 </file>
@@ -3570,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R631"/>
+  <dimension ref="A1:R632"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="R553" sqref="R553"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A603" workbookViewId="0">
+      <selection activeCell="K632" sqref="K632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3779,6 +3782,9 @@
       <c r="Q5">
         <v>1</v>
       </c>
+      <c r="R5" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3820,9 +3826,6 @@
       <c r="Q6">
         <v>3</v>
       </c>
-      <c r="R6" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4438,9 +4441,6 @@
       <c r="Q21">
         <v>3</v>
       </c>
-      <c r="R21" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4666,6 +4666,9 @@
       <c r="Q27">
         <v>3</v>
       </c>
+      <c r="R27" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4850,11 +4853,8 @@
       <c r="Q32">
         <v>3</v>
       </c>
-      <c r="R32" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -4964,11 +4964,8 @@
       <c r="Q35">
         <v>3</v>
       </c>
-      <c r="R35" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -5005,11 +5002,8 @@
       <c r="Q36">
         <v>3</v>
       </c>
-      <c r="R36" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -5046,11 +5040,8 @@
       <c r="Q37">
         <v>2</v>
       </c>
-      <c r="R37" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -5082,7 +5073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -5123,7 +5114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5154,11 +5145,8 @@
       <c r="J40" t="s">
         <v>59</v>
       </c>
-      <c r="R40" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -5201,11 +5189,8 @@
       <c r="Q41">
         <v>3</v>
       </c>
-      <c r="R41" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -5242,11 +5227,8 @@
       <c r="Q42">
         <v>3</v>
       </c>
-      <c r="R42" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5286,11 +5268,8 @@
       <c r="Q43">
         <v>3</v>
       </c>
-      <c r="R43" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5331,7 +5310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -5369,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -5401,7 +5380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -5439,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -5476,11 +5455,8 @@
       <c r="Q48">
         <v>2</v>
       </c>
-      <c r="R48" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -5515,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -5547,7 +5523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>762</v>
       </c>
@@ -5584,11 +5560,8 @@
       <c r="Q51">
         <v>3</v>
       </c>
-      <c r="R51" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -5626,7 +5599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -5658,7 +5631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>763</v>
       </c>
@@ -5698,11 +5671,8 @@
       <c r="Q54">
         <v>3</v>
       </c>
-      <c r="R54" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>765</v>
       </c>
@@ -5734,7 +5704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>766</v>
       </c>
@@ -5766,7 +5736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>827</v>
       </c>
@@ -5806,11 +5776,8 @@
       <c r="Q57">
         <v>3</v>
       </c>
-      <c r="R57" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -5850,11 +5817,8 @@
       <c r="Q58">
         <v>2</v>
       </c>
-      <c r="R58" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>767</v>
       </c>
@@ -5892,7 +5856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -5924,7 +5888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>828</v>
       </c>
@@ -5961,11 +5925,8 @@
       <c r="Q61">
         <v>1</v>
       </c>
-      <c r="R61" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -6002,11 +5963,8 @@
       <c r="Q62">
         <v>3</v>
       </c>
-      <c r="R62" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -6044,7 +6002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>829</v>
       </c>
@@ -6085,7 +6043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -6123,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>830</v>
       </c>
@@ -6154,11 +6112,8 @@
       <c r="J66" t="s">
         <v>100</v>
       </c>
-      <c r="R66" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -6196,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>831</v>
       </c>
@@ -6233,11 +6188,8 @@
       <c r="Q68">
         <v>3</v>
       </c>
-      <c r="R68" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -6280,11 +6232,8 @@
       <c r="Q69">
         <v>3</v>
       </c>
-      <c r="R69" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>768</v>
       </c>
@@ -6324,11 +6273,8 @@
       <c r="Q70">
         <v>3</v>
       </c>
-      <c r="R70" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -6369,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>769</v>
       </c>
@@ -6401,7 +6347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>770</v>
       </c>
@@ -6436,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>832</v>
       </c>
@@ -6477,7 +6423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>771</v>
       </c>
@@ -6509,7 +6455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -6546,11 +6492,8 @@
       <c r="Q76">
         <v>3</v>
       </c>
-      <c r="R76" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -6594,7 +6537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>833</v>
       </c>
@@ -6637,11 +6580,8 @@
       <c r="Q78">
         <v>3</v>
       </c>
-      <c r="R78" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>772</v>
       </c>
@@ -6679,7 +6619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -7485,6 +7425,9 @@
       <c r="Q100">
         <v>3</v>
       </c>
+      <c r="R100" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -7599,6 +7542,9 @@
       <c r="Q103">
         <v>3</v>
       </c>
+      <c r="R103" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -7637,9 +7583,6 @@
       <c r="Q104">
         <v>2</v>
       </c>
-      <c r="R104" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -7681,9 +7624,6 @@
       <c r="Q105">
         <v>2</v>
       </c>
-      <c r="R105" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -7924,6 +7864,9 @@
       <c r="Q111">
         <v>2</v>
       </c>
+      <c r="R111" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -7962,9 +7905,6 @@
       <c r="Q112">
         <v>1</v>
       </c>
-      <c r="R112" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -8779,9 +8719,6 @@
       <c r="Q132">
         <v>3</v>
       </c>
-      <c r="R132" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -8887,9 +8824,6 @@
       <c r="Q135">
         <v>2</v>
       </c>
-      <c r="R135" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -8928,9 +8862,6 @@
       <c r="Q136">
         <v>1</v>
       </c>
-      <c r="R136" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -9074,9 +9005,6 @@
       <c r="Q140">
         <v>3</v>
       </c>
-      <c r="R140" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -9188,9 +9116,6 @@
       <c r="Q143">
         <v>3</v>
       </c>
-      <c r="R143" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -9229,11 +9154,8 @@
       <c r="Q144">
         <v>3</v>
       </c>
-      <c r="R144" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>217</v>
       </c>
@@ -9274,7 +9196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -9312,7 +9234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>221</v>
       </c>
@@ -9355,11 +9277,8 @@
       <c r="Q147">
         <v>3</v>
       </c>
-      <c r="R147" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>222</v>
       </c>
@@ -9396,11 +9315,8 @@
       <c r="Q148">
         <v>3</v>
       </c>
-      <c r="R148" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>223</v>
       </c>
@@ -9432,7 +9348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>779</v>
       </c>
@@ -9464,7 +9380,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>225</v>
       </c>
@@ -9505,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>227</v>
       </c>
@@ -9537,7 +9453,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>228</v>
       </c>
@@ -9574,11 +9490,8 @@
       <c r="Q153">
         <v>3</v>
       </c>
-      <c r="R153" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>229</v>
       </c>
@@ -9610,7 +9523,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>230</v>
       </c>
@@ -9650,11 +9563,8 @@
       <c r="Q155">
         <v>3</v>
       </c>
-      <c r="R155" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>231</v>
       </c>
@@ -9695,7 +9605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>233</v>
       </c>
@@ -9732,11 +9642,8 @@
       <c r="Q157">
         <v>2</v>
       </c>
-      <c r="R157" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>234</v>
       </c>
@@ -9773,11 +9680,8 @@
       <c r="Q158">
         <v>3</v>
       </c>
-      <c r="R158" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>237</v>
       </c>
@@ -9809,7 +9713,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -9841,7 +9745,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>241</v>
       </c>
@@ -9878,11 +9782,8 @@
       <c r="Q161">
         <v>3</v>
       </c>
-      <c r="R161" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>242</v>
       </c>
@@ -9914,7 +9815,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>243</v>
       </c>
@@ -9946,7 +9847,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>244</v>
       </c>
@@ -9978,7 +9879,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>246</v>
       </c>
@@ -10015,11 +9916,8 @@
       <c r="Q165">
         <v>3</v>
       </c>
-      <c r="R165" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>248</v>
       </c>
@@ -10056,11 +9954,8 @@
       <c r="Q166">
         <v>3</v>
       </c>
-      <c r="R166" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>250</v>
       </c>
@@ -10092,7 +9987,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>252</v>
       </c>
@@ -10132,11 +10027,8 @@
       <c r="Q168">
         <v>2</v>
       </c>
-      <c r="R168" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>842</v>
       </c>
@@ -10174,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>255</v>
       </c>
@@ -10211,11 +10103,8 @@
       <c r="Q170">
         <v>3</v>
       </c>
-      <c r="R170" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>256</v>
       </c>
@@ -10252,11 +10141,8 @@
       <c r="Q171">
         <v>3</v>
       </c>
-      <c r="R171" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>257</v>
       </c>
@@ -10300,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>259</v>
       </c>
@@ -10332,7 +10218,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>261</v>
       </c>
@@ -10372,11 +10258,8 @@
       <c r="Q174">
         <v>3</v>
       </c>
-      <c r="R174" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>263</v>
       </c>
@@ -10417,7 +10300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>264</v>
       </c>
@@ -10495,9 +10378,6 @@
       <c r="Q177">
         <v>3</v>
       </c>
-      <c r="R177" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -10580,9 +10460,6 @@
       <c r="Q179">
         <v>3</v>
       </c>
-      <c r="R179" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -10662,9 +10539,6 @@
       <c r="Q181">
         <v>3</v>
       </c>
-      <c r="R181" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -10922,6 +10796,9 @@
       <c r="J188" t="s">
         <v>277</v>
       </c>
+      <c r="R188" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -10966,9 +10843,6 @@
       <c r="Q189">
         <v>3</v>
       </c>
-      <c r="R189" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -11700,9 +11574,6 @@
       <c r="Q208">
         <v>3</v>
       </c>
-      <c r="R208" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -11741,6 +11612,9 @@
       <c r="Q209">
         <v>2</v>
       </c>
+      <c r="R209" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -13041,6 +12915,9 @@
       <c r="J244" t="s">
         <v>354</v>
       </c>
+      <c r="R244" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
@@ -13079,9 +12956,6 @@
       <c r="Q245">
         <v>3</v>
       </c>
-      <c r="R245" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -13164,9 +13038,6 @@
       <c r="Q247">
         <v>3</v>
       </c>
-      <c r="R247" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
@@ -13287,6 +13158,9 @@
       <c r="Q250">
         <v>2</v>
       </c>
+      <c r="R250" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
@@ -14053,9 +13927,6 @@
       <c r="Q270">
         <v>3</v>
       </c>
-      <c r="R270" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
@@ -14138,6 +14009,9 @@
       <c r="Q272">
         <v>3</v>
       </c>
+      <c r="R272" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
@@ -14214,9 +14088,6 @@
       <c r="Q274">
         <v>3</v>
       </c>
-      <c r="R274" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
@@ -14410,6 +14281,9 @@
       <c r="Q279">
         <v>1</v>
       </c>
+      <c r="R279" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
@@ -14747,7 +14621,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>411</v>
       </c>
@@ -14787,11 +14661,8 @@
       <c r="Q289">
         <v>3</v>
       </c>
-      <c r="R289" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>850</v>
       </c>
@@ -14823,7 +14694,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>413</v>
       </c>
@@ -14860,11 +14731,8 @@
       <c r="Q291">
         <v>3</v>
       </c>
-      <c r="R291" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>851</v>
       </c>
@@ -14904,11 +14772,8 @@
       <c r="Q292">
         <v>3</v>
       </c>
-      <c r="R292" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>415</v>
       </c>
@@ -14945,11 +14810,8 @@
       <c r="Q293">
         <v>3</v>
       </c>
-      <c r="R293" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>417</v>
       </c>
@@ -14981,7 +14843,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>419</v>
       </c>
@@ -15021,11 +14883,8 @@
       <c r="Q295">
         <v>2</v>
       </c>
-      <c r="R295" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>420</v>
       </c>
@@ -15057,7 +14916,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>422</v>
       </c>
@@ -15089,7 +14948,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>424</v>
       </c>
@@ -15126,11 +14985,8 @@
       <c r="Q298">
         <v>3</v>
       </c>
-      <c r="R298" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>425</v>
       </c>
@@ -15168,7 +15024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>852</v>
       </c>
@@ -15205,11 +15061,8 @@
       <c r="Q300">
         <v>3</v>
       </c>
-      <c r="R300" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>783</v>
       </c>
@@ -15247,7 +15100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>853</v>
       </c>
@@ -15288,7 +15141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>854</v>
       </c>
@@ -15329,7 +15182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>428</v>
       </c>
@@ -15361,7 +15214,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>855</v>
       </c>
@@ -15399,7 +15252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>431</v>
       </c>
@@ -15440,7 +15293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>432</v>
       </c>
@@ -15478,7 +15331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>433</v>
       </c>
@@ -15518,11 +15371,8 @@
       <c r="Q308">
         <v>3</v>
       </c>
-      <c r="R308" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>434</v>
       </c>
@@ -15559,11 +15409,8 @@
       <c r="Q309">
         <v>3</v>
       </c>
-      <c r="R309" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>856</v>
       </c>
@@ -15600,11 +15447,8 @@
       <c r="Q310">
         <v>3</v>
       </c>
-      <c r="R310" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>436</v>
       </c>
@@ -15644,11 +15488,8 @@
       <c r="Q311">
         <v>3</v>
       </c>
-      <c r="R311" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>784</v>
       </c>
@@ -15692,7 +15533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>437</v>
       </c>
@@ -15724,7 +15565,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>438</v>
       </c>
@@ -15756,7 +15597,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>785</v>
       </c>
@@ -15796,11 +15637,8 @@
       <c r="Q315">
         <v>2</v>
       </c>
-      <c r="R315" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>441</v>
       </c>
@@ -15841,7 +15679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>442</v>
       </c>
@@ -15878,11 +15716,8 @@
       <c r="Q317">
         <v>3</v>
       </c>
-      <c r="R317" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>857</v>
       </c>
@@ -15922,11 +15757,8 @@
       <c r="Q318">
         <v>2</v>
       </c>
-      <c r="R318" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>443</v>
       </c>
@@ -15958,7 +15790,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>444</v>
       </c>
@@ -15996,7 +15828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>446</v>
       </c>
@@ -16033,11 +15865,8 @@
       <c r="Q321">
         <v>3</v>
       </c>
-      <c r="R321" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>447</v>
       </c>
@@ -16069,7 +15898,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>858</v>
       </c>
@@ -16101,7 +15930,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>449</v>
       </c>
@@ -16138,11 +15967,8 @@
       <c r="Q324">
         <v>2</v>
       </c>
-      <c r="R324" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>450</v>
       </c>
@@ -16183,7 +16009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>452</v>
       </c>
@@ -16214,11 +16040,8 @@
       <c r="J326" t="s">
         <v>440</v>
       </c>
-      <c r="R326" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>453</v>
       </c>
@@ -16250,7 +16073,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>455</v>
       </c>
@@ -16288,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>859</v>
       </c>
@@ -16328,11 +16151,8 @@
       <c r="Q329">
         <v>3</v>
       </c>
-      <c r="R329" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>457</v>
       </c>
@@ -16373,7 +16193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>458</v>
       </c>
@@ -16411,7 +16231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>459</v>
       </c>
@@ -16448,11 +16268,8 @@
       <c r="Q332">
         <v>3</v>
       </c>
-      <c r="R332" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>461</v>
       </c>
@@ -16489,11 +16306,8 @@
       <c r="Q333">
         <v>3</v>
       </c>
-      <c r="R333" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>462</v>
       </c>
@@ -16531,7 +16345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>463</v>
       </c>
@@ -16569,7 +16383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>464</v>
       </c>
@@ -16650,9 +16464,6 @@
       <c r="Q337">
         <v>2</v>
       </c>
-      <c r="R337" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
@@ -16694,9 +16505,6 @@
       <c r="Q338">
         <v>2</v>
       </c>
-      <c r="R338" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
@@ -17270,9 +17078,6 @@
       <c r="Q353">
         <v>3</v>
       </c>
-      <c r="R353" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
@@ -17384,6 +17189,9 @@
       <c r="Q356">
         <v>3</v>
       </c>
+      <c r="R356" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
@@ -17919,9 +17727,6 @@
       <c r="Q370">
         <v>2</v>
       </c>
-      <c r="R370" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
@@ -17960,6 +17765,9 @@
       <c r="Q371">
         <v>2</v>
       </c>
+      <c r="R371" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
@@ -18001,6 +17809,9 @@
       <c r="Q372">
         <v>2</v>
       </c>
+      <c r="R372" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
@@ -18115,9 +17926,6 @@
       <c r="Q375">
         <v>2</v>
       </c>
-      <c r="R375" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
@@ -19016,9 +18824,6 @@
       <c r="Q398">
         <v>3</v>
       </c>
-      <c r="R398" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
@@ -19092,6 +18897,9 @@
       <c r="J400" t="s">
         <v>526</v>
       </c>
+      <c r="R400" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
@@ -19504,6 +19312,9 @@
       <c r="Q411">
         <v>1</v>
       </c>
+      <c r="R411" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
@@ -19627,9 +19438,6 @@
       <c r="Q414">
         <v>2</v>
       </c>
-      <c r="R414" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
@@ -20510,9 +20318,6 @@
       <c r="Q437">
         <v>3</v>
       </c>
-      <c r="R437" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
@@ -20589,6 +20394,9 @@
       <c r="Q439">
         <v>2</v>
       </c>
+      <c r="R439" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
@@ -21922,6 +21730,9 @@
       <c r="J474" t="s">
         <v>614</v>
       </c>
+      <c r="R474" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
@@ -22027,9 +21838,6 @@
       <c r="Q477">
         <v>3</v>
       </c>
-      <c r="R477" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
@@ -22381,6 +22189,9 @@
       <c r="Q486">
         <v>3</v>
       </c>
+      <c r="R486" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
@@ -22419,9 +22230,6 @@
       <c r="Q487">
         <v>2</v>
       </c>
-      <c r="R487" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
@@ -22773,11 +22581,8 @@
       <c r="Q496">
         <v>1</v>
       </c>
-      <c r="R496" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>637</v>
       </c>
@@ -22809,7 +22614,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>639</v>
       </c>
@@ -22846,11 +22651,8 @@
       <c r="Q498">
         <v>3</v>
       </c>
-      <c r="R498" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>640</v>
       </c>
@@ -22887,11 +22689,8 @@
       <c r="Q499">
         <v>3</v>
       </c>
-      <c r="R499" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>642</v>
       </c>
@@ -22923,7 +22722,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>643</v>
       </c>
@@ -22955,7 +22754,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>645</v>
       </c>
@@ -22993,7 +22792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>647</v>
       </c>
@@ -23033,11 +22832,8 @@
       <c r="Q503">
         <v>3</v>
       </c>
-      <c r="R503" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>648</v>
       </c>
@@ -23075,7 +22871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>649</v>
       </c>
@@ -23107,7 +22903,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>651</v>
       </c>
@@ -23144,11 +22940,8 @@
       <c r="Q506">
         <v>1</v>
       </c>
-      <c r="R506" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>652</v>
       </c>
@@ -23186,7 +22979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>653</v>
       </c>
@@ -23223,11 +23016,8 @@
       <c r="Q508">
         <v>3</v>
       </c>
-      <c r="R508" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>654</v>
       </c>
@@ -23265,7 +23055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>655</v>
       </c>
@@ -23297,7 +23087,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>657</v>
       </c>
@@ -23340,11 +23130,8 @@
       <c r="Q511">
         <v>3</v>
       </c>
-      <c r="R511" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>658</v>
       </c>
@@ -23380,9 +23167,6 @@
       </c>
       <c r="Q512">
         <v>3</v>
-      </c>
-      <c r="R512" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.25">
@@ -23460,9 +23244,6 @@
       <c r="Q514">
         <v>2</v>
       </c>
-      <c r="R514" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
@@ -23577,9 +23358,6 @@
       <c r="Q517">
         <v>3</v>
       </c>
-      <c r="R517" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
@@ -23621,9 +23399,6 @@
       <c r="Q518">
         <v>3</v>
       </c>
-      <c r="R518" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
@@ -23861,6 +23636,9 @@
       <c r="Q524">
         <v>3</v>
       </c>
+      <c r="R524" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
@@ -23981,9 +23759,6 @@
       <c r="Q527">
         <v>3</v>
       </c>
-      <c r="R527" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
@@ -24025,9 +23800,6 @@
       <c r="Q528">
         <v>3</v>
       </c>
-      <c r="R528" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
@@ -24248,6 +24020,9 @@
       <c r="Q533">
         <v>2</v>
       </c>
+      <c r="R533" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
@@ -24289,6 +24064,9 @@
       <c r="Q534">
         <v>2</v>
       </c>
+      <c r="R534" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
@@ -24360,7 +24138,7 @@
         <v>668</v>
       </c>
       <c r="L536">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M536">
         <v>1</v>
@@ -24370,9 +24148,6 @@
       </c>
       <c r="Q536">
         <v>3</v>
-      </c>
-      <c r="R536" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.25">
@@ -24906,6 +24681,9 @@
       <c r="Q550">
         <v>3</v>
       </c>
+      <c r="R550" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
@@ -24988,9 +24766,6 @@
       <c r="Q552">
         <v>3</v>
       </c>
-      <c r="R552" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
@@ -25064,6 +24839,9 @@
       <c r="Q554">
         <v>2</v>
       </c>
+      <c r="R554" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
@@ -25941,9 +25719,6 @@
       <c r="Q577">
         <v>2</v>
       </c>
-      <c r="R577" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
@@ -26020,6 +25795,9 @@
       <c r="Q579">
         <v>2</v>
       </c>
+      <c r="R579" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
@@ -26837,9 +26615,6 @@
       <c r="Q599">
         <v>1</v>
       </c>
-      <c r="R599" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
@@ -26942,9 +26717,6 @@
       <c r="J602" t="s">
         <v>733</v>
       </c>
-      <c r="R602" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
@@ -27059,9 +26831,6 @@
       <c r="Q605">
         <v>3</v>
       </c>
-      <c r="R605" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
@@ -27135,9 +26904,6 @@
       <c r="Q607">
         <v>3</v>
       </c>
-      <c r="R607" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
@@ -27176,11 +26942,8 @@
       <c r="Q608">
         <v>2</v>
       </c>
-      <c r="R608" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>824</v>
       </c>
@@ -27220,11 +26983,8 @@
       <c r="Q609">
         <v>3</v>
       </c>
-      <c r="R609" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>742</v>
       </c>
@@ -27267,11 +27027,8 @@
       <c r="Q610">
         <v>3</v>
       </c>
-      <c r="R610" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>903</v>
       </c>
@@ -27309,7 +27066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>743</v>
       </c>
@@ -27344,7 +27101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>745</v>
       </c>
@@ -27382,7 +27139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>746</v>
       </c>
@@ -27425,11 +27182,8 @@
       <c r="Q614">
         <v>3</v>
       </c>
-      <c r="R614" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>747</v>
       </c>
@@ -27467,7 +27221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>890</v>
       </c>
@@ -27510,11 +27264,8 @@
       <c r="Q616">
         <v>3</v>
       </c>
-      <c r="R616" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>748</v>
       </c>
@@ -27552,7 +27303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>749</v>
       </c>
@@ -27590,7 +27341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>750</v>
       </c>
@@ -27628,7 +27379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>751</v>
       </c>
@@ -27665,11 +27416,8 @@
       <c r="Q620">
         <v>2</v>
       </c>
-      <c r="R620" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>752</v>
       </c>
@@ -27709,11 +27457,8 @@
       <c r="Q621">
         <v>2</v>
       </c>
-      <c r="R621" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>825</v>
       </c>
@@ -27751,7 +27496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>753</v>
       </c>
@@ -27789,7 +27534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>754</v>
       </c>
@@ -27931,6 +27676,17 @@
         <v>719</v>
       </c>
       <c r="K631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>909</v>
+      </c>
+      <c r="J632" t="s">
+        <v>497</v>
+      </c>
+      <c r="K632">
         <v>1</v>
       </c>
     </row>
